--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500"/>
+    <workbookView windowWidth="23835" windowHeight="12465" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <r>
       <rPr>
@@ -794,6 +794,9 @@
     <t xml:space="preserve"> 值班工长</t>
   </si>
   <si>
+    <t>ST5_L1R_OB_SetDelAmt_8h_avg</t>
+  </si>
+  <si>
     <t>GF40</t>
   </si>
   <si>
@@ -1557,21 +1560,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="185" formatCode="0.000_ "/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1643,9 +1646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,8 +1660,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,15 +1676,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,11 +1698,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1707,6 +1733,30 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1732,58 +1782,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1842,25 +1845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,13 +1869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,7 +1893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,7 +1911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,7 +1923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,7 +1935,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,19 +1989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,43 +2001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,13 +2025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,16 +2602,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2630,9 +2633,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2655,43 +2690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2701,10 +2704,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,129 +2716,129 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2858,7 +2861,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2905,34 +2908,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2941,31 +2944,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2983,24 +2986,24 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3010,16 +3013,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3033,91 +3036,91 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3132,7 +3135,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3156,10 +3159,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,42 +3232,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3279,13 +3282,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3317,14 +3320,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3379,145 +3382,145 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3573,7 +3576,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3586,7 +3589,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3616,7 +3619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3635,10 +3638,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3654,7 +3657,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3696,13 +3699,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4088,7 +4091,7 @@
   <sheetPr/>
   <dimension ref="A2:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A18" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:O66"/>
     </sheetView>
   </sheetViews>
@@ -8848,7 +8851,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AM1"/>
     </sheetView>
   </sheetViews>
@@ -8856,133 +8859,133 @@
   <sheetData>
     <row r="1" ht="112.5" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="AQ1" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9007,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -9051,7 +9054,7 @@
         <v>55</v>
       </c>
       <c r="J1" s="116" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -9131,22 +9134,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9175,46 +9178,46 @@
       </c>
       <c r="C1" s="111"/>
       <c r="D1" s="110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" s="110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1" s="110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P1" s="110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +9242,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -9284,7 +9287,7 @@
   <sheetData>
     <row r="2" ht="35.25" spans="1:24">
       <c r="A2" s="61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -9343,7 +9346,7 @@
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="73"/>
@@ -9375,202 +9378,202 @@
     </row>
     <row r="5" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A5" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J5" s="95" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L5" s="76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M5" s="96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N5" s="76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O5" s="76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P5" s="76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="96" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R5" s="96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S5" s="79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T5" s="96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U5" s="79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V5" s="105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A6" s="75"/>
       <c r="B6" s="76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E6" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="81" t="s">
+      <c r="L6" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="95" t="s">
+      <c r="M6" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" s="76" t="s">
-        <v>169</v>
-      </c>
       <c r="O6" s="76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P6" s="76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R6" s="96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S6" s="79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T6" s="96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U6" s="79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V6" s="75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" s="51" customFormat="1" ht="90" customHeight="1" spans="1:22">
       <c r="A7" s="82"/>
       <c r="B7" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S7" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V7" s="50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
@@ -11796,7 +11799,7 @@
     </row>
     <row r="35" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A35" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="88"/>
       <c r="C35" s="88"/>
@@ -11845,67 +11848,67 @@
   <sheetData>
     <row r="1" ht="222.75" spans="1:21">
       <c r="A1" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11947,7 +11950,7 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="35.25" spans="1:39">
       <c r="A2" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -11993,7 +11996,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A4" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="11">
         <v>42256</v>
@@ -12030,14 +12033,14 @@
       <c r="AF4" s="33"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL4" s="10" t="s">
         <v>5</v>
@@ -12047,10 +12050,10 @@
     </row>
     <row r="5" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A5" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -12067,7 +12070,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -12084,7 +12087,7 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
@@ -12098,241 +12101,241 @@
     <row r="6" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="R6" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="S6" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="T6" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="U6" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="W6" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="X6" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="Y6" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="AA6" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="AB6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="AC6" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="AD6" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="Q6" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="R6" s="18" t="s">
+      <c r="AE6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF6" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="AG6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH6" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="T6" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="AI6" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ6" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK6" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL6" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM6" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN6" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="123.75" customHeight="1" spans="1:40">
       <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:42">
@@ -16341,7 +16344,7 @@
     </row>
     <row r="35" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
       <c r="A35" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -16455,7 +16458,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H39" s="7"/>
     </row>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\报表\烧结\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,13 @@
     <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
     <sheet name="_sjfx_day_hour" sheetId="8" r:id="rId10"/>
     <sheet name="_dictionary" sheetId="7" r:id="rId11"/>
+    <sheet name="_metadata" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">风箱温度压力!$A$1:$AN$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">过程参数!$A$2:$V$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1479,17 +1475,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="0.0"/>
-    <numFmt numFmtId="185" formatCode="0_ "/>
-    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="187" formatCode="0.000_ "/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="185" formatCode="0.000_ "/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -2174,7 +2170,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2193,7 +2189,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2217,58 +2213,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,97 +2279,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2382,31 +2378,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2415,16 +2411,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2433,10 +2429,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2472,13 +2468,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,7 +2489,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2507,11 +2503,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2525,56 +2521,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2591,14 +2587,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2641,14 +2637,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2672,13 +2668,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2708,80 +2704,142 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2795,22 +2853,82 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2819,159 +2937,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2979,73 +2994,46 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3388,41 +3376,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177">
+      <c r="B4" s="259">
         <v>43343</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="98"/>
       <c r="E4" s="98"/>
       <c r="F4" s="98"/>
@@ -3441,82 +3429,82 @@
       <c r="S4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="178" t="s">
+      <c r="T4" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="178"/>
+      <c r="U4" s="260"/>
       <c r="V4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="179" t="s">
+      <c r="W4" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="179"/>
+      <c r="X4" s="261"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="249" t="s">
+      <c r="C5" s="187"/>
+      <c r="D5" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="250"/>
-      <c r="F5" s="249" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="250"/>
-      <c r="H5" s="249" t="s">
+      <c r="G5" s="191"/>
+      <c r="H5" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="250"/>
-      <c r="J5" s="245" t="s">
+      <c r="I5" s="191"/>
+      <c r="J5" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="246"/>
-      <c r="L5" s="245" t="s">
+      <c r="K5" s="187"/>
+      <c r="L5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="246"/>
-      <c r="N5" s="245" t="s">
+      <c r="M5" s="187"/>
+      <c r="N5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="246"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="180" t="s">
+      <c r="O5" s="187"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
+      <c r="S5" s="229"/>
+      <c r="T5" s="229"/>
+      <c r="U5" s="229"/>
+      <c r="V5" s="229"/>
+      <c r="W5" s="229"/>
+      <c r="X5" s="230"/>
       <c r="Y5" s="156"/>
       <c r="Z5" s="156"/>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="244"/>
-      <c r="B6" s="247"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="248"/>
-      <c r="L6" s="247"/>
-      <c r="M6" s="248"/>
-      <c r="N6" s="247"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="254"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="195"/>
       <c r="R6" s="103" t="s">
         <v>15</v>
       </c>
@@ -3526,12 +3514,12 @@
       <c r="T6" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="183" t="s">
+      <c r="U6" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="185"/>
+      <c r="V6" s="211"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="257"/>
       <c r="Y6" s="156"/>
       <c r="Z6" s="156"/>
     </row>
@@ -3539,28 +3527,28 @@
       <c r="A7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="188" t="str">
+      <c r="B7" s="248" t="str">
         <f>IF(_sjmain1_day_hour!A2="","",_sjmain1_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190" t="str">
+      <c r="C7" s="249"/>
+      <c r="D7" s="250" t="str">
         <f>IF(_lilunshengchan_day_shift!A2="","",_lilunshengchan_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="185"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="256"/>
+      <c r="Q7" s="257"/>
       <c r="R7" s="120" t="s">
         <v>21</v>
       </c>
@@ -3568,10 +3556,10 @@
         <v>22</v>
       </c>
       <c r="T7" s="125"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="202"/>
+      <c r="U7" s="217"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="219"/>
       <c r="Y7" s="156"/>
       <c r="Z7" s="156"/>
     </row>
@@ -3579,28 +3567,28 @@
       <c r="A8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="188" t="str">
+      <c r="B8" s="248" t="str">
         <f>IF(_sjmain1_day_hour!A3="","",_sjmain1_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190" t="str">
+      <c r="C8" s="249"/>
+      <c r="D8" s="250" t="str">
         <f>IF(_lilunshengchan_day_shift!A3="","",_lilunshengchan_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="185"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="255"/>
+      <c r="P8" s="256"/>
+      <c r="Q8" s="257"/>
       <c r="R8" s="120" t="s">
         <v>21</v>
       </c>
@@ -3608,10 +3596,10 @@
         <v>21</v>
       </c>
       <c r="T8" s="141"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="201"/>
-      <c r="X8" s="202"/>
+      <c r="U8" s="217"/>
+      <c r="V8" s="218"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="219"/>
       <c r="Y8" s="156"/>
       <c r="Z8" s="156"/>
     </row>
@@ -3619,28 +3607,28 @@
       <c r="A9" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="188" t="str">
+      <c r="B9" s="248" t="str">
         <f>IF(_sjmain1_day_hour!A4="","",_sjmain1_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190" t="str">
+      <c r="C9" s="249"/>
+      <c r="D9" s="250" t="str">
         <f>IF(_lilunshengchan_day_shift!A4="","",_lilunshengchan_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="185"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="255"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="255"/>
+      <c r="P9" s="256"/>
+      <c r="Q9" s="257"/>
       <c r="R9" s="120" t="s">
         <v>21</v>
       </c>
@@ -3648,10 +3636,10 @@
         <v>21</v>
       </c>
       <c r="T9" s="125"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="201"/>
-      <c r="W9" s="201"/>
-      <c r="X9" s="202"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="219"/>
       <c r="Y9" s="156"/>
       <c r="Z9" s="156"/>
     </row>
@@ -3659,22 +3647,22 @@
       <c r="A10" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="210"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="245"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="247"/>
       <c r="R10" s="120" t="s">
         <v>21</v>
       </c>
@@ -3682,37 +3670,37 @@
         <v>21</v>
       </c>
       <c r="T10" s="125"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="202"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="218"/>
+      <c r="X10" s="219"/>
       <c r="Y10" s="156"/>
       <c r="Z10" s="156"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="211" t="s">
+      <c r="B11" s="229"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="212"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="214" t="s">
+      <c r="K11" s="232"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="215"/>
+      <c r="Q11" s="235"/>
       <c r="R11" s="120" t="s">
         <v>21</v>
       </c>
@@ -3720,10 +3708,10 @@
         <v>21</v>
       </c>
       <c r="T11" s="125"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="202"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="218"/>
+      <c r="W11" s="218"/>
+      <c r="X11" s="219"/>
       <c r="Y11" s="156"/>
       <c r="Z11" s="156"/>
     </row>
@@ -3786,10 +3774,10 @@
         <v>21</v>
       </c>
       <c r="T12" s="125"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="201"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="202"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="219"/>
       <c r="Y12" s="156"/>
       <c r="Z12" s="156"/>
     </row>
@@ -3868,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="T13" s="125"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="202"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="218"/>
+      <c r="W13" s="218"/>
+      <c r="X13" s="219"/>
       <c r="Y13" s="156"/>
       <c r="Z13" s="156"/>
     </row>
@@ -3950,10 +3938,10 @@
         <v>21</v>
       </c>
       <c r="T14" s="125"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="201"/>
-      <c r="X14" s="202"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="218"/>
+      <c r="W14" s="218"/>
+      <c r="X14" s="219"/>
       <c r="Y14" s="156"/>
       <c r="Z14" s="156"/>
     </row>
@@ -4032,35 +4020,35 @@
         <v>21</v>
       </c>
       <c r="T15" s="125"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="219"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="209"/>
       <c r="Y15" s="156"/>
       <c r="Z15" s="156"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="220" t="s">
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="221"/>
-      <c r="P16" s="221"/>
-      <c r="Q16" s="222"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="224"/>
       <c r="R16" s="146" t="s">
         <v>21</v>
       </c>
@@ -4068,10 +4056,10 @@
         <v>21</v>
       </c>
       <c r="T16" s="125"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="218"/>
-      <c r="W16" s="218"/>
-      <c r="X16" s="219"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="208"/>
+      <c r="W16" s="208"/>
+      <c r="X16" s="209"/>
       <c r="Y16" s="156"/>
       <c r="Z16" s="156"/>
     </row>
@@ -4134,10 +4122,10 @@
         <v>21</v>
       </c>
       <c r="T17" s="125"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="218"/>
-      <c r="W17" s="218"/>
-      <c r="X17" s="219"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="208"/>
+      <c r="W17" s="208"/>
+      <c r="X17" s="209"/>
       <c r="Y17" s="156"/>
       <c r="Z17" s="156"/>
     </row>
@@ -4191,7 +4179,7 @@
         <f>IF(_sjmain2_day_hour!K2="","",_sjmain2_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="275" t="str">
+      <c r="Q18" s="176" t="str">
         <f>IF(_sjmain2_day_hour!L2="","",_sjmain2_day_hour!L2)</f>
         <v/>
       </c>
@@ -4255,7 +4243,7 @@
         <f>IF(_sjmain2_day_hour!K3="","",_sjmain2_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="275" t="str">
+      <c r="Q19" s="176" t="str">
         <f>IF(_sjmain2_day_hour!L3="","",_sjmain2_day_hour!L3)</f>
         <v/>
       </c>
@@ -4319,7 +4307,7 @@
         <f>IF(_sjmain2_day_hour!K4="","",_sjmain2_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="275" t="str">
+      <c r="Q20" s="176" t="str">
         <f>IF(_sjmain2_day_hour!L4="","",_sjmain2_day_hour!L4)</f>
         <v/>
       </c>
@@ -4334,34 +4322,34 @@
       <c r="Z20" s="156"/>
     </row>
     <row r="21" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="223" t="s">
+      <c r="A21" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="224"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="225"/>
-      <c r="R21" s="216" t="s">
+      <c r="B21" s="226"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="226"/>
+      <c r="M21" s="226"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="226"/>
+      <c r="Q21" s="227"/>
+      <c r="R21" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="184"/>
+      <c r="S21" s="211"/>
       <c r="T21" s="143"/>
-      <c r="U21" s="226"/>
-      <c r="V21" s="227"/>
-      <c r="W21" s="227"/>
-      <c r="X21" s="228"/>
+      <c r="U21" s="212"/>
+      <c r="V21" s="213"/>
+      <c r="W21" s="213"/>
+      <c r="X21" s="214"/>
       <c r="Y21" s="156"/>
       <c r="Z21" s="156"/>
     </row>
@@ -4369,10 +4357,10 @@
       <c r="A22" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="230"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="115" t="s">
         <v>81</v>
       </c>
@@ -4422,10 +4410,10 @@
         <v>21</v>
       </c>
       <c r="T22" s="125"/>
-      <c r="U22" s="200"/>
-      <c r="V22" s="201"/>
-      <c r="W22" s="201"/>
-      <c r="X22" s="202"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="218"/>
+      <c r="W22" s="218"/>
+      <c r="X22" s="219"/>
       <c r="Y22" s="156"/>
       <c r="Z22" s="156"/>
     </row>
@@ -4434,11 +4422,11 @@
         <f>IF(_sjmain4_day_shift!A2="","",_sjmain4_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="B23" s="231" t="str">
+      <c r="B23" s="215" t="str">
         <f>IF(_sjmain4_day_shift!B2="","",_sjmain4_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="C23" s="232"/>
+      <c r="C23" s="216"/>
       <c r="D23" s="118" t="str">
         <f>IF(_sjmain4_day_shift!D2="","",_sjmain4_day_shift!D2)</f>
         <v/>
@@ -4502,10 +4490,10 @@
         <v>21</v>
       </c>
       <c r="T23" s="125"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="202"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="218"/>
+      <c r="W23" s="218"/>
+      <c r="X23" s="219"/>
       <c r="Y23" s="156"/>
       <c r="Z23" s="156"/>
     </row>
@@ -4514,11 +4502,11 @@
         <f>IF(_sjmain4_day_shift!A3="","",_sjmain4_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="B24" s="233" t="str">
+      <c r="B24" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B3="","",_sjmain4_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="C24" s="234"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D3="","",_sjmain4_day_shift!D3)</f>
         <v/>
@@ -4576,10 +4564,10 @@
         <v>21</v>
       </c>
       <c r="T24" s="125"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="201"/>
-      <c r="W24" s="201"/>
-      <c r="X24" s="202"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="218"/>
+      <c r="W24" s="218"/>
+      <c r="X24" s="219"/>
       <c r="Y24" s="156"/>
       <c r="Z24" s="156"/>
     </row>
@@ -4588,11 +4576,11 @@
         <f>IF(_sjmain4_day_shift!A4="","",_sjmain4_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="B25" s="233" t="str">
+      <c r="B25" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B4="","",_sjmain4_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="C25" s="234"/>
+      <c r="C25" s="200"/>
       <c r="D25" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D4="","",_sjmain4_day_shift!D4)</f>
         <v/>
@@ -4650,10 +4638,10 @@
         <v>21</v>
       </c>
       <c r="T25" s="125"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="201"/>
-      <c r="W25" s="201"/>
-      <c r="X25" s="202"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="218"/>
+      <c r="W25" s="218"/>
+      <c r="X25" s="219"/>
       <c r="Y25" s="156"/>
       <c r="Z25" s="156"/>
     </row>
@@ -4662,11 +4650,11 @@
         <f>IF(_sjmain4_day_shift!A5="","",_sjmain4_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="B26" s="233" t="str">
+      <c r="B26" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B5="","",_sjmain4_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="C26" s="234"/>
+      <c r="C26" s="200"/>
       <c r="D26" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D5="","",_sjmain4_day_shift!D5)</f>
         <v/>
@@ -4724,10 +4712,10 @@
         <v>21</v>
       </c>
       <c r="T26" s="125"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="218"/>
-      <c r="W26" s="218"/>
-      <c r="X26" s="219"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="208"/>
+      <c r="W26" s="208"/>
+      <c r="X26" s="209"/>
       <c r="Y26" s="156"/>
       <c r="Z26" s="156"/>
     </row>
@@ -4736,11 +4724,11 @@
         <f>IF(_sjmain4_day_shift!A6="","",_sjmain4_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="B27" s="233" t="str">
+      <c r="B27" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B6="","",_sjmain4_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="C27" s="234"/>
+      <c r="C27" s="200"/>
       <c r="D27" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D6="","",_sjmain4_day_shift!D6)</f>
         <v/>
@@ -4794,10 +4782,10 @@
       <c r="R27" s="146"/>
       <c r="S27" s="144"/>
       <c r="T27" s="125"/>
-      <c r="U27" s="200"/>
-      <c r="V27" s="201"/>
-      <c r="W27" s="201"/>
-      <c r="X27" s="202"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="218"/>
+      <c r="W27" s="218"/>
+      <c r="X27" s="219"/>
       <c r="Y27" s="156"/>
       <c r="Z27" s="156"/>
     </row>
@@ -4806,11 +4794,11 @@
         <f>IF(_sjmain4_day_shift!A7="","",_sjmain4_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="B28" s="233" t="str">
+      <c r="B28" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B7="","",_sjmain4_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="C28" s="234"/>
+      <c r="C28" s="200"/>
       <c r="D28" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D7="","",_sjmain4_day_shift!D7)</f>
         <v/>
@@ -4864,10 +4852,10 @@
       <c r="R28" s="146"/>
       <c r="S28" s="144"/>
       <c r="T28" s="125"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="218"/>
-      <c r="W28" s="218"/>
-      <c r="X28" s="219"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="208"/>
+      <c r="X28" s="209"/>
       <c r="Y28" s="156"/>
       <c r="Z28" s="156"/>
     </row>
@@ -4876,11 +4864,11 @@
         <f>IF(_sjmain4_day_shift!A8="","",_sjmain4_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="B29" s="233" t="str">
+      <c r="B29" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B8="","",_sjmain4_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="C29" s="234"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D8="","",_sjmain4_day_shift!D8)</f>
         <v/>
@@ -4931,15 +4919,15 @@
       </c>
       <c r="P29" s="136"/>
       <c r="Q29" s="155"/>
-      <c r="R29" s="216" t="s">
+      <c r="R29" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="S29" s="184"/>
+      <c r="S29" s="211"/>
       <c r="T29" s="143"/>
-      <c r="U29" s="226"/>
-      <c r="V29" s="227"/>
-      <c r="W29" s="227"/>
-      <c r="X29" s="228"/>
+      <c r="U29" s="212"/>
+      <c r="V29" s="213"/>
+      <c r="W29" s="213"/>
+      <c r="X29" s="214"/>
       <c r="Y29" s="156"/>
       <c r="Z29" s="156"/>
     </row>
@@ -4948,11 +4936,11 @@
         <f>IF(_sjmain4_day_shift!A9="","",_sjmain4_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="B30" s="233" t="str">
+      <c r="B30" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B9="","",_sjmain4_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="C30" s="234"/>
+      <c r="C30" s="200"/>
       <c r="D30" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D9="","",_sjmain4_day_shift!D9)</f>
         <v/>
@@ -5003,28 +4991,28 @@
       </c>
       <c r="P30" s="136"/>
       <c r="Q30" s="155"/>
-      <c r="R30" s="216" t="s">
+      <c r="R30" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="S30" s="184"/>
+      <c r="S30" s="211"/>
       <c r="T30" s="143">
         <v>0</v>
       </c>
-      <c r="U30" s="226"/>
-      <c r="V30" s="227"/>
-      <c r="W30" s="227"/>
-      <c r="X30" s="228"/>
+      <c r="U30" s="212"/>
+      <c r="V30" s="213"/>
+      <c r="W30" s="213"/>
+      <c r="X30" s="214"/>
     </row>
     <row r="31" spans="1:26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="120" t="str">
         <f>IF(_sjmain4_day_shift!A10="","",_sjmain4_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="B31" s="233" t="str">
+      <c r="B31" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B10="","",_sjmain4_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="C31" s="234"/>
+      <c r="C31" s="200"/>
       <c r="D31" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D10="","",_sjmain4_day_shift!D10)</f>
         <v/>
@@ -5088,11 +5076,11 @@
         <f>IF(_sjmain4_day_shift!A11="","",_sjmain4_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="B32" s="233" t="str">
+      <c r="B32" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B11="","",_sjmain4_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="C32" s="234"/>
+      <c r="C32" s="200"/>
       <c r="D32" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D11="","",_sjmain4_day_shift!D11)</f>
         <v/>
@@ -5156,11 +5144,11 @@
         <f>IF(_sjmain4_day_shift!A12="","",_sjmain4_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="B33" s="233" t="str">
+      <c r="B33" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B12="","",_sjmain4_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="C33" s="234"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D12="","",_sjmain4_day_shift!D12)</f>
         <v/>
@@ -5224,11 +5212,11 @@
         <f>IF(_sjmain4_day_shift!A13="","",_sjmain4_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="B34" s="233" t="str">
+      <c r="B34" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B13="","",_sjmain4_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="C34" s="234"/>
+      <c r="C34" s="200"/>
       <c r="D34" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D13="","",_sjmain4_day_shift!D13)</f>
         <v/>
@@ -5292,11 +5280,11 @@
         <f>IF(_sjmain4_day_shift!A14="","",_sjmain4_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="B35" s="233" t="str">
+      <c r="B35" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B14="","",_sjmain4_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="C35" s="234"/>
+      <c r="C35" s="200"/>
       <c r="D35" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D14="","",_sjmain4_day_shift!D14)</f>
         <v/>
@@ -5360,11 +5348,11 @@
         <f>IF(_sjmain4_day_shift!A15="","",_sjmain4_day_shift!A15)</f>
         <v/>
       </c>
-      <c r="B36" s="233" t="str">
+      <c r="B36" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B15="","",_sjmain4_day_shift!B15)</f>
         <v/>
       </c>
-      <c r="C36" s="234"/>
+      <c r="C36" s="200"/>
       <c r="D36" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D15="","",_sjmain4_day_shift!D15)</f>
         <v/>
@@ -5428,11 +5416,11 @@
         <f>IF(_sjmain4_day_shift!A16="","",_sjmain4_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="B37" s="233" t="str">
+      <c r="B37" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B16="","",_sjmain4_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="C37" s="234"/>
+      <c r="C37" s="200"/>
       <c r="D37" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D16="","",_sjmain4_day_shift!D16)</f>
         <v/>
@@ -5496,11 +5484,11 @@
         <f>IF(_sjmain4_day_shift!A17="","",_sjmain4_day_shift!A17)</f>
         <v/>
       </c>
-      <c r="B38" s="233" t="str">
+      <c r="B38" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B17="","",_sjmain4_day_shift!B17)</f>
         <v/>
       </c>
-      <c r="C38" s="234"/>
+      <c r="C38" s="200"/>
       <c r="D38" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D17="","",_sjmain4_day_shift!D17)</f>
         <v/>
@@ -5564,11 +5552,11 @@
         <f>IF(_sjmain4_day_shift!A18="","",_sjmain4_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="B39" s="233" t="str">
+      <c r="B39" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B18="","",_sjmain4_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="C39" s="234"/>
+      <c r="C39" s="200"/>
       <c r="D39" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D18="","",_sjmain4_day_shift!D18)</f>
         <v/>
@@ -5632,11 +5620,11 @@
         <f>IF(_sjmain4_day_shift!A19="","",_sjmain4_day_shift!A19)</f>
         <v/>
       </c>
-      <c r="B40" s="233" t="str">
+      <c r="B40" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B19="","",_sjmain4_day_shift!B19)</f>
         <v/>
       </c>
-      <c r="C40" s="234"/>
+      <c r="C40" s="200"/>
       <c r="D40" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D19="","",_sjmain4_day_shift!D19)</f>
         <v/>
@@ -5700,11 +5688,11 @@
         <f>IF(_sjmain4_day_shift!A20="","",_sjmain4_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="B41" s="233" t="str">
+      <c r="B41" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B20="","",_sjmain4_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="C41" s="234"/>
+      <c r="C41" s="200"/>
       <c r="D41" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D20="","",_sjmain4_day_shift!D20)</f>
         <v/>
@@ -5768,11 +5756,11 @@
         <f>IF(_sjmain4_day_shift!A21="","",_sjmain4_day_shift!A21)</f>
         <v/>
       </c>
-      <c r="B42" s="233" t="str">
+      <c r="B42" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B21="","",_sjmain4_day_shift!B21)</f>
         <v/>
       </c>
-      <c r="C42" s="234"/>
+      <c r="C42" s="200"/>
       <c r="D42" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D21="","",_sjmain4_day_shift!D21)</f>
         <v/>
@@ -5836,11 +5824,11 @@
         <f>IF(_sjmain4_day_shift!A22="","",_sjmain4_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="B43" s="233" t="str">
+      <c r="B43" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B22="","",_sjmain4_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="C43" s="234"/>
+      <c r="C43" s="200"/>
       <c r="D43" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D22="","",_sjmain4_day_shift!D22)</f>
         <v/>
@@ -5904,11 +5892,11 @@
         <f>IF(_sjmain4_day_shift!A23="","",_sjmain4_day_shift!A23)</f>
         <v/>
       </c>
-      <c r="B44" s="233" t="str">
+      <c r="B44" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B23="","",_sjmain4_day_shift!B23)</f>
         <v/>
       </c>
-      <c r="C44" s="234"/>
+      <c r="C44" s="200"/>
       <c r="D44" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D23="","",_sjmain4_day_shift!D23)</f>
         <v/>
@@ -5972,11 +5960,11 @@
         <f>IF(_sjmain4_day_shift!A24="","",_sjmain4_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="B45" s="233" t="str">
+      <c r="B45" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B24="","",_sjmain4_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="C45" s="234"/>
+      <c r="C45" s="200"/>
       <c r="D45" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D24="","",_sjmain4_day_shift!D24)</f>
         <v/>
@@ -6040,11 +6028,11 @@
         <f>IF(_sjmain4_day_shift!A25="","",_sjmain4_day_shift!A25)</f>
         <v/>
       </c>
-      <c r="B46" s="233" t="str">
+      <c r="B46" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B25="","",_sjmain4_day_shift!B25)</f>
         <v/>
       </c>
-      <c r="C46" s="234"/>
+      <c r="C46" s="200"/>
       <c r="D46" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D25="","",_sjmain4_day_shift!D25)</f>
         <v/>
@@ -6108,11 +6096,11 @@
         <f>IF(_sjmain4_day_shift!A26="","",_sjmain4_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="B47" s="233" t="str">
+      <c r="B47" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B26="","",_sjmain4_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="C47" s="234"/>
+      <c r="C47" s="200"/>
       <c r="D47" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D26="","",_sjmain4_day_shift!D26)</f>
         <v/>
@@ -6176,11 +6164,11 @@
         <f>IF(_sjmain4_day_shift!A27="","",_sjmain4_day_shift!A27)</f>
         <v/>
       </c>
-      <c r="B48" s="233" t="str">
+      <c r="B48" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B27="","",_sjmain4_day_shift!B27)</f>
         <v/>
       </c>
-      <c r="C48" s="234"/>
+      <c r="C48" s="200"/>
       <c r="D48" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D27="","",_sjmain4_day_shift!D27)</f>
         <v/>
@@ -6244,11 +6232,11 @@
         <f>IF(_sjmain4_day_shift!A28="","",_sjmain4_day_shift!A28)</f>
         <v/>
       </c>
-      <c r="B49" s="233" t="str">
+      <c r="B49" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B28="","",_sjmain4_day_shift!B28)</f>
         <v/>
       </c>
-      <c r="C49" s="234"/>
+      <c r="C49" s="200"/>
       <c r="D49" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D28="","",_sjmain4_day_shift!D28)</f>
         <v/>
@@ -6312,11 +6300,11 @@
         <f>IF(_sjmain4_day_shift!A29="","",_sjmain4_day_shift!A29)</f>
         <v/>
       </c>
-      <c r="B50" s="233" t="str">
+      <c r="B50" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B29="","",_sjmain4_day_shift!B29)</f>
         <v/>
       </c>
-      <c r="C50" s="234"/>
+      <c r="C50" s="200"/>
       <c r="D50" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D29="","",_sjmain4_day_shift!D29)</f>
         <v/>
@@ -6380,11 +6368,11 @@
         <f>IF(_sjmain4_day_shift!A30="","",_sjmain4_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="B51" s="233" t="str">
+      <c r="B51" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B30="","",_sjmain4_day_shift!B30)</f>
         <v/>
       </c>
-      <c r="C51" s="234"/>
+      <c r="C51" s="200"/>
       <c r="D51" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D30="","",_sjmain4_day_shift!D30)</f>
         <v/>
@@ -6448,11 +6436,11 @@
         <f>IF(_sjmain4_day_shift!A31="","",_sjmain4_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="B52" s="233" t="str">
+      <c r="B52" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B31="","",_sjmain4_day_shift!B31)</f>
         <v/>
       </c>
-      <c r="C52" s="234"/>
+      <c r="C52" s="200"/>
       <c r="D52" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D31="","",_sjmain4_day_shift!D31)</f>
         <v/>
@@ -6516,11 +6504,11 @@
         <f>IF(_sjmain4_day_shift!A32="","",_sjmain4_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="B53" s="233" t="str">
+      <c r="B53" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B32="","",_sjmain4_day_shift!B32)</f>
         <v/>
       </c>
-      <c r="C53" s="234"/>
+      <c r="C53" s="200"/>
       <c r="D53" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D32="","",_sjmain4_day_shift!D32)</f>
         <v/>
@@ -6584,11 +6572,11 @@
         <f>IF(_sjmain4_day_shift!A33="","",_sjmain4_day_shift!A33)</f>
         <v/>
       </c>
-      <c r="B54" s="233" t="str">
+      <c r="B54" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B33="","",_sjmain4_day_shift!B33)</f>
         <v/>
       </c>
-      <c r="C54" s="234"/>
+      <c r="C54" s="200"/>
       <c r="D54" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D33="","",_sjmain4_day_shift!D33)</f>
         <v/>
@@ -6652,11 +6640,11 @@
         <f>IF(_sjmain4_day_shift!A34="","",_sjmain4_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="B55" s="233" t="str">
+      <c r="B55" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B34="","",_sjmain4_day_shift!B34)</f>
         <v/>
       </c>
-      <c r="C55" s="234"/>
+      <c r="C55" s="200"/>
       <c r="D55" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D34="","",_sjmain4_day_shift!D34)</f>
         <v/>
@@ -6720,11 +6708,11 @@
         <f>IF(_sjmain4_day_shift!A35="","",_sjmain4_day_shift!A35)</f>
         <v/>
       </c>
-      <c r="B56" s="233" t="str">
+      <c r="B56" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B35="","",_sjmain4_day_shift!B35)</f>
         <v/>
       </c>
-      <c r="C56" s="234"/>
+      <c r="C56" s="200"/>
       <c r="D56" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D35="","",_sjmain4_day_shift!D35)</f>
         <v/>
@@ -6788,11 +6776,11 @@
         <f>IF(_sjmain4_day_shift!A36="","",_sjmain4_day_shift!A36)</f>
         <v/>
       </c>
-      <c r="B57" s="233" t="str">
+      <c r="B57" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B36="","",_sjmain4_day_shift!B36)</f>
         <v/>
       </c>
-      <c r="C57" s="234"/>
+      <c r="C57" s="200"/>
       <c r="D57" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D36="","",_sjmain4_day_shift!D36)</f>
         <v/>
@@ -6856,11 +6844,11 @@
         <f>IF(_sjmain4_day_shift!A37="","",_sjmain4_day_shift!A37)</f>
         <v/>
       </c>
-      <c r="B58" s="233" t="str">
+      <c r="B58" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B37="","",_sjmain4_day_shift!B37)</f>
         <v/>
       </c>
-      <c r="C58" s="234"/>
+      <c r="C58" s="200"/>
       <c r="D58" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D37="","",_sjmain4_day_shift!D37)</f>
         <v/>
@@ -6924,11 +6912,11 @@
         <f>IF(_sjmain4_day_shift!A38="","",_sjmain4_day_shift!A38)</f>
         <v/>
       </c>
-      <c r="B59" s="233" t="str">
+      <c r="B59" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B38="","",_sjmain4_day_shift!B38)</f>
         <v/>
       </c>
-      <c r="C59" s="234"/>
+      <c r="C59" s="200"/>
       <c r="D59" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D38="","",_sjmain4_day_shift!D38)</f>
         <v/>
@@ -6992,11 +6980,11 @@
         <f>IF(_sjmain4_day_shift!A39="","",_sjmain4_day_shift!A39)</f>
         <v/>
       </c>
-      <c r="B60" s="233" t="str">
+      <c r="B60" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B39="","",_sjmain4_day_shift!B39)</f>
         <v/>
       </c>
-      <c r="C60" s="234"/>
+      <c r="C60" s="200"/>
       <c r="D60" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D39="","",_sjmain4_day_shift!D39)</f>
         <v/>
@@ -7060,11 +7048,11 @@
         <f>IF(_sjmain4_day_shift!A40="","",_sjmain4_day_shift!A40)</f>
         <v/>
       </c>
-      <c r="B61" s="233" t="str">
+      <c r="B61" s="199" t="str">
         <f>IF(_sjmain4_day_shift!B40="","",_sjmain4_day_shift!B40)</f>
         <v/>
       </c>
-      <c r="C61" s="234"/>
+      <c r="C61" s="200"/>
       <c r="D61" s="119" t="str">
         <f>IF(_sjmain4_day_shift!D40="","",_sjmain4_day_shift!D40)</f>
         <v/>
@@ -7124,11 +7112,11 @@
       <c r="X61" s="154"/>
     </row>
     <row r="62" spans="1:24" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="235" t="s">
+      <c r="A62" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="236"/>
-      <c r="C62" s="237"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="203"/>
       <c r="D62" s="157"/>
       <c r="E62" s="157"/>
       <c r="F62" s="157"/>
@@ -7155,23 +7143,23 @@
       <c r="A63" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="238"/>
-      <c r="C63" s="238"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="238"/>
-      <c r="F63" s="238"/>
-      <c r="G63" s="238"/>
-      <c r="H63" s="239"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="204"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="204"/>
+      <c r="H63" s="205"/>
       <c r="I63" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="238"/>
-      <c r="K63" s="238"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="238"/>
-      <c r="N63" s="238"/>
-      <c r="O63" s="238"/>
-      <c r="P63" s="239"/>
+      <c r="J63" s="204"/>
+      <c r="K63" s="204"/>
+      <c r="L63" s="204"/>
+      <c r="M63" s="204"/>
+      <c r="N63" s="204"/>
+      <c r="O63" s="204"/>
+      <c r="P63" s="205"/>
       <c r="Q63" s="172" t="s">
         <v>102</v>
       </c>
@@ -7184,22 +7172,22 @@
       <c r="X63" s="161"/>
     </row>
     <row r="64" spans="1:24" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="255"/>
-      <c r="B64" s="256"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="257"/>
-      <c r="I64" s="255"/>
-      <c r="J64" s="256"/>
-      <c r="K64" s="256"/>
-      <c r="L64" s="256"/>
-      <c r="M64" s="256"/>
-      <c r="N64" s="256"/>
-      <c r="O64" s="256"/>
-      <c r="P64" s="257"/>
+      <c r="A64" s="196"/>
+      <c r="B64" s="197"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="198"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+      <c r="M64" s="197"/>
+      <c r="N64" s="197"/>
+      <c r="O64" s="197"/>
+      <c r="P64" s="198"/>
       <c r="Q64" s="159"/>
       <c r="R64" s="160"/>
       <c r="S64" s="160"/>
@@ -7210,22 +7198,22 @@
       <c r="X64" s="161"/>
     </row>
     <row r="65" spans="1:24" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="255"/>
-      <c r="B65" s="256"/>
-      <c r="C65" s="256"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="256"/>
-      <c r="F65" s="256"/>
-      <c r="G65" s="256"/>
-      <c r="H65" s="257"/>
-      <c r="I65" s="255"/>
-      <c r="J65" s="256"/>
-      <c r="K65" s="256"/>
-      <c r="L65" s="256"/>
-      <c r="M65" s="256"/>
-      <c r="N65" s="256"/>
-      <c r="O65" s="256"/>
-      <c r="P65" s="257"/>
+      <c r="A65" s="196"/>
+      <c r="B65" s="197"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="196"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="197"/>
+      <c r="M65" s="197"/>
+      <c r="N65" s="197"/>
+      <c r="O65" s="197"/>
+      <c r="P65" s="198"/>
       <c r="Q65" s="159"/>
       <c r="R65" s="160"/>
       <c r="S65" s="160"/>
@@ -7236,22 +7224,22 @@
       <c r="X65" s="161"/>
     </row>
     <row r="66" spans="1:24" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="255"/>
-      <c r="B66" s="256"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="257"/>
-      <c r="I66" s="255"/>
-      <c r="J66" s="256"/>
-      <c r="K66" s="256"/>
-      <c r="L66" s="256"/>
-      <c r="M66" s="256"/>
-      <c r="N66" s="256"/>
-      <c r="O66" s="256"/>
-      <c r="P66" s="257"/>
+      <c r="A66" s="196"/>
+      <c r="B66" s="197"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="198"/>
+      <c r="I66" s="196"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="197"/>
+      <c r="L66" s="197"/>
+      <c r="M66" s="197"/>
+      <c r="N66" s="197"/>
+      <c r="O66" s="197"/>
+      <c r="P66" s="198"/>
       <c r="Q66" s="159"/>
       <c r="R66" s="160"/>
       <c r="S66" s="160"/>
@@ -7262,42 +7250,42 @@
       <c r="X66" s="161"/>
     </row>
     <row r="67" spans="1:24" s="98" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="255"/>
-      <c r="B67" s="256"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="257"/>
-      <c r="I67" s="255"/>
-      <c r="J67" s="256"/>
-      <c r="K67" s="256"/>
-      <c r="L67" s="256"/>
-      <c r="M67" s="256"/>
-      <c r="N67" s="256"/>
-      <c r="O67" s="256"/>
-      <c r="P67" s="257"/>
+      <c r="A67" s="196"/>
+      <c r="B67" s="197"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="197"/>
+      <c r="G67" s="197"/>
+      <c r="H67" s="198"/>
+      <c r="I67" s="196"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="197"/>
+      <c r="L67" s="197"/>
+      <c r="M67" s="197"/>
+      <c r="N67" s="197"/>
+      <c r="O67" s="197"/>
+      <c r="P67" s="198"/>
       <c r="Q67" s="159"/>
       <c r="X67" s="161"/>
     </row>
     <row r="68" spans="1:24" s="98" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="255"/>
-      <c r="B68" s="256"/>
-      <c r="C68" s="256"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="256"/>
-      <c r="F68" s="256"/>
-      <c r="G68" s="256"/>
-      <c r="H68" s="257"/>
-      <c r="I68" s="255"/>
-      <c r="J68" s="256"/>
-      <c r="K68" s="256"/>
-      <c r="L68" s="256"/>
-      <c r="M68" s="256"/>
-      <c r="N68" s="256"/>
-      <c r="O68" s="256"/>
-      <c r="P68" s="257"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="198"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="197"/>
+      <c r="K68" s="197"/>
+      <c r="L68" s="197"/>
+      <c r="M68" s="197"/>
+      <c r="N68" s="197"/>
+      <c r="O68" s="197"/>
+      <c r="P68" s="198"/>
       <c r="Q68" s="159"/>
       <c r="S68" s="137"/>
       <c r="U68" s="138"/>
@@ -7309,39 +7297,39 @@
       <c r="A69" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="240"/>
-      <c r="C69" s="240"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="206"/>
       <c r="D69" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="241"/>
-      <c r="F69" s="241"/>
-      <c r="G69" s="241"/>
-      <c r="H69" s="242"/>
+      <c r="E69" s="182"/>
+      <c r="F69" s="182"/>
+      <c r="G69" s="182"/>
+      <c r="H69" s="183"/>
       <c r="I69" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="J69" s="240"/>
-      <c r="K69" s="240"/>
+      <c r="J69" s="206"/>
+      <c r="K69" s="206"/>
       <c r="L69" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="M69" s="241"/>
-      <c r="N69" s="241"/>
-      <c r="O69" s="241"/>
-      <c r="P69" s="242"/>
+      <c r="M69" s="182"/>
+      <c r="N69" s="182"/>
+      <c r="O69" s="182"/>
+      <c r="P69" s="183"/>
       <c r="Q69" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="R69" s="241"/>
-      <c r="S69" s="241"/>
+      <c r="R69" s="182"/>
+      <c r="S69" s="182"/>
       <c r="T69" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="U69" s="241"/>
-      <c r="V69" s="241"/>
-      <c r="W69" s="241"/>
-      <c r="X69" s="242"/>
+      <c r="U69" s="182"/>
+      <c r="V69" s="182"/>
+      <c r="W69" s="182"/>
+      <c r="X69" s="183"/>
     </row>
     <row r="70" spans="1:24" s="98" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="S70" s="137"/>
@@ -7703,6 +7691,110 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="R69:S69"/>
     <mergeCell ref="U69:X69"/>
     <mergeCell ref="A5:A6"/>
@@ -7727,110 +7819,6 @@
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="M69:P69"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.2" right="0.27916666666666701" top="0.51875000000000004" bottom="0.63888888888888895" header="0.4" footer="0.51180555555555596"/>
@@ -7990,8 +7978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8007,6 +7995,21 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8021,10 +8024,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="180" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="263"/>
       <c r="D1" s="96" t="s">
         <v>44</v>
       </c>
@@ -8160,10 +8163,10 @@
       <c r="A1" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="92" t="s">
         <v>113</v>
       </c>
@@ -8242,7 +8245,7 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8271,30 +8274,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="258"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
       <c r="W2" s="86"/>
       <c r="X2" s="86"/>
     </row>
@@ -8326,10 +8329,11 @@
       <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="260">
-        <v>42982</v>
-      </c>
-      <c r="C4" s="261"/>
+      <c r="B4" s="278">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="278"/>
       <c r="D4" s="58" t="s">
         <v>129</v>
       </c>
@@ -8354,10 +8358,10 @@
       <c r="S4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="262" t="s">
+      <c r="T4" s="266" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="263"/>
+      <c r="U4" s="267"/>
       <c r="V4" s="87"/>
       <c r="W4" s="88"/>
     </row>
@@ -8425,7 +8429,7 @@
       <c r="U5" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="V5" s="276" t="s">
+      <c r="V5" s="177" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8491,7 +8495,7 @@
       <c r="U6" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="V6" s="277" t="s">
+      <c r="V6" s="178" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8579,7 +8583,7 @@
         <f>IF(_sjgc_day_hour!T2="","",_sjgc_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V7" s="278" t="str">
+      <c r="V7" s="179" t="str">
         <f>IF(_sjgc_day_hour!U2="","",_sjgc_day_hour!U2)</f>
         <v/>
       </c>
@@ -8668,7 +8672,7 @@
         <f>IF(_sjgc_day_hour!T3="","",_sjgc_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="V8" s="278" t="str">
+      <c r="V8" s="179" t="str">
         <f>IF(_sjgc_day_hour!U3="","",_sjgc_day_hour!U3)</f>
         <v/>
       </c>
@@ -8757,7 +8761,7 @@
         <f>IF(_sjgc_day_hour!T4="","",_sjgc_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="V9" s="278" t="str">
+      <c r="V9" s="179" t="str">
         <f>IF(_sjgc_day_hour!U4="","",_sjgc_day_hour!U4)</f>
         <v/>
       </c>
@@ -8847,7 +8851,7 @@
         <f>IF(_sjgc_day_hour!T5="","",_sjgc_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="V10" s="278" t="str">
+      <c r="V10" s="179" t="str">
         <f>IF(_sjgc_day_hour!U5="","",_sjgc_day_hour!U5)</f>
         <v/>
       </c>
@@ -8937,7 +8941,7 @@
         <f>IF(_sjgc_day_hour!T6="","",_sjgc_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="V11" s="278" t="str">
+      <c r="V11" s="179" t="str">
         <f>IF(_sjgc_day_hour!U6="","",_sjgc_day_hour!U6)</f>
         <v/>
       </c>
@@ -9026,7 +9030,7 @@
         <f>IF(_sjgc_day_hour!T7="","",_sjgc_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="V12" s="278" t="str">
+      <c r="V12" s="179" t="str">
         <f>IF(_sjgc_day_hour!U7="","",_sjgc_day_hour!U7)</f>
         <v/>
       </c>
@@ -9115,7 +9119,7 @@
         <f>IF(_sjgc_day_hour!T8="","",_sjgc_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="V13" s="278" t="str">
+      <c r="V13" s="179" t="str">
         <f>IF(_sjgc_day_hour!U8="","",_sjgc_day_hour!U8)</f>
         <v/>
       </c>
@@ -9205,7 +9209,7 @@
         <f>IF(_sjgc_day_hour!T9="","",_sjgc_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V14" s="278" t="str">
+      <c r="V14" s="179" t="str">
         <f>IF(_sjgc_day_hour!U9="","",_sjgc_day_hour!U9)</f>
         <v/>
       </c>
@@ -9295,7 +9299,7 @@
         <f>IF(_sjgc_day_hour!T10="","",_sjgc_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V15" s="278" t="str">
+      <c r="V15" s="179" t="str">
         <f>IF(_sjgc_day_hour!U10="","",_sjgc_day_hour!U10)</f>
         <v/>
       </c>
@@ -9385,7 +9389,7 @@
         <f>IF(_sjgc_day_hour!T11="","",_sjgc_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="V16" s="278" t="str">
+      <c r="V16" s="179" t="str">
         <f>IF(_sjgc_day_hour!U11="","",_sjgc_day_hour!U11)</f>
         <v/>
       </c>
@@ -9474,7 +9478,7 @@
         <f>IF(_sjgc_day_hour!T12="","",_sjgc_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="V17" s="278" t="str">
+      <c r="V17" s="179" t="str">
         <f>IF(_sjgc_day_hour!U12="","",_sjgc_day_hour!U12)</f>
         <v/>
       </c>
@@ -9563,7 +9567,7 @@
         <f>IF(_sjgc_day_hour!T13="","",_sjgc_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="V18" s="278" t="str">
+      <c r="V18" s="179" t="str">
         <f>IF(_sjgc_day_hour!U13="","",_sjgc_day_hour!U13)</f>
         <v/>
       </c>
@@ -9652,7 +9656,7 @@
         <f>IF(_sjgc_day_hour!T14="","",_sjgc_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="V19" s="278" t="str">
+      <c r="V19" s="179" t="str">
         <f>IF(_sjgc_day_hour!U14="","",_sjgc_day_hour!U14)</f>
         <v/>
       </c>
@@ -9741,7 +9745,7 @@
         <f>IF(_sjgc_day_hour!T15="","",_sjgc_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="V20" s="278" t="str">
+      <c r="V20" s="179" t="str">
         <f>IF(_sjgc_day_hour!U15="","",_sjgc_day_hour!U15)</f>
         <v/>
       </c>
@@ -9830,7 +9834,7 @@
         <f>IF(_sjgc_day_hour!T16="","",_sjgc_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="V21" s="278" t="str">
+      <c r="V21" s="179" t="str">
         <f>IF(_sjgc_day_hour!U16="","",_sjgc_day_hour!U16)</f>
         <v/>
       </c>
@@ -9919,7 +9923,7 @@
         <f>IF(_sjgc_day_hour!T17="","",_sjgc_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="V22" s="278" t="str">
+      <c r="V22" s="179" t="str">
         <f>IF(_sjgc_day_hour!U17="","",_sjgc_day_hour!U17)</f>
         <v/>
       </c>
@@ -10008,7 +10012,7 @@
         <f>IF(_sjgc_day_hour!T18="","",_sjgc_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V23" s="278" t="str">
+      <c r="V23" s="179" t="str">
         <f>IF(_sjgc_day_hour!U18="","",_sjgc_day_hour!U18)</f>
         <v/>
       </c>
@@ -10097,7 +10101,7 @@
         <f>IF(_sjgc_day_hour!T19="","",_sjgc_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="V24" s="278" t="str">
+      <c r="V24" s="179" t="str">
         <f>IF(_sjgc_day_hour!U19="","",_sjgc_day_hour!U19)</f>
         <v/>
       </c>
@@ -10188,7 +10192,7 @@
         <f>IF(_sjgc_day_hour!T20="","",_sjgc_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V25" s="278" t="str">
+      <c r="V25" s="179" t="str">
         <f>IF(_sjgc_day_hour!U20="","",_sjgc_day_hour!U20)</f>
         <v/>
       </c>
@@ -10277,7 +10281,7 @@
         <f>IF(_sjgc_day_hour!T21="","",_sjgc_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="V26" s="278" t="str">
+      <c r="V26" s="179" t="str">
         <f>IF(_sjgc_day_hour!U21="","",_sjgc_day_hour!U21)</f>
         <v/>
       </c>
@@ -10366,7 +10370,7 @@
         <f>IF(_sjgc_day_hour!T22="","",_sjgc_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="V27" s="278" t="str">
+      <c r="V27" s="179" t="str">
         <f>IF(_sjgc_day_hour!U22="","",_sjgc_day_hour!U22)</f>
         <v/>
       </c>
@@ -10455,7 +10459,7 @@
         <f>IF(_sjgc_day_hour!T23="","",_sjgc_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="V28" s="278" t="str">
+      <c r="V28" s="179" t="str">
         <f>IF(_sjgc_day_hour!U23="","",_sjgc_day_hour!U23)</f>
         <v/>
       </c>
@@ -10544,7 +10548,7 @@
         <f>IF(_sjgc_day_hour!T24="","",_sjgc_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="V29" s="278" t="str">
+      <c r="V29" s="179" t="str">
         <f>IF(_sjgc_day_hour!U24="","",_sjgc_day_hour!U24)</f>
         <v/>
       </c>
@@ -10633,7 +10637,7 @@
         <f>IF(_sjgc_day_hour!T25="","",_sjgc_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="V30" s="278" t="str">
+      <c r="V30" s="179" t="str">
         <f>IF(_sjgc_day_hour!U25="","",_sjgc_day_hour!U25)</f>
         <v/>
       </c>
@@ -10662,7 +10666,7 @@
       <c r="S31" s="72"/>
       <c r="T31" s="84"/>
       <c r="U31" s="72"/>
-      <c r="V31" s="279"/>
+      <c r="V31" s="180"/>
     </row>
     <row r="32" spans="1:24" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
@@ -10688,7 +10692,7 @@
       <c r="S32" s="72"/>
       <c r="T32" s="84"/>
       <c r="U32" s="72"/>
-      <c r="V32" s="279"/>
+      <c r="V32" s="180"/>
     </row>
     <row r="33" spans="1:22" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="69" t="s">
@@ -10714,7 +10718,7 @@
       <c r="S33" s="72"/>
       <c r="T33" s="84"/>
       <c r="U33" s="72"/>
-      <c r="V33" s="279"/>
+      <c r="V33" s="180"/>
     </row>
     <row r="34" spans="1:22" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="69" t="s">
@@ -10840,8 +10844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -10867,47 +10871,47 @@
       <c r="AF1" s="24"/>
     </row>
     <row r="2" spans="1:42" s="4" customFormat="1" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="268" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="264"/>
-      <c r="V2" s="264"/>
-      <c r="W2" s="264"/>
-      <c r="X2" s="264"/>
-      <c r="Y2" s="264"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="264"/>
-      <c r="AB2" s="264"/>
-      <c r="AC2" s="264"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
-      <c r="AK2" s="264"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="264"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="268"/>
+      <c r="Z2" s="268"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="268"/>
+      <c r="AD2" s="268"/>
+      <c r="AE2" s="268"/>
+      <c r="AF2" s="268"/>
+      <c r="AG2" s="268"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="268"/>
+      <c r="AJ2" s="268"/>
+      <c r="AK2" s="268"/>
+      <c r="AL2" s="268"/>
+      <c r="AM2" s="268"/>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AF3" s="24"/>
@@ -10916,10 +10920,11 @@
       <c r="A4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="265">
-        <v>42256</v>
-      </c>
-      <c r="C4" s="266"/>
+      <c r="B4" s="277">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="277"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -10953,71 +10958,71 @@
       <c r="AH4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AI4" s="267" t="s">
+      <c r="AI4" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="AJ4" s="267"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AL4" s="267" t="s">
+      <c r="AL4" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="AM4" s="267"/>
+      <c r="AM4" s="269"/>
       <c r="AN4" s="10"/>
     </row>
     <row r="5" spans="1:42" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="275" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="270" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="268" t="s">
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="271"/>
+      <c r="K5" s="271"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="270" t="s">
         <v>190</v>
       </c>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="271" t="s">
+      <c r="R5" s="271"/>
+      <c r="S5" s="271"/>
+      <c r="T5" s="271"/>
+      <c r="U5" s="271"/>
+      <c r="V5" s="271"/>
+      <c r="W5" s="271"/>
+      <c r="X5" s="271"/>
+      <c r="Y5" s="271"/>
+      <c r="Z5" s="271"/>
+      <c r="AA5" s="271"/>
+      <c r="AB5" s="271"/>
+      <c r="AC5" s="271"/>
+      <c r="AD5" s="271"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="273" t="s">
         <v>191</v>
       </c>
-      <c r="AG5" s="271"/>
-      <c r="AH5" s="271"/>
-      <c r="AI5" s="271"/>
-      <c r="AJ5" s="271"/>
-      <c r="AK5" s="271"/>
-      <c r="AL5" s="271"/>
-      <c r="AM5" s="271"/>
-      <c r="AN5" s="272"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="274"/>
     </row>
     <row r="6" spans="1:42" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
+      <c r="A6" s="276"/>
       <c r="B6" s="12" t="s">
         <v>192</v>
       </c>
@@ -11132,7 +11137,7 @@
       <c r="AM6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AN6" s="280" t="s">
+      <c r="AN6" s="181" t="s">
         <v>213</v>
       </c>
     </row>
@@ -15279,7 +15284,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.27916666666666701" right="0.33888888888888902" top="0.62916666666666698" bottom="0.58888888888888902" header="0.45" footer="0.5"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" verticalDpi="180"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_hour" sheetId="4" r:id="rId2"/>
-    <sheet name="_sjmain2_day_hour" sheetId="5" r:id="rId3"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="5" r:id="rId3"/>
     <sheet name="_sjmain3_day_shift" sheetId="9" r:id="rId4"/>
     <sheet name="_sjmain4_day_shift" sheetId="10" r:id="rId5"/>
     <sheet name="_lilunshengchan_day_shift" sheetId="11" r:id="rId6"/>
@@ -1476,19 +1476,19 @@
   <numFmts count="15">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
-    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="186" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1563,17 +1563,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,7 +1578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,10 +1600,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1621,11 +1652,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1640,44 +1678,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1747,7 +1747,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,19 +1837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,19 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,31 +1885,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,79 +1927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2515,6 +2515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2530,30 +2545,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2564,6 +2555,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2594,144 +2594,144 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2754,7 +2754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2794,34 +2794,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2833,31 +2833,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2875,22 +2875,22 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2902,16 +2902,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,39 +2921,39 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,7 +2978,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2987,22 +2987,22 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3017,7 +3017,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3047,10 +3047,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,42 +3117,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,13 +3167,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3231,7 +3231,114 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3239,106 +3346,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3346,52 +3384,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3434,7 +3434,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3485,7 +3485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3497,11 +3497,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3905,7 +3905,7 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -4090,7 +4090,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="134" t="str">
-        <f>IF(_sjmain1_day_hour!A2="","",_sjmain1_day_hour!A2)</f>
+        <f>IF(_sjmain1_day_shift!A2="","",_sjmain1_day_shift!A2)</f>
         <v/>
       </c>
       <c r="C7" s="135"/>
@@ -4130,7 +4130,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="134" t="str">
-        <f>IF(_sjmain1_day_hour!A3="","",_sjmain1_day_hour!A3)</f>
+        <f>IF(_sjmain1_day_shift!A3="","",_sjmain1_day_shift!A3)</f>
         <v/>
       </c>
       <c r="C8" s="135"/>
@@ -4170,7 +4170,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="134" t="str">
-        <f>IF(_sjmain1_day_hour!A4="","",_sjmain1_day_hour!A4)</f>
+        <f>IF(_sjmain1_day_shift!A4="","",_sjmain1_day_shift!A4)</f>
         <v/>
       </c>
       <c r="C9" s="135"/>
@@ -4348,35 +4348,35 @@
         <v>19</v>
       </c>
       <c r="B13" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!D2="","",_sjmain1_day_hour!D2)</f>
+        <f>IF(_sjmain1_day_shift!D2="","",_sjmain1_day_shift!D2)</f>
         <v/>
       </c>
       <c r="C13" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!E2="","",_sjmain1_day_hour!E2)</f>
+        <f>IF(_sjmain1_day_shift!E2="","",_sjmain1_day_shift!E2)</f>
         <v/>
       </c>
       <c r="D13" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!F2="","",_sjmain1_day_hour!F2)</f>
+        <f>IF(_sjmain1_day_shift!F2="","",_sjmain1_day_shift!F2)</f>
         <v/>
       </c>
       <c r="E13" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!G2="","",_sjmain1_day_hour!G2)</f>
+        <f>IF(_sjmain1_day_shift!G2="","",_sjmain1_day_shift!G2)</f>
         <v/>
       </c>
       <c r="F13" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!H2="","",_sjmain1_day_hour!H2)</f>
+        <f>IF(_sjmain1_day_shift!H2="","",_sjmain1_day_shift!H2)</f>
         <v/>
       </c>
       <c r="G13" s="151" t="str">
-        <f>IF(_sjmain1_day_hour!I2="","",_sjmain1_day_hour!I2)</f>
+        <f>IF(_sjmain1_day_shift!I2="","",_sjmain1_day_shift!I2)</f>
         <v/>
       </c>
       <c r="H13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!J2="","",_sjmain1_day_hour!J2)</f>
+        <f>IF(_sjmain1_day_shift!J2="","",_sjmain1_day_shift!J2)</f>
         <v/>
       </c>
       <c r="I13" s="202" t="str">
-        <f>IF(_sjmain1_day_hour!K2="","",_sjmain1_day_hour!K2)</f>
+        <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
         <v/>
       </c>
       <c r="J13" s="203" t="str">
@@ -4430,35 +4430,35 @@
         <v>22</v>
       </c>
       <c r="B14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!D3="","",_sjmain1_day_hour!D3)</f>
+        <f>IF(_sjmain1_day_shift!D3="","",_sjmain1_day_shift!D3)</f>
         <v/>
       </c>
       <c r="C14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!E3="","",_sjmain1_day_hour!E3)</f>
+        <f>IF(_sjmain1_day_shift!E3="","",_sjmain1_day_shift!E3)</f>
         <v/>
       </c>
       <c r="D14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!F3="","",_sjmain1_day_hour!F3)</f>
+        <f>IF(_sjmain1_day_shift!F3="","",_sjmain1_day_shift!F3)</f>
         <v/>
       </c>
       <c r="E14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!G3="","",_sjmain1_day_hour!G3)</f>
+        <f>IF(_sjmain1_day_shift!G3="","",_sjmain1_day_shift!G3)</f>
         <v/>
       </c>
       <c r="F14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!H3="","",_sjmain1_day_hour!H3)</f>
+        <f>IF(_sjmain1_day_shift!H3="","",_sjmain1_day_shift!H3)</f>
         <v/>
       </c>
       <c r="G14" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!I3="","",_sjmain1_day_hour!I3)</f>
+        <f>IF(_sjmain1_day_shift!I3="","",_sjmain1_day_shift!I3)</f>
         <v/>
       </c>
       <c r="H14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!J3="","",_sjmain1_day_hour!J3)</f>
+        <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
       <c r="I14" s="207" t="str">
-        <f>IF(_sjmain1_day_hour!K3="","",_sjmain1_day_hour!K3)</f>
+        <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
       <c r="J14" s="203" t="str">
@@ -4512,35 +4512,35 @@
         <v>23</v>
       </c>
       <c r="B15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!D4="","",_sjmain1_day_hour!D4)</f>
+        <f>IF(_sjmain1_day_shift!D4="","",_sjmain1_day_shift!D4)</f>
         <v/>
       </c>
       <c r="C15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!E4="","",_sjmain1_day_hour!E4)</f>
+        <f>IF(_sjmain1_day_shift!E4="","",_sjmain1_day_shift!E4)</f>
         <v/>
       </c>
       <c r="D15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!F4="","",_sjmain1_day_hour!F4)</f>
+        <f>IF(_sjmain1_day_shift!F4="","",_sjmain1_day_shift!F4)</f>
         <v/>
       </c>
       <c r="E15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!G4="","",_sjmain1_day_hour!G4)</f>
+        <f>IF(_sjmain1_day_shift!G4="","",_sjmain1_day_shift!G4)</f>
         <v/>
       </c>
       <c r="F15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!H4="","",_sjmain1_day_hour!H4)</f>
+        <f>IF(_sjmain1_day_shift!H4="","",_sjmain1_day_shift!H4)</f>
         <v/>
       </c>
       <c r="G15" s="150" t="str">
-        <f>IF(_sjmain1_day_hour!I4="","",_sjmain1_day_hour!I4)</f>
+        <f>IF(_sjmain1_day_shift!I4="","",_sjmain1_day_shift!I4)</f>
         <v/>
       </c>
       <c r="H15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!J4="","",_sjmain1_day_hour!J4)</f>
+        <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
       <c r="I15" s="209" t="str">
-        <f>IF(_sjmain1_day_hour!K4="","",_sjmain1_day_hour!K4)</f>
+        <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
       <c r="J15" s="210" t="str">
@@ -4698,51 +4698,51 @@
       <c r="D18" s="160"/>
       <c r="E18" s="160"/>
       <c r="F18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!A2="","",_sjmain2_day_hour!A2)</f>
+        <f>IF(_sjmain2_day_shift!A2="","",_sjmain2_day_shift!A2)</f>
         <v/>
       </c>
       <c r="G18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!B2="","",_sjmain2_day_hour!B2)</f>
+        <f>IF(_sjmain2_day_shift!B2="","",_sjmain2_day_shift!B2)</f>
         <v/>
       </c>
       <c r="H18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!C2="","",_sjmain2_day_hour!C2)</f>
+        <f>IF(_sjmain2_day_shift!C2="","",_sjmain2_day_shift!C2)</f>
         <v/>
       </c>
       <c r="I18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!D2="","",_sjmain2_day_hour!D2)</f>
+        <f>IF(_sjmain2_day_shift!D2="","",_sjmain2_day_shift!D2)</f>
         <v/>
       </c>
       <c r="J18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!E2="","",_sjmain2_day_hour!E2)</f>
+        <f>IF(_sjmain2_day_shift!E2="","",_sjmain2_day_shift!E2)</f>
         <v/>
       </c>
       <c r="K18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!F2="","",_sjmain2_day_hour!F2)</f>
+        <f>IF(_sjmain2_day_shift!F2="","",_sjmain2_day_shift!F2)</f>
         <v/>
       </c>
       <c r="L18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!G2="","",_sjmain2_day_hour!G2)</f>
+        <f>IF(_sjmain2_day_shift!G2="","",_sjmain2_day_shift!G2)</f>
         <v/>
       </c>
       <c r="M18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!H2="","",_sjmain2_day_hour!H2)</f>
+        <f>IF(_sjmain2_day_shift!H2="","",_sjmain2_day_shift!H2)</f>
         <v/>
       </c>
       <c r="N18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!I2="","",_sjmain2_day_hour!I2)</f>
+        <f>IF(_sjmain2_day_shift!I2="","",_sjmain2_day_shift!I2)</f>
         <v/>
       </c>
       <c r="O18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!J2="","",_sjmain2_day_hour!J2)</f>
+        <f>IF(_sjmain2_day_shift!J2="","",_sjmain2_day_shift!J2)</f>
         <v/>
       </c>
       <c r="P18" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!K2="","",_sjmain2_day_hour!K2)</f>
+        <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
       <c r="Q18" s="241" t="str">
-        <f>IF(_sjmain2_day_hour!L2="","",_sjmain2_day_hour!L2)</f>
+        <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
       <c r="R18" s="242"/>
@@ -4762,51 +4762,51 @@
       <c r="D19" s="160"/>
       <c r="E19" s="160"/>
       <c r="F19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!A3="","",_sjmain2_day_hour!A3)</f>
+        <f>IF(_sjmain2_day_shift!A3="","",_sjmain2_day_shift!A3)</f>
         <v/>
       </c>
       <c r="G19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!B3="","",_sjmain2_day_hour!B3)</f>
+        <f>IF(_sjmain2_day_shift!B3="","",_sjmain2_day_shift!B3)</f>
         <v/>
       </c>
       <c r="H19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!C3="","",_sjmain2_day_hour!C3)</f>
+        <f>IF(_sjmain2_day_shift!C3="","",_sjmain2_day_shift!C3)</f>
         <v/>
       </c>
       <c r="I19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!D3="","",_sjmain2_day_hour!D3)</f>
+        <f>IF(_sjmain2_day_shift!D3="","",_sjmain2_day_shift!D3)</f>
         <v/>
       </c>
       <c r="J19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!E3="","",_sjmain2_day_hour!E3)</f>
+        <f>IF(_sjmain2_day_shift!E3="","",_sjmain2_day_shift!E3)</f>
         <v/>
       </c>
       <c r="K19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!F3="","",_sjmain2_day_hour!F3)</f>
+        <f>IF(_sjmain2_day_shift!F3="","",_sjmain2_day_shift!F3)</f>
         <v/>
       </c>
       <c r="L19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!G3="","",_sjmain2_day_hour!G3)</f>
+        <f>IF(_sjmain2_day_shift!G3="","",_sjmain2_day_shift!G3)</f>
         <v/>
       </c>
       <c r="M19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!H3="","",_sjmain2_day_hour!H3)</f>
+        <f>IF(_sjmain2_day_shift!H3="","",_sjmain2_day_shift!H3)</f>
         <v/>
       </c>
       <c r="N19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!I3="","",_sjmain2_day_hour!I3)</f>
+        <f>IF(_sjmain2_day_shift!I3="","",_sjmain2_day_shift!I3)</f>
         <v/>
       </c>
       <c r="O19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!J3="","",_sjmain2_day_hour!J3)</f>
+        <f>IF(_sjmain2_day_shift!J3="","",_sjmain2_day_shift!J3)</f>
         <v/>
       </c>
       <c r="P19" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!K3="","",_sjmain2_day_hour!K3)</f>
+        <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
       <c r="Q19" s="241" t="str">
-        <f>IF(_sjmain2_day_hour!L3="","",_sjmain2_day_hour!L3)</f>
+        <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
       <c r="R19" s="242"/>
@@ -4826,51 +4826,51 @@
       <c r="D20" s="160"/>
       <c r="E20" s="160"/>
       <c r="F20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!A4="","",_sjmain2_day_hour!A4)</f>
+        <f>IF(_sjmain2_day_shift!A4="","",_sjmain2_day_shift!A4)</f>
         <v/>
       </c>
       <c r="G20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!B4="","",_sjmain2_day_hour!B4)</f>
+        <f>IF(_sjmain2_day_shift!B4="","",_sjmain2_day_shift!B4)</f>
         <v/>
       </c>
       <c r="H20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!C4="","",_sjmain2_day_hour!C4)</f>
+        <f>IF(_sjmain2_day_shift!C4="","",_sjmain2_day_shift!C4)</f>
         <v/>
       </c>
       <c r="I20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!D4="","",_sjmain2_day_hour!D4)</f>
+        <f>IF(_sjmain2_day_shift!D4="","",_sjmain2_day_shift!D4)</f>
         <v/>
       </c>
       <c r="J20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!E4="","",_sjmain2_day_hour!E4)</f>
+        <f>IF(_sjmain2_day_shift!E4="","",_sjmain2_day_shift!E4)</f>
         <v/>
       </c>
       <c r="K20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!F4="","",_sjmain2_day_hour!F4)</f>
+        <f>IF(_sjmain2_day_shift!F4="","",_sjmain2_day_shift!F4)</f>
         <v/>
       </c>
       <c r="L20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!G4="","",_sjmain2_day_hour!G4)</f>
+        <f>IF(_sjmain2_day_shift!G4="","",_sjmain2_day_shift!G4)</f>
         <v/>
       </c>
       <c r="M20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!H4="","",_sjmain2_day_hour!H4)</f>
+        <f>IF(_sjmain2_day_shift!H4="","",_sjmain2_day_shift!H4)</f>
         <v/>
       </c>
       <c r="N20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!I4="","",_sjmain2_day_hour!I4)</f>
+        <f>IF(_sjmain2_day_shift!I4="","",_sjmain2_day_shift!I4)</f>
         <v/>
       </c>
       <c r="O20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!J4="","",_sjmain2_day_hour!J4)</f>
+        <f>IF(_sjmain2_day_shift!J4="","",_sjmain2_day_shift!J4)</f>
         <v/>
       </c>
       <c r="P20" s="160" t="str">
-        <f>IF(_sjmain2_day_hour!K4="","",_sjmain2_day_hour!K4)</f>
+        <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
       <c r="Q20" s="241" t="str">
-        <f>IF(_sjmain2_day_hour!L4="","",_sjmain2_day_hour!L4)</f>
+        <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
       <c r="R20" s="242"/>
@@ -8583,7 +8583,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8629,8 +8629,8 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11415,7 +11415,7 @@
   <sheetPr/>
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
-    <sheet name="_sjmain2_day_shift" sheetId="5" r:id="rId3"/>
-    <sheet name="_sjmain3_day_shift" sheetId="9" r:id="rId4"/>
-    <sheet name="_sjmain4_day_shift" sheetId="10" r:id="rId5"/>
-    <sheet name="_lilunshengchan_day_shift" sheetId="11" r:id="rId6"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="_sjmain3_day_shift" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="_sjmain4_day_shift" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="_lilunshengchan_day_shift" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="过程参数" sheetId="2" r:id="rId7"/>
-    <sheet name="_sjgc_day_hour" sheetId="6" r:id="rId8"/>
+    <sheet name="_sjgc_day_hour" sheetId="6" state="hidden" r:id="rId8"/>
     <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
-    <sheet name="_sjfx_day_hour" sheetId="8" r:id="rId10"/>
-    <sheet name="_dictionary" sheetId="7" r:id="rId11"/>
+    <sheet name="_sjfx_day_hour" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="_metadata" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -1474,21 +1474,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1555,14 +1555,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1578,14 +1570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,7 +1578,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,7 +1624,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,14 +1665,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1652,47 +1683,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1747,19 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,139 +1783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,6 +1796,138 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,17 +2496,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2544,6 +2533,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2555,24 +2553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2591,147 +2571,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2754,7 +2754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2794,34 +2794,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2833,31 +2833,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2872,25 +2872,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2899,16 +2899,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2921,13 +2921,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2936,19 +2936,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,19 +2957,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,31 +2978,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3017,7 +3017,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3026,19 +3026,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3047,10 +3047,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,7 +3083,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3117,24 +3117,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3143,16 +3143,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,13 +3167,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,7 +3197,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3231,11 +3231,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3260,7 +3260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3287,25 +3287,25 @@
     <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3335,10 +3335,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3346,162 +3388,120 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3905,8 +3905,8 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3969,8 +3969,9 @@
       <c r="A4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="123">
-        <v>43343</v>
+      <c r="B4" s="123" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C4" s="123"/>
       <c r="D4" s="117"/>
@@ -8629,7 +8630,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_shift" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="_sjmain2_day_shift" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="5" r:id="rId3"/>
     <sheet name="_sjmain3_day_shift" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="_sjmain4_day_shift" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="_lilunshengchan_day_shift" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="过程参数" sheetId="2" r:id="rId7"/>
-    <sheet name="_sjgc_day_hour" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="_sjgc_day_hour" sheetId="6" r:id="rId8"/>
     <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
     <sheet name="_sjfx_day_hour" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId11"/>
@@ -1077,7 +1077,7 @@
     <t>ST5_L1R_SIN_IgAFRAct_1h_avg</t>
   </si>
   <si>
-    <t>avg(ST5_L1R_SIN_TI354_1h_avg,ST5_L1R_SIN_TI355_1h_avg)</t>
+    <t>ST5_L2C_SIN_TI354355_1h_avg</t>
   </si>
   <si>
     <t>ST5_L1R_SIN_HoAFRAct_1h_avg</t>
@@ -1473,22 +1473,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="15">
+  <numFmts count="14">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1547,15 +1546,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1563,14 +1555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,25 +1569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,7 +1585,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,7 +1613,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,16 +1634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,25 +1681,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1747,7 +1746,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,13 +1824,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,121 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,25 +1914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,22 +2497,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2536,23 +2529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2574,15 +2552,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2591,151 +2560,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2754,7 +2753,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2794,34 +2793,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2833,31 +2832,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2875,22 +2874,22 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2902,13 +2901,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2921,15 +2920,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,16 +2938,16 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2978,7 +2977,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2987,22 +2986,22 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3017,7 +3016,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3047,10 +3046,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,42 +3116,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,14 +3157,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3201,6 +3188,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3231,11 +3222,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3260,7 +3251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3284,30 +3275,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3335,10 +3311,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3346,82 +3401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3451,7 +3430,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3474,7 +3453,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3497,11 +3476,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3906,7 +3885,7 @@
   <dimension ref="A2:Z114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3989,20 +3968,20 @@
       <c r="P4" s="117"/>
       <c r="Q4" s="117"/>
       <c r="R4" s="117"/>
-      <c r="S4" s="218" t="s">
+      <c r="S4" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="219" t="s">
+      <c r="T4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="219"/>
-      <c r="V4" s="220" t="s">
+      <c r="U4" s="211"/>
+      <c r="V4" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="221" t="s">
+      <c r="W4" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="221"/>
+      <c r="X4" s="213"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:26">
       <c r="A5" s="124" t="s">
@@ -4037,18 +4016,18 @@
       </c>
       <c r="O5" s="126"/>
       <c r="P5" s="125"/>
-      <c r="Q5" s="222"/>
-      <c r="R5" s="146" t="s">
+      <c r="Q5" s="214"/>
+      <c r="R5" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="256"/>
-      <c r="Z5" s="256"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="249"/>
+      <c r="Z5" s="249"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="129"/>
@@ -4067,24 +4046,24 @@
       <c r="N6" s="130"/>
       <c r="O6" s="131"/>
       <c r="P6" s="130"/>
-      <c r="Q6" s="223"/>
+      <c r="Q6" s="215"/>
       <c r="R6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="224" t="s">
+      <c r="S6" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="148" t="s">
+      <c r="T6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="190" t="s">
+      <c r="U6" s="184" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="110"/>
       <c r="W6" s="110"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="256"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="249"/>
+      <c r="Z6" s="249"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:26">
       <c r="A7" s="129" t="s">
@@ -4100,31 +4079,43 @@
         <v/>
       </c>
       <c r="E7" s="137"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="172" t="s">
+      <c r="F7" s="136" t="str">
+        <f>IF(D7="","",D7/8)</f>
+        <v/>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="136" t="str">
+        <f>IF(F7="","",F7/360)</f>
+        <v/>
+      </c>
+      <c r="I7" s="137"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="182">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="183"/>
+      <c r="N7" s="182">
+        <f>(24-L8)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="183"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="217"/>
+      <c r="R7" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="226" t="s">
+      <c r="S7" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="204"/>
-      <c r="U7" s="227"/>
-      <c r="V7" s="228"/>
-      <c r="W7" s="228"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="220"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="249"/>
+      <c r="Z7" s="249"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="129" t="s">
@@ -4140,31 +4131,43 @@
         <v/>
       </c>
       <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="172" t="s">
+      <c r="F8" s="136" t="str">
+        <f>IF(D8="","",D8/8)</f>
+        <v/>
+      </c>
+      <c r="G8" s="137"/>
+      <c r="H8" s="136" t="str">
+        <f>IF(F8="","",F8/360)</f>
+        <v/>
+      </c>
+      <c r="I8" s="137"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="182">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="183"/>
+      <c r="N8" s="182">
+        <f>(24-L9)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="226" t="s">
+      <c r="S8" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="230"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="228"/>
-      <c r="W8" s="228"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="249"/>
+      <c r="Z8" s="249"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="129" t="s">
@@ -4180,4013 +4183,4043 @@
         <v/>
       </c>
       <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="225"/>
-      <c r="R9" s="172" t="s">
+      <c r="F9" s="136" t="str">
+        <f>IF(D9="","",D9/8)</f>
+        <v/>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="H9" s="136" t="str">
+        <f>IF(F9="","",F9/360)</f>
+        <v/>
+      </c>
+      <c r="I9" s="137"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="182">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="183"/>
+      <c r="N9" s="182">
+        <f>(24-L10)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="226" t="s">
+      <c r="S9" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="204"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="228"/>
-      <c r="W9" s="228"/>
-      <c r="X9" s="229"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="231"/>
-      <c r="R10" s="172" t="s">
+      <c r="B10" s="139" t="str">
+        <f>IF(B7="","",SUM(B7:B9))</f>
+        <v/>
+      </c>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141" t="str">
+        <f>IF(D7="","",SUM(D7:D9))</f>
+        <v/>
+      </c>
+      <c r="E10" s="142"/>
+      <c r="F10" s="136" t="str">
+        <f>IF(F7="","",SUM(F7:F9))</f>
+        <v/>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="H10" s="136" t="str">
+        <f>IF(H7="","",SUM(H7:H9))</f>
+        <v/>
+      </c>
+      <c r="I10" s="137"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="139">
+        <f>IF(L7="","",SUM(L7:L9))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="140"/>
+      <c r="N10" s="139">
+        <f>IF(N7="","",SUM(N7:N9)/3)</f>
+        <v>100</v>
+      </c>
+      <c r="O10" s="140"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="226" t="s">
+      <c r="S10" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="204"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="228"/>
-      <c r="W10" s="228"/>
-      <c r="X10" s="229"/>
-      <c r="Y10" s="256"/>
-      <c r="Z10" s="256"/>
+      <c r="T10" s="219"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="249"/>
+      <c r="Z10" s="249"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="262" t="s">
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="232"/>
-      <c r="R11" s="172" t="s">
+      <c r="Q11" s="225"/>
+      <c r="R11" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="226" t="s">
+      <c r="S11" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="204"/>
-      <c r="U11" s="227"/>
-      <c r="V11" s="228"/>
-      <c r="W11" s="228"/>
-      <c r="X11" s="229"/>
-      <c r="Y11" s="256"/>
-      <c r="Z11" s="256"/>
+      <c r="T11" s="219"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="249"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="190" t="s">
+      <c r="I12" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="263" t="s">
+      <c r="J12" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="264" t="s">
+      <c r="K12" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="264" t="s">
+      <c r="L12" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="264" t="s">
+      <c r="M12" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="166" t="s">
+      <c r="N12" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="265" t="s">
+      <c r="O12" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="201" t="s">
+      <c r="P12" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="233" t="s">
+      <c r="Q12" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="172" t="s">
+      <c r="R12" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="226" t="s">
+      <c r="S12" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="204"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="228"/>
-      <c r="W12" s="228"/>
-      <c r="X12" s="229"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
+      <c r="T12" s="219"/>
+      <c r="U12" s="220"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="249"/>
+      <c r="Z12" s="249"/>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:26">
       <c r="A13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="150" t="str">
+      <c r="B13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!D2="","",_sjmain1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="C13" s="150" t="str">
+      <c r="C13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!E2="","",_sjmain1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="D13" s="150" t="str">
+      <c r="D13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!F2="","",_sjmain1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="E13" s="150" t="str">
+      <c r="E13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!G2="","",_sjmain1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="F13" s="150" t="str">
+      <c r="F13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!H2="","",_sjmain1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="G13" s="151" t="str">
+      <c r="G13" s="148" t="str">
         <f>IF(_sjmain1_day_shift!I2="","",_sjmain1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="H13" s="152" t="str">
+      <c r="H13" s="147" t="str">
         <f>IF(_sjmain1_day_shift!J2="","",_sjmain1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="I13" s="202" t="str">
+      <c r="I13" s="194" t="str">
         <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="J13" s="203" t="str">
+      <c r="J13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!A2="","",_sjmain3_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="K13" s="204" t="str">
+      <c r="K13" s="196" t="str">
         <f>IF(_sjmain3_day_shift!B2="","",_sjmain3_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="L13" s="204" t="str">
+      <c r="L13" s="196" t="str">
         <f>IF(_sjmain3_day_shift!C2="","",_sjmain3_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="M13" s="204" t="str">
+      <c r="M13" s="196" t="str">
         <f>IF(_sjmain3_day_shift!D2="","",_sjmain3_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="N13" s="204" t="str">
+      <c r="N13" s="196" t="str">
         <f>IF(_sjmain3_day_shift!E2="","",_sjmain3_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="O13" s="205" t="str">
+      <c r="O13" s="197" t="str">
         <f>IF(_sjmain3_day_shift!F2="","",_sjmain3_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="P13" s="206" t="str">
+      <c r="P13" s="135" t="str">
         <f>IF(_sjmain3_day_shift!G2="","",_sjmain3_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="Q13" s="208" t="str">
+      <c r="Q13" s="200" t="str">
         <f>IF(_sjmain3_day_shift!H2="","",_sjmain3_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="R13" s="172" t="s">
+      <c r="R13" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="226" t="s">
+      <c r="S13" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="204"/>
-      <c r="U13" s="227"/>
-      <c r="V13" s="228"/>
-      <c r="W13" s="228"/>
-      <c r="X13" s="229"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
+      <c r="T13" s="219"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="249"/>
+      <c r="Z13" s="249"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:26">
       <c r="A14" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="150" t="str">
+      <c r="B14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!D3="","",_sjmain1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="C14" s="150" t="str">
+      <c r="C14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!E3="","",_sjmain1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="D14" s="150" t="str">
+      <c r="D14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!F3="","",_sjmain1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="E14" s="150" t="str">
+      <c r="E14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!G3="","",_sjmain1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="F14" s="150" t="str">
+      <c r="F14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!H3="","",_sjmain1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="G14" s="150" t="str">
+      <c r="G14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!I3="","",_sjmain1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="H14" s="152" t="str">
+      <c r="H14" s="147" t="str">
         <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="I14" s="207" t="str">
+      <c r="I14" s="198" t="str">
         <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="J14" s="203" t="str">
+      <c r="J14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!A3="","",_sjmain3_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="K14" s="204" t="str">
+      <c r="K14" s="196" t="str">
         <f>IF(_sjmain3_day_shift!B3="","",_sjmain3_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="L14" s="204" t="str">
+      <c r="L14" s="196" t="str">
         <f>IF(_sjmain3_day_shift!C3="","",_sjmain3_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="M14" s="204" t="str">
+      <c r="M14" s="196" t="str">
         <f>IF(_sjmain3_day_shift!D3="","",_sjmain3_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="N14" s="118" t="str">
+      <c r="N14" s="199" t="str">
         <f>IF(_sjmain3_day_shift!E3="","",_sjmain3_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="O14" s="208" t="str">
+      <c r="O14" s="200" t="str">
         <f>IF(_sjmain3_day_shift!F3="","",_sjmain3_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="P14" s="206" t="str">
+      <c r="P14" s="135" t="str">
         <f>IF(_sjmain3_day_shift!G3="","",_sjmain3_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="Q14" s="208" t="str">
+      <c r="Q14" s="200" t="str">
         <f>IF(_sjmain3_day_shift!H3="","",_sjmain3_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="R14" s="226" t="s">
+      <c r="R14" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="234" t="s">
+      <c r="S14" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="204"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="228"/>
-      <c r="W14" s="228"/>
-      <c r="X14" s="229"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="249"/>
+      <c r="Z14" s="249"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:26">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="150" t="str">
+      <c r="B15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!D4="","",_sjmain1_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="C15" s="150" t="str">
+      <c r="C15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!E4="","",_sjmain1_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="D15" s="150" t="str">
+      <c r="D15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!F4="","",_sjmain1_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="E15" s="150" t="str">
+      <c r="E15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!G4="","",_sjmain1_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="F15" s="150" t="str">
+      <c r="F15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!H4="","",_sjmain1_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="G15" s="150" t="str">
+      <c r="G15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!I4="","",_sjmain1_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="H15" s="152" t="str">
+      <c r="H15" s="147" t="str">
         <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="I15" s="209" t="str">
+      <c r="I15" s="201" t="str">
         <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="J15" s="210" t="str">
+      <c r="J15" s="202" t="str">
         <f>IF(_sjmain3_day_shift!A4="","",_sjmain3_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="K15" s="211" t="str">
+      <c r="K15" s="203" t="str">
         <f>IF(_sjmain3_day_shift!B4="","",_sjmain3_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="L15" s="211" t="str">
+      <c r="L15" s="203" t="str">
         <f>IF(_sjmain3_day_shift!C4="","",_sjmain3_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="M15" s="211" t="str">
+      <c r="M15" s="203" t="str">
         <f>IF(_sjmain3_day_shift!D4="","",_sjmain3_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="N15" s="211" t="str">
+      <c r="N15" s="203" t="str">
         <f>IF(_sjmain3_day_shift!E4="","",_sjmain3_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="O15" s="212" t="str">
+      <c r="O15" s="204" t="str">
         <f>IF(_sjmain3_day_shift!F4="","",_sjmain3_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="P15" s="213" t="str">
+      <c r="P15" s="205" t="str">
         <f>IF(_sjmain3_day_shift!G4="","",_sjmain3_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="Q15" s="235" t="str">
+      <c r="Q15" s="228" t="str">
         <f>IF(_sjmain3_day_shift!H4="","",_sjmain3_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="R15" s="236" t="s">
+      <c r="R15" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="234" t="s">
+      <c r="S15" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="204"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="239"/>
-      <c r="Y15" s="256"/>
-      <c r="Z15" s="256"/>
+      <c r="T15" s="219"/>
+      <c r="U15" s="230"/>
+      <c r="V15" s="231"/>
+      <c r="W15" s="231"/>
+      <c r="X15" s="232"/>
+      <c r="Y15" s="249"/>
+      <c r="Z15" s="249"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="153" t="s">
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="236" t="s">
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="234" t="s">
+      <c r="S16" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="204"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="238"/>
-      <c r="W16" s="238"/>
-      <c r="X16" s="239"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
+      <c r="T16" s="219"/>
+      <c r="U16" s="230"/>
+      <c r="V16" s="231"/>
+      <c r="W16" s="231"/>
+      <c r="X16" s="232"/>
+      <c r="Y16" s="249"/>
+      <c r="Z16" s="249"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="158" t="s">
+      <c r="F17" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="159" t="s">
+      <c r="G17" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="159" t="s">
+      <c r="H17" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="159" t="s">
+      <c r="I17" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="159" t="s">
+      <c r="J17" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="159" t="s">
+      <c r="K17" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="159" t="s">
+      <c r="L17" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="159" t="s">
+      <c r="M17" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="159" t="s">
+      <c r="N17" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="159" t="s">
+      <c r="O17" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="159" t="s">
+      <c r="P17" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="240" t="s">
+      <c r="Q17" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="236" t="s">
+      <c r="R17" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="234" t="s">
+      <c r="S17" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="204"/>
-      <c r="U17" s="237"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="230"/>
+      <c r="V17" s="231"/>
+      <c r="W17" s="231"/>
+      <c r="X17" s="232"/>
+      <c r="Y17" s="249"/>
+      <c r="Z17" s="249"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:26">
-      <c r="A18" s="160"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160" t="str">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!A2="","",_sjmain2_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="G18" s="160" t="str">
+      <c r="G18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!B2="","",_sjmain2_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="H18" s="160" t="str">
+      <c r="H18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!C2="","",_sjmain2_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="I18" s="160" t="str">
+      <c r="I18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!D2="","",_sjmain2_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="J18" s="160" t="str">
+      <c r="J18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!E2="","",_sjmain2_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="K18" s="160" t="str">
+      <c r="K18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!F2="","",_sjmain2_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="L18" s="160" t="str">
+      <c r="L18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!G2="","",_sjmain2_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="M18" s="160" t="str">
+      <c r="M18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!H2="","",_sjmain2_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="N18" s="160" t="str">
+      <c r="N18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!I2="","",_sjmain2_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="O18" s="160" t="str">
+      <c r="O18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!J2="","",_sjmain2_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="P18" s="160" t="str">
+      <c r="P18" s="157" t="str">
         <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="241" t="str">
+      <c r="Q18" s="234" t="str">
         <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="242"/>
-      <c r="S18" s="242"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="237"/>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
-      <c r="X18" s="239"/>
-      <c r="Y18" s="256"/>
-      <c r="Z18" s="256"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="219"/>
+      <c r="U18" s="230"/>
+      <c r="V18" s="231"/>
+      <c r="W18" s="231"/>
+      <c r="X18" s="232"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:26">
-      <c r="A19" s="160"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160" t="str">
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!A3="","",_sjmain2_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="G19" s="160" t="str">
+      <c r="G19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!B3="","",_sjmain2_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="H19" s="160" t="str">
+      <c r="H19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!C3="","",_sjmain2_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="I19" s="160" t="str">
+      <c r="I19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!D3="","",_sjmain2_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="J19" s="160" t="str">
+      <c r="J19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!E3="","",_sjmain2_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="K19" s="160" t="str">
+      <c r="K19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!F3="","",_sjmain2_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="L19" s="160" t="str">
+      <c r="L19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!G3="","",_sjmain2_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="M19" s="160" t="str">
+      <c r="M19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!H3="","",_sjmain2_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="N19" s="160" t="str">
+      <c r="N19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!I3="","",_sjmain2_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="O19" s="160" t="str">
+      <c r="O19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!J3="","",_sjmain2_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="P19" s="160" t="str">
+      <c r="P19" s="157" t="str">
         <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="241" t="str">
+      <c r="Q19" s="234" t="str">
         <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="242"/>
-      <c r="S19" s="242"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="237"/>
-      <c r="V19" s="238"/>
-      <c r="W19" s="238"/>
-      <c r="X19" s="239"/>
-      <c r="Y19" s="256"/>
-      <c r="Z19" s="256"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="230"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="232"/>
+      <c r="Y19" s="249"/>
+      <c r="Z19" s="249"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:26">
-      <c r="A20" s="160"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160" t="str">
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!A4="","",_sjmain2_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="G20" s="160" t="str">
+      <c r="G20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!B4="","",_sjmain2_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="H20" s="160" t="str">
+      <c r="H20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!C4="","",_sjmain2_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="I20" s="160" t="str">
+      <c r="I20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!D4="","",_sjmain2_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="J20" s="160" t="str">
+      <c r="J20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!E4="","",_sjmain2_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="K20" s="160" t="str">
+      <c r="K20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!F4="","",_sjmain2_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="L20" s="160" t="str">
+      <c r="L20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!G4="","",_sjmain2_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="M20" s="160" t="str">
+      <c r="M20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!H4="","",_sjmain2_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="N20" s="160" t="str">
+      <c r="N20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!I4="","",_sjmain2_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="O20" s="160" t="str">
+      <c r="O20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!J4="","",_sjmain2_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="P20" s="160" t="str">
+      <c r="P20" s="157" t="str">
         <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="241" t="str">
+      <c r="Q20" s="234" t="str">
         <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="242"/>
-      <c r="S20" s="242"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="237"/>
-      <c r="V20" s="238"/>
-      <c r="W20" s="238"/>
-      <c r="X20" s="239"/>
-      <c r="Y20" s="256"/>
-      <c r="Z20" s="256"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="219"/>
+      <c r="U20" s="230"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="232"/>
+      <c r="Y20" s="249"/>
+      <c r="Z20" s="249"/>
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="243"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="236"/>
       <c r="R21" s="109" t="s">
         <v>59</v>
       </c>
       <c r="S21" s="110"/>
-      <c r="T21" s="244"/>
-      <c r="U21" s="245"/>
-      <c r="V21" s="246"/>
-      <c r="W21" s="246"/>
-      <c r="X21" s="247"/>
-      <c r="Y21" s="256"/>
-      <c r="Z21" s="256"/>
+      <c r="T21" s="237"/>
+      <c r="U21" s="238"/>
+      <c r="V21" s="239"/>
+      <c r="W21" s="239"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="249"/>
+      <c r="Z21" s="249"/>
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165" t="s">
+      <c r="C22" s="161"/>
+      <c r="D22" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="165" t="s">
+      <c r="E22" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="165" t="s">
+      <c r="F22" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="165" t="s">
+      <c r="G22" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="166" t="s">
+      <c r="H22" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="166" t="s">
+      <c r="I22" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="166" t="s">
+      <c r="J22" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="166" t="s">
+      <c r="K22" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="166" t="s">
+      <c r="L22" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="166" t="s">
+      <c r="M22" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="N22" s="148" t="s">
+      <c r="N22" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="148" t="s">
+      <c r="O22" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="P22" s="148" t="s">
+      <c r="P22" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="233" t="s">
+      <c r="Q22" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="226" t="s">
+      <c r="R22" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="226" t="s">
+      <c r="S22" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="204"/>
-      <c r="U22" s="227"/>
-      <c r="V22" s="228"/>
-      <c r="W22" s="228"/>
-      <c r="X22" s="229"/>
-      <c r="Y22" s="256"/>
-      <c r="Z22" s="256"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="249"/>
+      <c r="Z22" s="249"/>
     </row>
     <row r="23" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A23" s="167" t="str">
+      <c r="A23" s="164" t="str">
         <f>IF(_sjmain4_day_shift!A2="","",_sjmain4_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="B23" s="168" t="str">
+      <c r="B23" s="165" t="str">
         <f>IF(_sjmain4_day_shift!B2="","",_sjmain4_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170" t="str">
+      <c r="C23" s="166"/>
+      <c r="D23" s="167" t="str">
         <f>IF(_sjmain4_day_shift!D2="","",_sjmain4_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="E23" s="170" t="str">
+      <c r="E23" s="167" t="str">
         <f>IF(_sjmain4_day_shift!E2="","",_sjmain4_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="F23" s="170" t="str">
+      <c r="F23" s="167" t="str">
         <f>IF(_sjmain4_day_shift!F2="","",_sjmain4_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="G23" s="170" t="str">
+      <c r="G23" s="167" t="str">
         <f>IF(_sjmain4_day_shift!G2="","",_sjmain4_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="H23" s="171" t="str">
+      <c r="H23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H2="","",_sjmain4_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="I23" s="214" t="str">
+      <c r="I23" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I2="","",_sjmain4_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="J23" s="214" t="str">
+      <c r="J23" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J2="","",_sjmain4_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="K23" s="171" t="str">
+      <c r="K23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K2="","",_sjmain4_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="L23" s="171" t="str">
+      <c r="L23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L2="","",_sjmain4_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="M23" s="171" t="str">
+      <c r="M23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M2="","",_sjmain4_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="N23" s="171" t="str">
+      <c r="N23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N2="","",_sjmain4_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="O23" s="171" t="str">
+      <c r="O23" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O2="","",_sjmain4_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="P23" s="215" t="str">
+      <c r="P23" s="207" t="str">
         <f>IF(_sjmain4_day_shift!P2="","",SUM(_sjmain4_day_shift!P2:P50))</f>
         <v/>
       </c>
-      <c r="Q23" s="248" t="str">
+      <c r="Q23" s="241" t="str">
         <f>IF(_sjmain4_day_shift!Q2="","",_sjmain4_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="R23" s="236" t="s">
+      <c r="R23" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="234" t="s">
+      <c r="S23" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="204"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="228"/>
-      <c r="W23" s="228"/>
-      <c r="X23" s="229"/>
-      <c r="Y23" s="256"/>
-      <c r="Z23" s="256"/>
+      <c r="T23" s="219"/>
+      <c r="U23" s="220"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="249"/>
+      <c r="Z23" s="249"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="1:26">
-      <c r="A24" s="172" t="str">
+      <c r="A24" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A3="","",_sjmain4_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="B24" s="173" t="str">
+      <c r="B24" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B3="","",_sjmain4_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="171" t="str">
+      <c r="C24" s="171"/>
+      <c r="D24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D3="","",_sjmain4_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="E24" s="171" t="str">
+      <c r="E24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E3="","",_sjmain4_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="F24" s="171" t="str">
+      <c r="F24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F3="","",_sjmain4_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="G24" s="171" t="str">
+      <c r="G24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G3="","",_sjmain4_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="H24" s="171" t="str">
+      <c r="H24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H3="","",_sjmain4_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="I24" s="214" t="str">
+      <c r="I24" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I3="","",_sjmain4_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="J24" s="214" t="str">
+      <c r="J24" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J3="","",_sjmain4_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="K24" s="171" t="str">
+      <c r="K24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K3="","",_sjmain4_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="L24" s="171" t="str">
+      <c r="L24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L3="","",_sjmain4_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="M24" s="171" t="str">
+      <c r="M24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M3="","",_sjmain4_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="N24" s="171" t="str">
+      <c r="N24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N3="","",_sjmain4_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="O24" s="171" t="str">
+      <c r="O24" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O3="","",_sjmain4_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="248"/>
-      <c r="R24" s="236" t="s">
+      <c r="P24" s="207"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="234" t="s">
+      <c r="S24" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="204"/>
-      <c r="U24" s="227"/>
-      <c r="V24" s="228"/>
-      <c r="W24" s="228"/>
-      <c r="X24" s="229"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="256"/>
+      <c r="T24" s="219"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="249"/>
+      <c r="Z24" s="249"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A25" s="172" t="str">
+      <c r="A25" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A4="","",_sjmain4_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="B25" s="173" t="str">
+      <c r="B25" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B4="","",_sjmain4_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="171" t="str">
+      <c r="C25" s="171"/>
+      <c r="D25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D4="","",_sjmain4_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="E25" s="171" t="str">
+      <c r="E25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E4="","",_sjmain4_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="F25" s="171" t="str">
+      <c r="F25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F4="","",_sjmain4_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="G25" s="171" t="str">
+      <c r="G25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G4="","",_sjmain4_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="H25" s="171" t="str">
+      <c r="H25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H4="","",_sjmain4_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="I25" s="214" t="str">
+      <c r="I25" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I4="","",_sjmain4_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="J25" s="214" t="str">
+      <c r="J25" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J4="","",_sjmain4_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="K25" s="171" t="str">
+      <c r="K25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K4="","",_sjmain4_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="L25" s="171" t="str">
+      <c r="L25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L4="","",_sjmain4_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="M25" s="171" t="str">
+      <c r="M25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M4="","",_sjmain4_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="N25" s="171" t="str">
+      <c r="N25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N4="","",_sjmain4_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="O25" s="171" t="str">
+      <c r="O25" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O4="","",_sjmain4_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="248"/>
-      <c r="R25" s="236" t="s">
+      <c r="P25" s="207"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="234" t="s">
+      <c r="S25" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="204"/>
-      <c r="U25" s="227"/>
-      <c r="V25" s="228"/>
-      <c r="W25" s="228"/>
-      <c r="X25" s="229"/>
-      <c r="Y25" s="256"/>
-      <c r="Z25" s="256"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="249"/>
+      <c r="Z25" s="249"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A26" s="172" t="str">
+      <c r="A26" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A5="","",_sjmain4_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="B26" s="173" t="str">
+      <c r="B26" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B5="","",_sjmain4_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="171" t="str">
+      <c r="C26" s="171"/>
+      <c r="D26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D5="","",_sjmain4_day_shift!D5)</f>
         <v/>
       </c>
-      <c r="E26" s="171" t="str">
+      <c r="E26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E5="","",_sjmain4_day_shift!E5)</f>
         <v/>
       </c>
-      <c r="F26" s="171" t="str">
+      <c r="F26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F5="","",_sjmain4_day_shift!F5)</f>
         <v/>
       </c>
-      <c r="G26" s="171" t="str">
+      <c r="G26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G5="","",_sjmain4_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="H26" s="171" t="str">
+      <c r="H26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H5="","",_sjmain4_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="I26" s="214" t="str">
+      <c r="I26" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I5="","",_sjmain4_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="J26" s="214" t="str">
+      <c r="J26" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J5="","",_sjmain4_day_shift!J5)</f>
         <v/>
       </c>
-      <c r="K26" s="171" t="str">
+      <c r="K26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K5="","",_sjmain4_day_shift!K5)</f>
         <v/>
       </c>
-      <c r="L26" s="171" t="str">
+      <c r="L26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L5="","",_sjmain4_day_shift!L5)</f>
         <v/>
       </c>
-      <c r="M26" s="171" t="str">
+      <c r="M26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M5="","",_sjmain4_day_shift!M5)</f>
         <v/>
       </c>
-      <c r="N26" s="171" t="str">
+      <c r="N26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N5="","",_sjmain4_day_shift!N5)</f>
         <v/>
       </c>
-      <c r="O26" s="171" t="str">
+      <c r="O26" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O5="","",_sjmain4_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="248"/>
-      <c r="R26" s="236" t="s">
+      <c r="P26" s="207"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="234" t="s">
+      <c r="S26" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="204"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="239"/>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="256"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="230"/>
+      <c r="V26" s="231"/>
+      <c r="W26" s="231"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="249"/>
+      <c r="Z26" s="249"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A27" s="172" t="str">
+      <c r="A27" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A6="","",_sjmain4_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="B27" s="173" t="str">
+      <c r="B27" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B6="","",_sjmain4_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="171" t="str">
+      <c r="C27" s="171"/>
+      <c r="D27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D6="","",_sjmain4_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="E27" s="171" t="str">
+      <c r="E27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E6="","",_sjmain4_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="F27" s="171" t="str">
+      <c r="F27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F6="","",_sjmain4_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="G27" s="171" t="str">
+      <c r="G27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G6="","",_sjmain4_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="H27" s="171" t="str">
+      <c r="H27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H6="","",_sjmain4_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="I27" s="214" t="str">
+      <c r="I27" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I6="","",_sjmain4_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="J27" s="214" t="str">
+      <c r="J27" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J6="","",_sjmain4_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="K27" s="171" t="str">
+      <c r="K27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K6="","",_sjmain4_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="L27" s="171" t="str">
+      <c r="L27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L6="","",_sjmain4_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="M27" s="171" t="str">
+      <c r="M27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M6="","",_sjmain4_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="N27" s="171" t="str">
+      <c r="N27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N6="","",_sjmain4_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="O27" s="171" t="str">
+      <c r="O27" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O6="","",_sjmain4_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="234"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="228"/>
-      <c r="W27" s="228"/>
-      <c r="X27" s="229"/>
-      <c r="Y27" s="256"/>
-      <c r="Z27" s="256"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="229"/>
+      <c r="S27" s="227"/>
+      <c r="T27" s="219"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
     </row>
     <row r="28" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A28" s="172" t="str">
+      <c r="A28" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A7="","",_sjmain4_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="B28" s="173" t="str">
+      <c r="B28" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B7="","",_sjmain4_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="171" t="str">
+      <c r="C28" s="171"/>
+      <c r="D28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D7="","",_sjmain4_day_shift!D7)</f>
         <v/>
       </c>
-      <c r="E28" s="171" t="str">
+      <c r="E28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E7="","",_sjmain4_day_shift!E7)</f>
         <v/>
       </c>
-      <c r="F28" s="171" t="str">
+      <c r="F28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F7="","",_sjmain4_day_shift!F7)</f>
         <v/>
       </c>
-      <c r="G28" s="171" t="str">
+      <c r="G28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G7="","",_sjmain4_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="H28" s="171" t="str">
+      <c r="H28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H7="","",_sjmain4_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="I28" s="214" t="str">
+      <c r="I28" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I7="","",_sjmain4_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="J28" s="214" t="str">
+      <c r="J28" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J7="","",_sjmain4_day_shift!J7)</f>
         <v/>
       </c>
-      <c r="K28" s="171" t="str">
+      <c r="K28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K7="","",_sjmain4_day_shift!K7)</f>
         <v/>
       </c>
-      <c r="L28" s="171" t="str">
+      <c r="L28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L7="","",_sjmain4_day_shift!L7)</f>
         <v/>
       </c>
-      <c r="M28" s="171" t="str">
+      <c r="M28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M7="","",_sjmain4_day_shift!M7)</f>
         <v/>
       </c>
-      <c r="N28" s="171" t="str">
+      <c r="N28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N7="","",_sjmain4_day_shift!N7)</f>
         <v/>
       </c>
-      <c r="O28" s="171" t="str">
+      <c r="O28" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O7="","",_sjmain4_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="248"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="234"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
-      <c r="X28" s="239"/>
-      <c r="Y28" s="256"/>
-      <c r="Z28" s="256"/>
+      <c r="P28" s="207"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="219"/>
+      <c r="U28" s="230"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="232"/>
+      <c r="Y28" s="249"/>
+      <c r="Z28" s="249"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A29" s="172" t="str">
+      <c r="A29" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A8="","",_sjmain4_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="B29" s="173" t="str">
+      <c r="B29" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B8="","",_sjmain4_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="171" t="str">
+      <c r="C29" s="171"/>
+      <c r="D29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D8="","",_sjmain4_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="E29" s="171" t="str">
+      <c r="E29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E8="","",_sjmain4_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="F29" s="171" t="str">
+      <c r="F29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F8="","",_sjmain4_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="G29" s="171" t="str">
+      <c r="G29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G8="","",_sjmain4_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="H29" s="171" t="str">
+      <c r="H29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H8="","",_sjmain4_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="I29" s="214" t="str">
+      <c r="I29" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I8="","",_sjmain4_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="J29" s="214" t="str">
+      <c r="J29" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J8="","",_sjmain4_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="K29" s="171" t="str">
+      <c r="K29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K8="","",_sjmain4_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="L29" s="171" t="str">
+      <c r="L29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L8="","",_sjmain4_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="M29" s="171" t="str">
+      <c r="M29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M8="","",_sjmain4_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="N29" s="171" t="str">
+      <c r="N29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N8="","",_sjmain4_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="O29" s="171" t="str">
+      <c r="O29" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O8="","",_sjmain4_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="248"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="241"/>
       <c r="R29" s="109" t="s">
         <v>76</v>
       </c>
       <c r="S29" s="110"/>
-      <c r="T29" s="244"/>
-      <c r="U29" s="245"/>
-      <c r="V29" s="246"/>
-      <c r="W29" s="246"/>
-      <c r="X29" s="247"/>
-      <c r="Y29" s="256"/>
-      <c r="Z29" s="256"/>
+      <c r="T29" s="237"/>
+      <c r="U29" s="238"/>
+      <c r="V29" s="239"/>
+      <c r="W29" s="239"/>
+      <c r="X29" s="240"/>
+      <c r="Y29" s="249"/>
+      <c r="Z29" s="249"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:24">
-      <c r="A30" s="172" t="str">
+      <c r="A30" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A9="","",_sjmain4_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="B30" s="173" t="str">
+      <c r="B30" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B9="","",_sjmain4_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="171" t="str">
+      <c r="C30" s="171"/>
+      <c r="D30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D9="","",_sjmain4_day_shift!D9)</f>
         <v/>
       </c>
-      <c r="E30" s="171" t="str">
+      <c r="E30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E9="","",_sjmain4_day_shift!E9)</f>
         <v/>
       </c>
-      <c r="F30" s="171" t="str">
+      <c r="F30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F9="","",_sjmain4_day_shift!F9)</f>
         <v/>
       </c>
-      <c r="G30" s="171" t="str">
+      <c r="G30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G9="","",_sjmain4_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="H30" s="171" t="str">
+      <c r="H30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H9="","",_sjmain4_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="I30" s="214" t="str">
+      <c r="I30" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I9="","",_sjmain4_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="J30" s="214" t="str">
+      <c r="J30" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J9="","",_sjmain4_day_shift!J9)</f>
         <v/>
       </c>
-      <c r="K30" s="171" t="str">
+      <c r="K30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K9="","",_sjmain4_day_shift!K9)</f>
         <v/>
       </c>
-      <c r="L30" s="171" t="str">
+      <c r="L30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L9="","",_sjmain4_day_shift!L9)</f>
         <v/>
       </c>
-      <c r="M30" s="171" t="str">
+      <c r="M30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M9="","",_sjmain4_day_shift!M9)</f>
         <v/>
       </c>
-      <c r="N30" s="171" t="str">
+      <c r="N30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N9="","",_sjmain4_day_shift!N9)</f>
         <v/>
       </c>
-      <c r="O30" s="171" t="str">
+      <c r="O30" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O9="","",_sjmain4_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="248"/>
+      <c r="P30" s="207"/>
+      <c r="Q30" s="241"/>
       <c r="R30" s="109" t="s">
         <v>77</v>
       </c>
       <c r="S30" s="110"/>
-      <c r="T30" s="244">
+      <c r="T30" s="237">
         <v>0</v>
       </c>
-      <c r="U30" s="245"/>
-      <c r="V30" s="246"/>
-      <c r="W30" s="246"/>
-      <c r="X30" s="247"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="239"/>
+      <c r="W30" s="239"/>
+      <c r="X30" s="240"/>
     </row>
     <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A31" s="172" t="str">
+      <c r="A31" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A10="","",_sjmain4_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="B31" s="173" t="str">
+      <c r="B31" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B10="","",_sjmain4_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="171" t="str">
+      <c r="C31" s="171"/>
+      <c r="D31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D10="","",_sjmain4_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="E31" s="171" t="str">
+      <c r="E31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E10="","",_sjmain4_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="F31" s="171" t="str">
+      <c r="F31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F10="","",_sjmain4_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="G31" s="171" t="str">
+      <c r="G31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G10="","",_sjmain4_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="H31" s="171" t="str">
+      <c r="H31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H10="","",_sjmain4_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="I31" s="214" t="str">
+      <c r="I31" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I10="","",_sjmain4_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="J31" s="214" t="str">
+      <c r="J31" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J10="","",_sjmain4_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="K31" s="171" t="str">
+      <c r="K31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K10="","",_sjmain4_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="L31" s="171" t="str">
+      <c r="L31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L10="","",_sjmain4_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="M31" s="171" t="str">
+      <c r="M31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M10="","",_sjmain4_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="N31" s="171" t="str">
+      <c r="N31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N10="","",_sjmain4_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="O31" s="171" t="str">
+      <c r="O31" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O10="","",_sjmain4_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="248"/>
+      <c r="P31" s="207"/>
+      <c r="Q31" s="241"/>
       <c r="R31" s="109"/>
       <c r="S31" s="110"/>
-      <c r="T31" s="244"/>
-      <c r="U31" s="245"/>
-      <c r="V31" s="246"/>
-      <c r="W31" s="246"/>
-      <c r="X31" s="247"/>
+      <c r="T31" s="237"/>
+      <c r="U31" s="238"/>
+      <c r="V31" s="239"/>
+      <c r="W31" s="239"/>
+      <c r="X31" s="240"/>
     </row>
     <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A32" s="172" t="str">
+      <c r="A32" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A11="","",_sjmain4_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="B32" s="173" t="str">
+      <c r="B32" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B11="","",_sjmain4_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="171" t="str">
+      <c r="C32" s="171"/>
+      <c r="D32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D11="","",_sjmain4_day_shift!D11)</f>
         <v/>
       </c>
-      <c r="E32" s="171" t="str">
+      <c r="E32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E11="","",_sjmain4_day_shift!E11)</f>
         <v/>
       </c>
-      <c r="F32" s="171" t="str">
+      <c r="F32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F11="","",_sjmain4_day_shift!F11)</f>
         <v/>
       </c>
-      <c r="G32" s="171" t="str">
+      <c r="G32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G11="","",_sjmain4_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="H32" s="171" t="str">
+      <c r="H32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H11="","",_sjmain4_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="I32" s="214" t="str">
+      <c r="I32" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I11="","",_sjmain4_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="J32" s="214" t="str">
+      <c r="J32" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J11="","",_sjmain4_day_shift!J11)</f>
         <v/>
       </c>
-      <c r="K32" s="171" t="str">
+      <c r="K32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K11="","",_sjmain4_day_shift!K11)</f>
         <v/>
       </c>
-      <c r="L32" s="171" t="str">
+      <c r="L32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L11="","",_sjmain4_day_shift!L11)</f>
         <v/>
       </c>
-      <c r="M32" s="171" t="str">
+      <c r="M32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M11="","",_sjmain4_day_shift!M11)</f>
         <v/>
       </c>
-      <c r="N32" s="171" t="str">
+      <c r="N32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N11="","",_sjmain4_day_shift!N11)</f>
         <v/>
       </c>
-      <c r="O32" s="171" t="str">
+      <c r="O32" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O11="","",_sjmain4_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="248"/>
+      <c r="P32" s="207"/>
+      <c r="Q32" s="241"/>
       <c r="R32" s="109"/>
       <c r="S32" s="110"/>
-      <c r="T32" s="244"/>
-      <c r="U32" s="245"/>
-      <c r="V32" s="246"/>
-      <c r="W32" s="246"/>
-      <c r="X32" s="247"/>
+      <c r="T32" s="237"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="239"/>
+      <c r="W32" s="239"/>
+      <c r="X32" s="240"/>
     </row>
     <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A33" s="172" t="str">
+      <c r="A33" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A12="","",_sjmain4_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="B33" s="173" t="str">
+      <c r="B33" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B12="","",_sjmain4_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="171" t="str">
+      <c r="C33" s="171"/>
+      <c r="D33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D12="","",_sjmain4_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="E33" s="171" t="str">
+      <c r="E33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E12="","",_sjmain4_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="F33" s="171" t="str">
+      <c r="F33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F12="","",_sjmain4_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="G33" s="171" t="str">
+      <c r="G33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G12="","",_sjmain4_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="H33" s="171" t="str">
+      <c r="H33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H12="","",_sjmain4_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="I33" s="214" t="str">
+      <c r="I33" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I12="","",_sjmain4_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="J33" s="214" t="str">
+      <c r="J33" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J12="","",_sjmain4_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="K33" s="171" t="str">
+      <c r="K33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K12="","",_sjmain4_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="L33" s="171" t="str">
+      <c r="L33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L12="","",_sjmain4_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="M33" s="171" t="str">
+      <c r="M33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M12="","",_sjmain4_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="N33" s="171" t="str">
+      <c r="N33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N12="","",_sjmain4_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="O33" s="171" t="str">
+      <c r="O33" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O12="","",_sjmain4_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="248"/>
+      <c r="P33" s="207"/>
+      <c r="Q33" s="241"/>
       <c r="R33" s="109"/>
       <c r="S33" s="110"/>
-      <c r="T33" s="244"/>
-      <c r="U33" s="245"/>
-      <c r="V33" s="246"/>
-      <c r="W33" s="246"/>
-      <c r="X33" s="247"/>
+      <c r="T33" s="237"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="240"/>
     </row>
     <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A34" s="172" t="str">
+      <c r="A34" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A13="","",_sjmain4_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="B34" s="173" t="str">
+      <c r="B34" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B13="","",_sjmain4_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="171" t="str">
+      <c r="C34" s="171"/>
+      <c r="D34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D13="","",_sjmain4_day_shift!D13)</f>
         <v/>
       </c>
-      <c r="E34" s="171" t="str">
+      <c r="E34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E13="","",_sjmain4_day_shift!E13)</f>
         <v/>
       </c>
-      <c r="F34" s="171" t="str">
+      <c r="F34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F13="","",_sjmain4_day_shift!F13)</f>
         <v/>
       </c>
-      <c r="G34" s="171" t="str">
+      <c r="G34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G13="","",_sjmain4_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="H34" s="171" t="str">
+      <c r="H34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H13="","",_sjmain4_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="I34" s="214" t="str">
+      <c r="I34" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I13="","",_sjmain4_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="J34" s="214" t="str">
+      <c r="J34" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J13="","",_sjmain4_day_shift!J13)</f>
         <v/>
       </c>
-      <c r="K34" s="171" t="str">
+      <c r="K34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K13="","",_sjmain4_day_shift!K13)</f>
         <v/>
       </c>
-      <c r="L34" s="171" t="str">
+      <c r="L34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L13="","",_sjmain4_day_shift!L13)</f>
         <v/>
       </c>
-      <c r="M34" s="171" t="str">
+      <c r="M34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M13="","",_sjmain4_day_shift!M13)</f>
         <v/>
       </c>
-      <c r="N34" s="171" t="str">
+      <c r="N34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N13="","",_sjmain4_day_shift!N13)</f>
         <v/>
       </c>
-      <c r="O34" s="171" t="str">
+      <c r="O34" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O13="","",_sjmain4_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="P34" s="215"/>
-      <c r="Q34" s="248"/>
+      <c r="P34" s="207"/>
+      <c r="Q34" s="241"/>
       <c r="R34" s="109"/>
       <c r="S34" s="110"/>
-      <c r="T34" s="244"/>
-      <c r="U34" s="245"/>
-      <c r="V34" s="246"/>
-      <c r="W34" s="246"/>
-      <c r="X34" s="247"/>
+      <c r="T34" s="237"/>
+      <c r="U34" s="238"/>
+      <c r="V34" s="239"/>
+      <c r="W34" s="239"/>
+      <c r="X34" s="240"/>
     </row>
     <row r="35" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A35" s="172" t="str">
+      <c r="A35" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A14="","",_sjmain4_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="B35" s="173" t="str">
+      <c r="B35" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B14="","",_sjmain4_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="171" t="str">
+      <c r="C35" s="171"/>
+      <c r="D35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D14="","",_sjmain4_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="E35" s="171" t="str">
+      <c r="E35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E14="","",_sjmain4_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="F35" s="171" t="str">
+      <c r="F35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F14="","",_sjmain4_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="G35" s="171" t="str">
+      <c r="G35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G14="","",_sjmain4_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="H35" s="171" t="str">
+      <c r="H35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H14="","",_sjmain4_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="I35" s="214" t="str">
+      <c r="I35" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I14="","",_sjmain4_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="J35" s="214" t="str">
+      <c r="J35" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J14="","",_sjmain4_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="K35" s="171" t="str">
+      <c r="K35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K14="","",_sjmain4_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="L35" s="171" t="str">
+      <c r="L35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L14="","",_sjmain4_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="M35" s="171" t="str">
+      <c r="M35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M14="","",_sjmain4_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="N35" s="171" t="str">
+      <c r="N35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N14="","",_sjmain4_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="O35" s="171" t="str">
+      <c r="O35" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O14="","",_sjmain4_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="248"/>
+      <c r="P35" s="207"/>
+      <c r="Q35" s="241"/>
       <c r="R35" s="109"/>
       <c r="S35" s="110"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="245"/>
-      <c r="V35" s="246"/>
-      <c r="W35" s="246"/>
-      <c r="X35" s="247"/>
+      <c r="T35" s="237"/>
+      <c r="U35" s="238"/>
+      <c r="V35" s="239"/>
+      <c r="W35" s="239"/>
+      <c r="X35" s="240"/>
     </row>
     <row r="36" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A36" s="172" t="str">
+      <c r="A36" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A15="","",_sjmain4_day_shift!A15)</f>
         <v/>
       </c>
-      <c r="B36" s="173" t="str">
+      <c r="B36" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B15="","",_sjmain4_day_shift!B15)</f>
         <v/>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="171" t="str">
+      <c r="C36" s="171"/>
+      <c r="D36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D15="","",_sjmain4_day_shift!D15)</f>
         <v/>
       </c>
-      <c r="E36" s="171" t="str">
+      <c r="E36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E15="","",_sjmain4_day_shift!E15)</f>
         <v/>
       </c>
-      <c r="F36" s="171" t="str">
+      <c r="F36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F15="","",_sjmain4_day_shift!F15)</f>
         <v/>
       </c>
-      <c r="G36" s="171" t="str">
+      <c r="G36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G15="","",_sjmain4_day_shift!G15)</f>
         <v/>
       </c>
-      <c r="H36" s="171" t="str">
+      <c r="H36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H15="","",_sjmain4_day_shift!H15)</f>
         <v/>
       </c>
-      <c r="I36" s="214" t="str">
+      <c r="I36" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I15="","",_sjmain4_day_shift!I15)</f>
         <v/>
       </c>
-      <c r="J36" s="214" t="str">
+      <c r="J36" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J15="","",_sjmain4_day_shift!J15)</f>
         <v/>
       </c>
-      <c r="K36" s="171" t="str">
+      <c r="K36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K15="","",_sjmain4_day_shift!K15)</f>
         <v/>
       </c>
-      <c r="L36" s="171" t="str">
+      <c r="L36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L15="","",_sjmain4_day_shift!L15)</f>
         <v/>
       </c>
-      <c r="M36" s="171" t="str">
+      <c r="M36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M15="","",_sjmain4_day_shift!M15)</f>
         <v/>
       </c>
-      <c r="N36" s="171" t="str">
+      <c r="N36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N15="","",_sjmain4_day_shift!N15)</f>
         <v/>
       </c>
-      <c r="O36" s="171" t="str">
+      <c r="O36" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O15="","",_sjmain4_day_shift!O15)</f>
         <v/>
       </c>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="248"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="241"/>
       <c r="R36" s="109"/>
       <c r="S36" s="110"/>
-      <c r="T36" s="244"/>
-      <c r="U36" s="245"/>
-      <c r="V36" s="246"/>
-      <c r="W36" s="246"/>
-      <c r="X36" s="247"/>
+      <c r="T36" s="237"/>
+      <c r="U36" s="238"/>
+      <c r="V36" s="239"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="240"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A37" s="172" t="str">
+      <c r="A37" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A16="","",_sjmain4_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="B37" s="173" t="str">
+      <c r="B37" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B16="","",_sjmain4_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="171" t="str">
+      <c r="C37" s="171"/>
+      <c r="D37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D16="","",_sjmain4_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="E37" s="171" t="str">
+      <c r="E37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E16="","",_sjmain4_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="F37" s="171" t="str">
+      <c r="F37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F16="","",_sjmain4_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="G37" s="171" t="str">
+      <c r="G37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G16="","",_sjmain4_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="H37" s="171" t="str">
+      <c r="H37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H16="","",_sjmain4_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="I37" s="214" t="str">
+      <c r="I37" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I16="","",_sjmain4_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="J37" s="214" t="str">
+      <c r="J37" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J16="","",_sjmain4_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="K37" s="171" t="str">
+      <c r="K37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K16="","",_sjmain4_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="L37" s="171" t="str">
+      <c r="L37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L16="","",_sjmain4_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="M37" s="171" t="str">
+      <c r="M37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M16="","",_sjmain4_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="N37" s="171" t="str">
+      <c r="N37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N16="","",_sjmain4_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="O37" s="171" t="str">
+      <c r="O37" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O16="","",_sjmain4_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="P37" s="215"/>
-      <c r="Q37" s="248"/>
+      <c r="P37" s="207"/>
+      <c r="Q37" s="241"/>
       <c r="R37" s="109"/>
       <c r="S37" s="110"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="245"/>
-      <c r="V37" s="246"/>
-      <c r="W37" s="246"/>
-      <c r="X37" s="247"/>
+      <c r="T37" s="237"/>
+      <c r="U37" s="238"/>
+      <c r="V37" s="239"/>
+      <c r="W37" s="239"/>
+      <c r="X37" s="240"/>
     </row>
     <row r="38" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A38" s="172" t="str">
+      <c r="A38" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A17="","",_sjmain4_day_shift!A17)</f>
         <v/>
       </c>
-      <c r="B38" s="173" t="str">
+      <c r="B38" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B17="","",_sjmain4_day_shift!B17)</f>
         <v/>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="171" t="str">
+      <c r="C38" s="171"/>
+      <c r="D38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D17="","",_sjmain4_day_shift!D17)</f>
         <v/>
       </c>
-      <c r="E38" s="171" t="str">
+      <c r="E38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E17="","",_sjmain4_day_shift!E17)</f>
         <v/>
       </c>
-      <c r="F38" s="171" t="str">
+      <c r="F38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F17="","",_sjmain4_day_shift!F17)</f>
         <v/>
       </c>
-      <c r="G38" s="171" t="str">
+      <c r="G38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G17="","",_sjmain4_day_shift!G17)</f>
         <v/>
       </c>
-      <c r="H38" s="171" t="str">
+      <c r="H38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H17="","",_sjmain4_day_shift!H17)</f>
         <v/>
       </c>
-      <c r="I38" s="214" t="str">
+      <c r="I38" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I17="","",_sjmain4_day_shift!I17)</f>
         <v/>
       </c>
-      <c r="J38" s="214" t="str">
+      <c r="J38" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J17="","",_sjmain4_day_shift!J17)</f>
         <v/>
       </c>
-      <c r="K38" s="171" t="str">
+      <c r="K38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K17="","",_sjmain4_day_shift!K17)</f>
         <v/>
       </c>
-      <c r="L38" s="171" t="str">
+      <c r="L38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L17="","",_sjmain4_day_shift!L17)</f>
         <v/>
       </c>
-      <c r="M38" s="171" t="str">
+      <c r="M38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M17="","",_sjmain4_day_shift!M17)</f>
         <v/>
       </c>
-      <c r="N38" s="171" t="str">
+      <c r="N38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N17="","",_sjmain4_day_shift!N17)</f>
         <v/>
       </c>
-      <c r="O38" s="171" t="str">
+      <c r="O38" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O17="","",_sjmain4_day_shift!O17)</f>
         <v/>
       </c>
-      <c r="P38" s="215"/>
-      <c r="Q38" s="248"/>
+      <c r="P38" s="207"/>
+      <c r="Q38" s="241"/>
       <c r="R38" s="109"/>
       <c r="S38" s="110"/>
-      <c r="T38" s="244"/>
-      <c r="U38" s="245"/>
-      <c r="V38" s="246"/>
-      <c r="W38" s="246"/>
-      <c r="X38" s="247"/>
+      <c r="T38" s="237"/>
+      <c r="U38" s="238"/>
+      <c r="V38" s="239"/>
+      <c r="W38" s="239"/>
+      <c r="X38" s="240"/>
     </row>
     <row r="39" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A39" s="172" t="str">
+      <c r="A39" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A18="","",_sjmain4_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="B39" s="173" t="str">
+      <c r="B39" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B18="","",_sjmain4_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="171" t="str">
+      <c r="C39" s="171"/>
+      <c r="D39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D18="","",_sjmain4_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="E39" s="171" t="str">
+      <c r="E39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E18="","",_sjmain4_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="F39" s="171" t="str">
+      <c r="F39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F18="","",_sjmain4_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="G39" s="171" t="str">
+      <c r="G39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G18="","",_sjmain4_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="H39" s="171" t="str">
+      <c r="H39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H18="","",_sjmain4_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="I39" s="214" t="str">
+      <c r="I39" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I18="","",_sjmain4_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="J39" s="214" t="str">
+      <c r="J39" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J18="","",_sjmain4_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="K39" s="171" t="str">
+      <c r="K39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K18="","",_sjmain4_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="L39" s="171" t="str">
+      <c r="L39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L18="","",_sjmain4_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="M39" s="171" t="str">
+      <c r="M39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M18="","",_sjmain4_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="N39" s="171" t="str">
+      <c r="N39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N18="","",_sjmain4_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="O39" s="171" t="str">
+      <c r="O39" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O18="","",_sjmain4_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="P39" s="215"/>
-      <c r="Q39" s="248"/>
+      <c r="P39" s="207"/>
+      <c r="Q39" s="241"/>
       <c r="R39" s="109"/>
       <c r="S39" s="110"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="245"/>
-      <c r="V39" s="246"/>
-      <c r="W39" s="246"/>
-      <c r="X39" s="247"/>
+      <c r="T39" s="237"/>
+      <c r="U39" s="238"/>
+      <c r="V39" s="239"/>
+      <c r="W39" s="239"/>
+      <c r="X39" s="240"/>
     </row>
     <row r="40" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A40" s="172" t="str">
+      <c r="A40" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A19="","",_sjmain4_day_shift!A19)</f>
         <v/>
       </c>
-      <c r="B40" s="173" t="str">
+      <c r="B40" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B19="","",_sjmain4_day_shift!B19)</f>
         <v/>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="171" t="str">
+      <c r="C40" s="171"/>
+      <c r="D40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D19="","",_sjmain4_day_shift!D19)</f>
         <v/>
       </c>
-      <c r="E40" s="171" t="str">
+      <c r="E40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E19="","",_sjmain4_day_shift!E19)</f>
         <v/>
       </c>
-      <c r="F40" s="171" t="str">
+      <c r="F40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F19="","",_sjmain4_day_shift!F19)</f>
         <v/>
       </c>
-      <c r="G40" s="171" t="str">
+      <c r="G40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G19="","",_sjmain4_day_shift!G19)</f>
         <v/>
       </c>
-      <c r="H40" s="171" t="str">
+      <c r="H40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H19="","",_sjmain4_day_shift!H19)</f>
         <v/>
       </c>
-      <c r="I40" s="214" t="str">
+      <c r="I40" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I19="","",_sjmain4_day_shift!I19)</f>
         <v/>
       </c>
-      <c r="J40" s="214" t="str">
+      <c r="J40" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J19="","",_sjmain4_day_shift!J19)</f>
         <v/>
       </c>
-      <c r="K40" s="171" t="str">
+      <c r="K40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K19="","",_sjmain4_day_shift!K19)</f>
         <v/>
       </c>
-      <c r="L40" s="171" t="str">
+      <c r="L40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L19="","",_sjmain4_day_shift!L19)</f>
         <v/>
       </c>
-      <c r="M40" s="171" t="str">
+      <c r="M40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M19="","",_sjmain4_day_shift!M19)</f>
         <v/>
       </c>
-      <c r="N40" s="171" t="str">
+      <c r="N40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N19="","",_sjmain4_day_shift!N19)</f>
         <v/>
       </c>
-      <c r="O40" s="171" t="str">
+      <c r="O40" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O19="","",_sjmain4_day_shift!O19)</f>
         <v/>
       </c>
-      <c r="P40" s="215"/>
-      <c r="Q40" s="248"/>
+      <c r="P40" s="207"/>
+      <c r="Q40" s="241"/>
       <c r="R40" s="109"/>
       <c r="S40" s="110"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="245"/>
-      <c r="V40" s="246"/>
-      <c r="W40" s="246"/>
-      <c r="X40" s="247"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="238"/>
+      <c r="V40" s="239"/>
+      <c r="W40" s="239"/>
+      <c r="X40" s="240"/>
     </row>
     <row r="41" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A41" s="172" t="str">
+      <c r="A41" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A20="","",_sjmain4_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="B41" s="173" t="str">
+      <c r="B41" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B20="","",_sjmain4_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="171" t="str">
+      <c r="C41" s="171"/>
+      <c r="D41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D20="","",_sjmain4_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="E41" s="171" t="str">
+      <c r="E41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E20="","",_sjmain4_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="F41" s="171" t="str">
+      <c r="F41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F20="","",_sjmain4_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="G41" s="171" t="str">
+      <c r="G41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G20="","",_sjmain4_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="H41" s="171" t="str">
+      <c r="H41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H20="","",_sjmain4_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="I41" s="214" t="str">
+      <c r="I41" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I20="","",_sjmain4_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="J41" s="214" t="str">
+      <c r="J41" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J20="","",_sjmain4_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="K41" s="171" t="str">
+      <c r="K41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K20="","",_sjmain4_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="L41" s="171" t="str">
+      <c r="L41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L20="","",_sjmain4_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="M41" s="171" t="str">
+      <c r="M41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M20="","",_sjmain4_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="N41" s="171" t="str">
+      <c r="N41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N20="","",_sjmain4_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="O41" s="171" t="str">
+      <c r="O41" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O20="","",_sjmain4_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="P41" s="215"/>
-      <c r="Q41" s="248"/>
+      <c r="P41" s="207"/>
+      <c r="Q41" s="241"/>
       <c r="R41" s="109"/>
       <c r="S41" s="110"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="245"/>
-      <c r="V41" s="246"/>
-      <c r="W41" s="246"/>
-      <c r="X41" s="247"/>
+      <c r="T41" s="237"/>
+      <c r="U41" s="238"/>
+      <c r="V41" s="239"/>
+      <c r="W41" s="239"/>
+      <c r="X41" s="240"/>
     </row>
     <row r="42" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A42" s="172" t="str">
+      <c r="A42" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A21="","",_sjmain4_day_shift!A21)</f>
         <v/>
       </c>
-      <c r="B42" s="173" t="str">
+      <c r="B42" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B21="","",_sjmain4_day_shift!B21)</f>
         <v/>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="171" t="str">
+      <c r="C42" s="171"/>
+      <c r="D42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D21="","",_sjmain4_day_shift!D21)</f>
         <v/>
       </c>
-      <c r="E42" s="171" t="str">
+      <c r="E42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E21="","",_sjmain4_day_shift!E21)</f>
         <v/>
       </c>
-      <c r="F42" s="171" t="str">
+      <c r="F42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F21="","",_sjmain4_day_shift!F21)</f>
         <v/>
       </c>
-      <c r="G42" s="171" t="str">
+      <c r="G42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G21="","",_sjmain4_day_shift!G21)</f>
         <v/>
       </c>
-      <c r="H42" s="171" t="str">
+      <c r="H42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H21="","",_sjmain4_day_shift!H21)</f>
         <v/>
       </c>
-      <c r="I42" s="214" t="str">
+      <c r="I42" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I21="","",_sjmain4_day_shift!I21)</f>
         <v/>
       </c>
-      <c r="J42" s="214" t="str">
+      <c r="J42" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J21="","",_sjmain4_day_shift!J21)</f>
         <v/>
       </c>
-      <c r="K42" s="171" t="str">
+      <c r="K42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K21="","",_sjmain4_day_shift!K21)</f>
         <v/>
       </c>
-      <c r="L42" s="171" t="str">
+      <c r="L42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L21="","",_sjmain4_day_shift!L21)</f>
         <v/>
       </c>
-      <c r="M42" s="171" t="str">
+      <c r="M42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M21="","",_sjmain4_day_shift!M21)</f>
         <v/>
       </c>
-      <c r="N42" s="171" t="str">
+      <c r="N42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N21="","",_sjmain4_day_shift!N21)</f>
         <v/>
       </c>
-      <c r="O42" s="171" t="str">
+      <c r="O42" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O21="","",_sjmain4_day_shift!O21)</f>
         <v/>
       </c>
-      <c r="P42" s="215"/>
-      <c r="Q42" s="248"/>
+      <c r="P42" s="207"/>
+      <c r="Q42" s="241"/>
       <c r="R42" s="109"/>
       <c r="S42" s="110"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="245"/>
-      <c r="V42" s="246"/>
-      <c r="W42" s="246"/>
-      <c r="X42" s="247"/>
+      <c r="T42" s="237"/>
+      <c r="U42" s="238"/>
+      <c r="V42" s="239"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="240"/>
     </row>
     <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A43" s="172" t="str">
+      <c r="A43" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A22="","",_sjmain4_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="B43" s="173" t="str">
+      <c r="B43" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B22="","",_sjmain4_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="171" t="str">
+      <c r="C43" s="171"/>
+      <c r="D43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D22="","",_sjmain4_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="E43" s="171" t="str">
+      <c r="E43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E22="","",_sjmain4_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="F43" s="171" t="str">
+      <c r="F43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F22="","",_sjmain4_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="G43" s="171" t="str">
+      <c r="G43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G22="","",_sjmain4_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="H43" s="171" t="str">
+      <c r="H43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H22="","",_sjmain4_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="I43" s="214" t="str">
+      <c r="I43" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I22="","",_sjmain4_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="J43" s="214" t="str">
+      <c r="J43" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J22="","",_sjmain4_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="K43" s="171" t="str">
+      <c r="K43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K22="","",_sjmain4_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="L43" s="171" t="str">
+      <c r="L43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L22="","",_sjmain4_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="M43" s="171" t="str">
+      <c r="M43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M22="","",_sjmain4_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="N43" s="171" t="str">
+      <c r="N43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N22="","",_sjmain4_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="O43" s="171" t="str">
+      <c r="O43" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O22="","",_sjmain4_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="P43" s="215"/>
-      <c r="Q43" s="248"/>
+      <c r="P43" s="207"/>
+      <c r="Q43" s="241"/>
       <c r="R43" s="109"/>
       <c r="S43" s="110"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
-      <c r="V43" s="246"/>
-      <c r="W43" s="246"/>
-      <c r="X43" s="247"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="238"/>
+      <c r="V43" s="239"/>
+      <c r="W43" s="239"/>
+      <c r="X43" s="240"/>
     </row>
     <row r="44" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A44" s="172" t="str">
+      <c r="A44" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A23="","",_sjmain4_day_shift!A23)</f>
         <v/>
       </c>
-      <c r="B44" s="173" t="str">
+      <c r="B44" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B23="","",_sjmain4_day_shift!B23)</f>
         <v/>
       </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="171" t="str">
+      <c r="C44" s="171"/>
+      <c r="D44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D23="","",_sjmain4_day_shift!D23)</f>
         <v/>
       </c>
-      <c r="E44" s="171" t="str">
+      <c r="E44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E23="","",_sjmain4_day_shift!E23)</f>
         <v/>
       </c>
-      <c r="F44" s="171" t="str">
+      <c r="F44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F23="","",_sjmain4_day_shift!F23)</f>
         <v/>
       </c>
-      <c r="G44" s="171" t="str">
+      <c r="G44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G23="","",_sjmain4_day_shift!G23)</f>
         <v/>
       </c>
-      <c r="H44" s="171" t="str">
+      <c r="H44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H23="","",_sjmain4_day_shift!H23)</f>
         <v/>
       </c>
-      <c r="I44" s="214" t="str">
+      <c r="I44" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I23="","",_sjmain4_day_shift!I23)</f>
         <v/>
       </c>
-      <c r="J44" s="214" t="str">
+      <c r="J44" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J23="","",_sjmain4_day_shift!J23)</f>
         <v/>
       </c>
-      <c r="K44" s="171" t="str">
+      <c r="K44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K23="","",_sjmain4_day_shift!K23)</f>
         <v/>
       </c>
-      <c r="L44" s="171" t="str">
+      <c r="L44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L23="","",_sjmain4_day_shift!L23)</f>
         <v/>
       </c>
-      <c r="M44" s="171" t="str">
+      <c r="M44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M23="","",_sjmain4_day_shift!M23)</f>
         <v/>
       </c>
-      <c r="N44" s="171" t="str">
+      <c r="N44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N23="","",_sjmain4_day_shift!N23)</f>
         <v/>
       </c>
-      <c r="O44" s="171" t="str">
+      <c r="O44" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O23="","",_sjmain4_day_shift!O23)</f>
         <v/>
       </c>
-      <c r="P44" s="215"/>
-      <c r="Q44" s="248"/>
+      <c r="P44" s="207"/>
+      <c r="Q44" s="241"/>
       <c r="R44" s="109"/>
       <c r="S44" s="110"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="245"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
-      <c r="X44" s="247"/>
+      <c r="T44" s="237"/>
+      <c r="U44" s="238"/>
+      <c r="V44" s="239"/>
+      <c r="W44" s="239"/>
+      <c r="X44" s="240"/>
     </row>
     <row r="45" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A45" s="172" t="str">
+      <c r="A45" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A24="","",_sjmain4_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="B45" s="173" t="str">
+      <c r="B45" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B24="","",_sjmain4_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="C45" s="174"/>
-      <c r="D45" s="171" t="str">
+      <c r="C45" s="171"/>
+      <c r="D45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D24="","",_sjmain4_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="E45" s="171" t="str">
+      <c r="E45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E24="","",_sjmain4_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="F45" s="171" t="str">
+      <c r="F45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F24="","",_sjmain4_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="G45" s="171" t="str">
+      <c r="G45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G24="","",_sjmain4_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="H45" s="171" t="str">
+      <c r="H45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H24="","",_sjmain4_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="I45" s="214" t="str">
+      <c r="I45" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I24="","",_sjmain4_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="J45" s="214" t="str">
+      <c r="J45" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J24="","",_sjmain4_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="K45" s="171" t="str">
+      <c r="K45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K24="","",_sjmain4_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="L45" s="171" t="str">
+      <c r="L45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L24="","",_sjmain4_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="M45" s="171" t="str">
+      <c r="M45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M24="","",_sjmain4_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="N45" s="171" t="str">
+      <c r="N45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N24="","",_sjmain4_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="O45" s="171" t="str">
+      <c r="O45" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O24="","",_sjmain4_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="P45" s="215"/>
-      <c r="Q45" s="248"/>
+      <c r="P45" s="207"/>
+      <c r="Q45" s="241"/>
       <c r="R45" s="109"/>
       <c r="S45" s="110"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="245"/>
-      <c r="V45" s="246"/>
-      <c r="W45" s="246"/>
-      <c r="X45" s="247"/>
+      <c r="T45" s="237"/>
+      <c r="U45" s="238"/>
+      <c r="V45" s="239"/>
+      <c r="W45" s="239"/>
+      <c r="X45" s="240"/>
     </row>
     <row r="46" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A46" s="172" t="str">
+      <c r="A46" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A25="","",_sjmain4_day_shift!A25)</f>
         <v/>
       </c>
-      <c r="B46" s="173" t="str">
+      <c r="B46" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B25="","",_sjmain4_day_shift!B25)</f>
         <v/>
       </c>
-      <c r="C46" s="174"/>
-      <c r="D46" s="171" t="str">
+      <c r="C46" s="171"/>
+      <c r="D46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D25="","",_sjmain4_day_shift!D25)</f>
         <v/>
       </c>
-      <c r="E46" s="171" t="str">
+      <c r="E46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E25="","",_sjmain4_day_shift!E25)</f>
         <v/>
       </c>
-      <c r="F46" s="171" t="str">
+      <c r="F46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F25="","",_sjmain4_day_shift!F25)</f>
         <v/>
       </c>
-      <c r="G46" s="171" t="str">
+      <c r="G46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G25="","",_sjmain4_day_shift!G25)</f>
         <v/>
       </c>
-      <c r="H46" s="171" t="str">
+      <c r="H46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H25="","",_sjmain4_day_shift!H25)</f>
         <v/>
       </c>
-      <c r="I46" s="214" t="str">
+      <c r="I46" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I25="","",_sjmain4_day_shift!I25)</f>
         <v/>
       </c>
-      <c r="J46" s="214" t="str">
+      <c r="J46" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J25="","",_sjmain4_day_shift!J25)</f>
         <v/>
       </c>
-      <c r="K46" s="171" t="str">
+      <c r="K46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K25="","",_sjmain4_day_shift!K25)</f>
         <v/>
       </c>
-      <c r="L46" s="171" t="str">
+      <c r="L46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L25="","",_sjmain4_day_shift!L25)</f>
         <v/>
       </c>
-      <c r="M46" s="171" t="str">
+      <c r="M46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M25="","",_sjmain4_day_shift!M25)</f>
         <v/>
       </c>
-      <c r="N46" s="171" t="str">
+      <c r="N46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N25="","",_sjmain4_day_shift!N25)</f>
         <v/>
       </c>
-      <c r="O46" s="171" t="str">
+      <c r="O46" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O25="","",_sjmain4_day_shift!O25)</f>
         <v/>
       </c>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="248"/>
+      <c r="P46" s="207"/>
+      <c r="Q46" s="241"/>
       <c r="R46" s="109"/>
       <c r="S46" s="110"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="245"/>
-      <c r="V46" s="246"/>
-      <c r="W46" s="246"/>
-      <c r="X46" s="247"/>
+      <c r="T46" s="237"/>
+      <c r="U46" s="238"/>
+      <c r="V46" s="239"/>
+      <c r="W46" s="239"/>
+      <c r="X46" s="240"/>
     </row>
     <row r="47" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A47" s="172" t="str">
+      <c r="A47" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A26="","",_sjmain4_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="B47" s="173" t="str">
+      <c r="B47" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B26="","",_sjmain4_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="C47" s="174"/>
-      <c r="D47" s="171" t="str">
+      <c r="C47" s="171"/>
+      <c r="D47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D26="","",_sjmain4_day_shift!D26)</f>
         <v/>
       </c>
-      <c r="E47" s="171" t="str">
+      <c r="E47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E26="","",_sjmain4_day_shift!E26)</f>
         <v/>
       </c>
-      <c r="F47" s="171" t="str">
+      <c r="F47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F26="","",_sjmain4_day_shift!F26)</f>
         <v/>
       </c>
-      <c r="G47" s="171" t="str">
+      <c r="G47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G26="","",_sjmain4_day_shift!G26)</f>
         <v/>
       </c>
-      <c r="H47" s="171" t="str">
+      <c r="H47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H26="","",_sjmain4_day_shift!H26)</f>
         <v/>
       </c>
-      <c r="I47" s="214" t="str">
+      <c r="I47" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I26="","",_sjmain4_day_shift!I26)</f>
         <v/>
       </c>
-      <c r="J47" s="214" t="str">
+      <c r="J47" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J26="","",_sjmain4_day_shift!J26)</f>
         <v/>
       </c>
-      <c r="K47" s="171" t="str">
+      <c r="K47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K26="","",_sjmain4_day_shift!K26)</f>
         <v/>
       </c>
-      <c r="L47" s="171" t="str">
+      <c r="L47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L26="","",_sjmain4_day_shift!L26)</f>
         <v/>
       </c>
-      <c r="M47" s="171" t="str">
+      <c r="M47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M26="","",_sjmain4_day_shift!M26)</f>
         <v/>
       </c>
-      <c r="N47" s="171" t="str">
+      <c r="N47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N26="","",_sjmain4_day_shift!N26)</f>
         <v/>
       </c>
-      <c r="O47" s="171" t="str">
+      <c r="O47" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O26="","",_sjmain4_day_shift!O26)</f>
         <v/>
       </c>
-      <c r="P47" s="215"/>
-      <c r="Q47" s="248"/>
+      <c r="P47" s="207"/>
+      <c r="Q47" s="241"/>
       <c r="R47" s="109"/>
       <c r="S47" s="110"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="245"/>
-      <c r="V47" s="246"/>
-      <c r="W47" s="246"/>
-      <c r="X47" s="247"/>
+      <c r="T47" s="237"/>
+      <c r="U47" s="238"/>
+      <c r="V47" s="239"/>
+      <c r="W47" s="239"/>
+      <c r="X47" s="240"/>
     </row>
     <row r="48" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A48" s="172" t="str">
+      <c r="A48" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A27="","",_sjmain4_day_shift!A27)</f>
         <v/>
       </c>
-      <c r="B48" s="173" t="str">
+      <c r="B48" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B27="","",_sjmain4_day_shift!B27)</f>
         <v/>
       </c>
-      <c r="C48" s="174"/>
-      <c r="D48" s="171" t="str">
+      <c r="C48" s="171"/>
+      <c r="D48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D27="","",_sjmain4_day_shift!D27)</f>
         <v/>
       </c>
-      <c r="E48" s="171" t="str">
+      <c r="E48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E27="","",_sjmain4_day_shift!E27)</f>
         <v/>
       </c>
-      <c r="F48" s="171" t="str">
+      <c r="F48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F27="","",_sjmain4_day_shift!F27)</f>
         <v/>
       </c>
-      <c r="G48" s="171" t="str">
+      <c r="G48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G27="","",_sjmain4_day_shift!G27)</f>
         <v/>
       </c>
-      <c r="H48" s="171" t="str">
+      <c r="H48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H27="","",_sjmain4_day_shift!H27)</f>
         <v/>
       </c>
-      <c r="I48" s="214" t="str">
+      <c r="I48" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I27="","",_sjmain4_day_shift!I27)</f>
         <v/>
       </c>
-      <c r="J48" s="214" t="str">
+      <c r="J48" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J27="","",_sjmain4_day_shift!J27)</f>
         <v/>
       </c>
-      <c r="K48" s="171" t="str">
+      <c r="K48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K27="","",_sjmain4_day_shift!K27)</f>
         <v/>
       </c>
-      <c r="L48" s="171" t="str">
+      <c r="L48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L27="","",_sjmain4_day_shift!L27)</f>
         <v/>
       </c>
-      <c r="M48" s="171" t="str">
+      <c r="M48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M27="","",_sjmain4_day_shift!M27)</f>
         <v/>
       </c>
-      <c r="N48" s="171" t="str">
+      <c r="N48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N27="","",_sjmain4_day_shift!N27)</f>
         <v/>
       </c>
-      <c r="O48" s="171" t="str">
+      <c r="O48" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O27="","",_sjmain4_day_shift!O27)</f>
         <v/>
       </c>
-      <c r="P48" s="215"/>
-      <c r="Q48" s="248"/>
+      <c r="P48" s="207"/>
+      <c r="Q48" s="241"/>
       <c r="R48" s="109"/>
       <c r="S48" s="110"/>
-      <c r="T48" s="244"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="246"/>
-      <c r="W48" s="246"/>
-      <c r="X48" s="247"/>
+      <c r="T48" s="237"/>
+      <c r="U48" s="238"/>
+      <c r="V48" s="239"/>
+      <c r="W48" s="239"/>
+      <c r="X48" s="240"/>
     </row>
     <row r="49" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A49" s="172" t="str">
+      <c r="A49" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A28="","",_sjmain4_day_shift!A28)</f>
         <v/>
       </c>
-      <c r="B49" s="173" t="str">
+      <c r="B49" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B28="","",_sjmain4_day_shift!B28)</f>
         <v/>
       </c>
-      <c r="C49" s="174"/>
-      <c r="D49" s="171" t="str">
+      <c r="C49" s="171"/>
+      <c r="D49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D28="","",_sjmain4_day_shift!D28)</f>
         <v/>
       </c>
-      <c r="E49" s="171" t="str">
+      <c r="E49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E28="","",_sjmain4_day_shift!E28)</f>
         <v/>
       </c>
-      <c r="F49" s="171" t="str">
+      <c r="F49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F28="","",_sjmain4_day_shift!F28)</f>
         <v/>
       </c>
-      <c r="G49" s="171" t="str">
+      <c r="G49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G28="","",_sjmain4_day_shift!G28)</f>
         <v/>
       </c>
-      <c r="H49" s="171" t="str">
+      <c r="H49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H28="","",_sjmain4_day_shift!H28)</f>
         <v/>
       </c>
-      <c r="I49" s="214" t="str">
+      <c r="I49" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I28="","",_sjmain4_day_shift!I28)</f>
         <v/>
       </c>
-      <c r="J49" s="214" t="str">
+      <c r="J49" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J28="","",_sjmain4_day_shift!J28)</f>
         <v/>
       </c>
-      <c r="K49" s="171" t="str">
+      <c r="K49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K28="","",_sjmain4_day_shift!K28)</f>
         <v/>
       </c>
-      <c r="L49" s="171" t="str">
+      <c r="L49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L28="","",_sjmain4_day_shift!L28)</f>
         <v/>
       </c>
-      <c r="M49" s="171" t="str">
+      <c r="M49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M28="","",_sjmain4_day_shift!M28)</f>
         <v/>
       </c>
-      <c r="N49" s="171" t="str">
+      <c r="N49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N28="","",_sjmain4_day_shift!N28)</f>
         <v/>
       </c>
-      <c r="O49" s="171" t="str">
+      <c r="O49" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O28="","",_sjmain4_day_shift!O28)</f>
         <v/>
       </c>
-      <c r="P49" s="215"/>
-      <c r="Q49" s="248"/>
+      <c r="P49" s="207"/>
+      <c r="Q49" s="241"/>
       <c r="R49" s="109"/>
       <c r="S49" s="110"/>
-      <c r="T49" s="244"/>
-      <c r="U49" s="245"/>
-      <c r="V49" s="246"/>
-      <c r="W49" s="246"/>
-      <c r="X49" s="247"/>
+      <c r="T49" s="237"/>
+      <c r="U49" s="238"/>
+      <c r="V49" s="239"/>
+      <c r="W49" s="239"/>
+      <c r="X49" s="240"/>
     </row>
     <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A50" s="172" t="str">
+      <c r="A50" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A29="","",_sjmain4_day_shift!A29)</f>
         <v/>
       </c>
-      <c r="B50" s="173" t="str">
+      <c r="B50" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B29="","",_sjmain4_day_shift!B29)</f>
         <v/>
       </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="171" t="str">
+      <c r="C50" s="171"/>
+      <c r="D50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D29="","",_sjmain4_day_shift!D29)</f>
         <v/>
       </c>
-      <c r="E50" s="171" t="str">
+      <c r="E50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E29="","",_sjmain4_day_shift!E29)</f>
         <v/>
       </c>
-      <c r="F50" s="171" t="str">
+      <c r="F50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F29="","",_sjmain4_day_shift!F29)</f>
         <v/>
       </c>
-      <c r="G50" s="171" t="str">
+      <c r="G50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G29="","",_sjmain4_day_shift!G29)</f>
         <v/>
       </c>
-      <c r="H50" s="171" t="str">
+      <c r="H50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H29="","",_sjmain4_day_shift!H29)</f>
         <v/>
       </c>
-      <c r="I50" s="214" t="str">
+      <c r="I50" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I29="","",_sjmain4_day_shift!I29)</f>
         <v/>
       </c>
-      <c r="J50" s="214" t="str">
+      <c r="J50" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J29="","",_sjmain4_day_shift!J29)</f>
         <v/>
       </c>
-      <c r="K50" s="171" t="str">
+      <c r="K50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K29="","",_sjmain4_day_shift!K29)</f>
         <v/>
       </c>
-      <c r="L50" s="171" t="str">
+      <c r="L50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L29="","",_sjmain4_day_shift!L29)</f>
         <v/>
       </c>
-      <c r="M50" s="171" t="str">
+      <c r="M50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M29="","",_sjmain4_day_shift!M29)</f>
         <v/>
       </c>
-      <c r="N50" s="171" t="str">
+      <c r="N50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N29="","",_sjmain4_day_shift!N29)</f>
         <v/>
       </c>
-      <c r="O50" s="171" t="str">
+      <c r="O50" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O29="","",_sjmain4_day_shift!O29)</f>
         <v/>
       </c>
-      <c r="P50" s="215"/>
-      <c r="Q50" s="248"/>
+      <c r="P50" s="207"/>
+      <c r="Q50" s="241"/>
       <c r="R50" s="109"/>
       <c r="S50" s="110"/>
-      <c r="T50" s="244"/>
-      <c r="U50" s="245"/>
-      <c r="V50" s="246"/>
-      <c r="W50" s="246"/>
-      <c r="X50" s="247"/>
+      <c r="T50" s="237"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="239"/>
+      <c r="W50" s="239"/>
+      <c r="X50" s="240"/>
     </row>
     <row r="51" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A51" s="172" t="str">
+      <c r="A51" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A30="","",_sjmain4_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="B51" s="173" t="str">
+      <c r="B51" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B30="","",_sjmain4_day_shift!B30)</f>
         <v/>
       </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="171" t="str">
+      <c r="C51" s="171"/>
+      <c r="D51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D30="","",_sjmain4_day_shift!D30)</f>
         <v/>
       </c>
-      <c r="E51" s="171" t="str">
+      <c r="E51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E30="","",_sjmain4_day_shift!E30)</f>
         <v/>
       </c>
-      <c r="F51" s="171" t="str">
+      <c r="F51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F30="","",_sjmain4_day_shift!F30)</f>
         <v/>
       </c>
-      <c r="G51" s="171" t="str">
+      <c r="G51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G30="","",_sjmain4_day_shift!G30)</f>
         <v/>
       </c>
-      <c r="H51" s="171" t="str">
+      <c r="H51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H30="","",_sjmain4_day_shift!H30)</f>
         <v/>
       </c>
-      <c r="I51" s="214" t="str">
+      <c r="I51" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I30="","",_sjmain4_day_shift!I30)</f>
         <v/>
       </c>
-      <c r="J51" s="214" t="str">
+      <c r="J51" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J30="","",_sjmain4_day_shift!J30)</f>
         <v/>
       </c>
-      <c r="K51" s="171" t="str">
+      <c r="K51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K30="","",_sjmain4_day_shift!K30)</f>
         <v/>
       </c>
-      <c r="L51" s="171" t="str">
+      <c r="L51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L30="","",_sjmain4_day_shift!L30)</f>
         <v/>
       </c>
-      <c r="M51" s="171" t="str">
+      <c r="M51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M30="","",_sjmain4_day_shift!M30)</f>
         <v/>
       </c>
-      <c r="N51" s="171" t="str">
+      <c r="N51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N30="","",_sjmain4_day_shift!N30)</f>
         <v/>
       </c>
-      <c r="O51" s="171" t="str">
+      <c r="O51" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O30="","",_sjmain4_day_shift!O30)</f>
         <v/>
       </c>
-      <c r="P51" s="215"/>
-      <c r="Q51" s="248"/>
+      <c r="P51" s="207"/>
+      <c r="Q51" s="241"/>
       <c r="R51" s="109"/>
       <c r="S51" s="110"/>
-      <c r="T51" s="244"/>
-      <c r="U51" s="245"/>
-      <c r="V51" s="246"/>
-      <c r="W51" s="246"/>
-      <c r="X51" s="247"/>
+      <c r="T51" s="237"/>
+      <c r="U51" s="238"/>
+      <c r="V51" s="239"/>
+      <c r="W51" s="239"/>
+      <c r="X51" s="240"/>
     </row>
     <row r="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A52" s="172" t="str">
+      <c r="A52" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A31="","",_sjmain4_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="B52" s="173" t="str">
+      <c r="B52" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B31="","",_sjmain4_day_shift!B31)</f>
         <v/>
       </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="171" t="str">
+      <c r="C52" s="171"/>
+      <c r="D52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D31="","",_sjmain4_day_shift!D31)</f>
         <v/>
       </c>
-      <c r="E52" s="171" t="str">
+      <c r="E52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E31="","",_sjmain4_day_shift!E31)</f>
         <v/>
       </c>
-      <c r="F52" s="171" t="str">
+      <c r="F52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F31="","",_sjmain4_day_shift!F31)</f>
         <v/>
       </c>
-      <c r="G52" s="171" t="str">
+      <c r="G52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G31="","",_sjmain4_day_shift!G31)</f>
         <v/>
       </c>
-      <c r="H52" s="171" t="str">
+      <c r="H52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H31="","",_sjmain4_day_shift!H31)</f>
         <v/>
       </c>
-      <c r="I52" s="214" t="str">
+      <c r="I52" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I31="","",_sjmain4_day_shift!I31)</f>
         <v/>
       </c>
-      <c r="J52" s="214" t="str">
+      <c r="J52" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J31="","",_sjmain4_day_shift!J31)</f>
         <v/>
       </c>
-      <c r="K52" s="171" t="str">
+      <c r="K52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K31="","",_sjmain4_day_shift!K31)</f>
         <v/>
       </c>
-      <c r="L52" s="171" t="str">
+      <c r="L52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L31="","",_sjmain4_day_shift!L31)</f>
         <v/>
       </c>
-      <c r="M52" s="171" t="str">
+      <c r="M52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M31="","",_sjmain4_day_shift!M31)</f>
         <v/>
       </c>
-      <c r="N52" s="171" t="str">
+      <c r="N52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N31="","",_sjmain4_day_shift!N31)</f>
         <v/>
       </c>
-      <c r="O52" s="171" t="str">
+      <c r="O52" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O31="","",_sjmain4_day_shift!O31)</f>
         <v/>
       </c>
-      <c r="P52" s="215"/>
-      <c r="Q52" s="248"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="241"/>
       <c r="R52" s="109"/>
       <c r="S52" s="110"/>
-      <c r="T52" s="244"/>
-      <c r="U52" s="245"/>
-      <c r="V52" s="246"/>
-      <c r="W52" s="246"/>
-      <c r="X52" s="247"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="239"/>
+      <c r="W52" s="239"/>
+      <c r="X52" s="240"/>
     </row>
     <row r="53" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A53" s="172" t="str">
+      <c r="A53" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A32="","",_sjmain4_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="B53" s="173" t="str">
+      <c r="B53" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B32="","",_sjmain4_day_shift!B32)</f>
         <v/>
       </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="171" t="str">
+      <c r="C53" s="171"/>
+      <c r="D53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D32="","",_sjmain4_day_shift!D32)</f>
         <v/>
       </c>
-      <c r="E53" s="171" t="str">
+      <c r="E53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E32="","",_sjmain4_day_shift!E32)</f>
         <v/>
       </c>
-      <c r="F53" s="171" t="str">
+      <c r="F53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F32="","",_sjmain4_day_shift!F32)</f>
         <v/>
       </c>
-      <c r="G53" s="171" t="str">
+      <c r="G53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G32="","",_sjmain4_day_shift!G32)</f>
         <v/>
       </c>
-      <c r="H53" s="171" t="str">
+      <c r="H53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H32="","",_sjmain4_day_shift!H32)</f>
         <v/>
       </c>
-      <c r="I53" s="214" t="str">
+      <c r="I53" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I32="","",_sjmain4_day_shift!I32)</f>
         <v/>
       </c>
-      <c r="J53" s="214" t="str">
+      <c r="J53" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J32="","",_sjmain4_day_shift!J32)</f>
         <v/>
       </c>
-      <c r="K53" s="171" t="str">
+      <c r="K53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K32="","",_sjmain4_day_shift!K32)</f>
         <v/>
       </c>
-      <c r="L53" s="171" t="str">
+      <c r="L53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L32="","",_sjmain4_day_shift!L32)</f>
         <v/>
       </c>
-      <c r="M53" s="171" t="str">
+      <c r="M53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M32="","",_sjmain4_day_shift!M32)</f>
         <v/>
       </c>
-      <c r="N53" s="171" t="str">
+      <c r="N53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N32="","",_sjmain4_day_shift!N32)</f>
         <v/>
       </c>
-      <c r="O53" s="171" t="str">
+      <c r="O53" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O32="","",_sjmain4_day_shift!O32)</f>
         <v/>
       </c>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="248"/>
+      <c r="P53" s="207"/>
+      <c r="Q53" s="241"/>
       <c r="R53" s="109"/>
       <c r="S53" s="110"/>
-      <c r="T53" s="244"/>
-      <c r="U53" s="245"/>
-      <c r="V53" s="246"/>
-      <c r="W53" s="246"/>
-      <c r="X53" s="247"/>
+      <c r="T53" s="237"/>
+      <c r="U53" s="238"/>
+      <c r="V53" s="239"/>
+      <c r="W53" s="239"/>
+      <c r="X53" s="240"/>
     </row>
     <row r="54" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A54" s="172" t="str">
+      <c r="A54" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A33="","",_sjmain4_day_shift!A33)</f>
         <v/>
       </c>
-      <c r="B54" s="173" t="str">
+      <c r="B54" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B33="","",_sjmain4_day_shift!B33)</f>
         <v/>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="171" t="str">
+      <c r="C54" s="171"/>
+      <c r="D54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D33="","",_sjmain4_day_shift!D33)</f>
         <v/>
       </c>
-      <c r="E54" s="171" t="str">
+      <c r="E54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E33="","",_sjmain4_day_shift!E33)</f>
         <v/>
       </c>
-      <c r="F54" s="171" t="str">
+      <c r="F54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F33="","",_sjmain4_day_shift!F33)</f>
         <v/>
       </c>
-      <c r="G54" s="171" t="str">
+      <c r="G54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G33="","",_sjmain4_day_shift!G33)</f>
         <v/>
       </c>
-      <c r="H54" s="171" t="str">
+      <c r="H54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H33="","",_sjmain4_day_shift!H33)</f>
         <v/>
       </c>
-      <c r="I54" s="214" t="str">
+      <c r="I54" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I33="","",_sjmain4_day_shift!I33)</f>
         <v/>
       </c>
-      <c r="J54" s="214" t="str">
+      <c r="J54" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J33="","",_sjmain4_day_shift!J33)</f>
         <v/>
       </c>
-      <c r="K54" s="171" t="str">
+      <c r="K54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K33="","",_sjmain4_day_shift!K33)</f>
         <v/>
       </c>
-      <c r="L54" s="171" t="str">
+      <c r="L54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L33="","",_sjmain4_day_shift!L33)</f>
         <v/>
       </c>
-      <c r="M54" s="171" t="str">
+      <c r="M54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M33="","",_sjmain4_day_shift!M33)</f>
         <v/>
       </c>
-      <c r="N54" s="171" t="str">
+      <c r="N54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N33="","",_sjmain4_day_shift!N33)</f>
         <v/>
       </c>
-      <c r="O54" s="171" t="str">
+      <c r="O54" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O33="","",_sjmain4_day_shift!O33)</f>
         <v/>
       </c>
-      <c r="P54" s="215"/>
-      <c r="Q54" s="248"/>
+      <c r="P54" s="207"/>
+      <c r="Q54" s="241"/>
       <c r="R54" s="109"/>
       <c r="S54" s="110"/>
-      <c r="T54" s="244"/>
-      <c r="U54" s="245"/>
-      <c r="V54" s="246"/>
-      <c r="W54" s="246"/>
-      <c r="X54" s="247"/>
+      <c r="T54" s="237"/>
+      <c r="U54" s="238"/>
+      <c r="V54" s="239"/>
+      <c r="W54" s="239"/>
+      <c r="X54" s="240"/>
     </row>
     <row r="55" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A55" s="172" t="str">
+      <c r="A55" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A34="","",_sjmain4_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="B55" s="173" t="str">
+      <c r="B55" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B34="","",_sjmain4_day_shift!B34)</f>
         <v/>
       </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="171" t="str">
+      <c r="C55" s="171"/>
+      <c r="D55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D34="","",_sjmain4_day_shift!D34)</f>
         <v/>
       </c>
-      <c r="E55" s="171" t="str">
+      <c r="E55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E34="","",_sjmain4_day_shift!E34)</f>
         <v/>
       </c>
-      <c r="F55" s="171" t="str">
+      <c r="F55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F34="","",_sjmain4_day_shift!F34)</f>
         <v/>
       </c>
-      <c r="G55" s="171" t="str">
+      <c r="G55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G34="","",_sjmain4_day_shift!G34)</f>
         <v/>
       </c>
-      <c r="H55" s="171" t="str">
+      <c r="H55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H34="","",_sjmain4_day_shift!H34)</f>
         <v/>
       </c>
-      <c r="I55" s="214" t="str">
+      <c r="I55" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I34="","",_sjmain4_day_shift!I34)</f>
         <v/>
       </c>
-      <c r="J55" s="214" t="str">
+      <c r="J55" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J34="","",_sjmain4_day_shift!J34)</f>
         <v/>
       </c>
-      <c r="K55" s="171" t="str">
+      <c r="K55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K34="","",_sjmain4_day_shift!K34)</f>
         <v/>
       </c>
-      <c r="L55" s="171" t="str">
+      <c r="L55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L34="","",_sjmain4_day_shift!L34)</f>
         <v/>
       </c>
-      <c r="M55" s="171" t="str">
+      <c r="M55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M34="","",_sjmain4_day_shift!M34)</f>
         <v/>
       </c>
-      <c r="N55" s="171" t="str">
+      <c r="N55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N34="","",_sjmain4_day_shift!N34)</f>
         <v/>
       </c>
-      <c r="O55" s="171" t="str">
+      <c r="O55" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O34="","",_sjmain4_day_shift!O34)</f>
         <v/>
       </c>
-      <c r="P55" s="215"/>
-      <c r="Q55" s="248"/>
+      <c r="P55" s="207"/>
+      <c r="Q55" s="241"/>
       <c r="R55" s="109"/>
       <c r="S55" s="110"/>
-      <c r="T55" s="244"/>
-      <c r="U55" s="245"/>
-      <c r="V55" s="246"/>
-      <c r="W55" s="246"/>
-      <c r="X55" s="247"/>
+      <c r="T55" s="237"/>
+      <c r="U55" s="238"/>
+      <c r="V55" s="239"/>
+      <c r="W55" s="239"/>
+      <c r="X55" s="240"/>
     </row>
     <row r="56" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A56" s="172" t="str">
+      <c r="A56" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A35="","",_sjmain4_day_shift!A35)</f>
         <v/>
       </c>
-      <c r="B56" s="173" t="str">
+      <c r="B56" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B35="","",_sjmain4_day_shift!B35)</f>
         <v/>
       </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="171" t="str">
+      <c r="C56" s="171"/>
+      <c r="D56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D35="","",_sjmain4_day_shift!D35)</f>
         <v/>
       </c>
-      <c r="E56" s="171" t="str">
+      <c r="E56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E35="","",_sjmain4_day_shift!E35)</f>
         <v/>
       </c>
-      <c r="F56" s="171" t="str">
+      <c r="F56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F35="","",_sjmain4_day_shift!F35)</f>
         <v/>
       </c>
-      <c r="G56" s="171" t="str">
+      <c r="G56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G35="","",_sjmain4_day_shift!G35)</f>
         <v/>
       </c>
-      <c r="H56" s="171" t="str">
+      <c r="H56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H35="","",_sjmain4_day_shift!H35)</f>
         <v/>
       </c>
-      <c r="I56" s="214" t="str">
+      <c r="I56" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I35="","",_sjmain4_day_shift!I35)</f>
         <v/>
       </c>
-      <c r="J56" s="214" t="str">
+      <c r="J56" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J35="","",_sjmain4_day_shift!J35)</f>
         <v/>
       </c>
-      <c r="K56" s="171" t="str">
+      <c r="K56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K35="","",_sjmain4_day_shift!K35)</f>
         <v/>
       </c>
-      <c r="L56" s="171" t="str">
+      <c r="L56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L35="","",_sjmain4_day_shift!L35)</f>
         <v/>
       </c>
-      <c r="M56" s="171" t="str">
+      <c r="M56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M35="","",_sjmain4_day_shift!M35)</f>
         <v/>
       </c>
-      <c r="N56" s="171" t="str">
+      <c r="N56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N35="","",_sjmain4_day_shift!N35)</f>
         <v/>
       </c>
-      <c r="O56" s="171" t="str">
+      <c r="O56" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O35="","",_sjmain4_day_shift!O35)</f>
         <v/>
       </c>
-      <c r="P56" s="215"/>
-      <c r="Q56" s="248"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="241"/>
       <c r="R56" s="109"/>
       <c r="S56" s="110"/>
-      <c r="T56" s="244"/>
-      <c r="U56" s="245"/>
-      <c r="V56" s="246"/>
-      <c r="W56" s="246"/>
-      <c r="X56" s="247"/>
+      <c r="T56" s="237"/>
+      <c r="U56" s="238"/>
+      <c r="V56" s="239"/>
+      <c r="W56" s="239"/>
+      <c r="X56" s="240"/>
     </row>
     <row r="57" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A57" s="172" t="str">
+      <c r="A57" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A36="","",_sjmain4_day_shift!A36)</f>
         <v/>
       </c>
-      <c r="B57" s="173" t="str">
+      <c r="B57" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B36="","",_sjmain4_day_shift!B36)</f>
         <v/>
       </c>
-      <c r="C57" s="174"/>
-      <c r="D57" s="171" t="str">
+      <c r="C57" s="171"/>
+      <c r="D57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D36="","",_sjmain4_day_shift!D36)</f>
         <v/>
       </c>
-      <c r="E57" s="171" t="str">
+      <c r="E57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E36="","",_sjmain4_day_shift!E36)</f>
         <v/>
       </c>
-      <c r="F57" s="171" t="str">
+      <c r="F57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F36="","",_sjmain4_day_shift!F36)</f>
         <v/>
       </c>
-      <c r="G57" s="171" t="str">
+      <c r="G57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G36="","",_sjmain4_day_shift!G36)</f>
         <v/>
       </c>
-      <c r="H57" s="171" t="str">
+      <c r="H57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H36="","",_sjmain4_day_shift!H36)</f>
         <v/>
       </c>
-      <c r="I57" s="214" t="str">
+      <c r="I57" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I36="","",_sjmain4_day_shift!I36)</f>
         <v/>
       </c>
-      <c r="J57" s="214" t="str">
+      <c r="J57" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J36="","",_sjmain4_day_shift!J36)</f>
         <v/>
       </c>
-      <c r="K57" s="171" t="str">
+      <c r="K57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K36="","",_sjmain4_day_shift!K36)</f>
         <v/>
       </c>
-      <c r="L57" s="171" t="str">
+      <c r="L57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L36="","",_sjmain4_day_shift!L36)</f>
         <v/>
       </c>
-      <c r="M57" s="171" t="str">
+      <c r="M57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M36="","",_sjmain4_day_shift!M36)</f>
         <v/>
       </c>
-      <c r="N57" s="171" t="str">
+      <c r="N57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N36="","",_sjmain4_day_shift!N36)</f>
         <v/>
       </c>
-      <c r="O57" s="171" t="str">
+      <c r="O57" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O36="","",_sjmain4_day_shift!O36)</f>
         <v/>
       </c>
-      <c r="P57" s="215"/>
-      <c r="Q57" s="248"/>
+      <c r="P57" s="207"/>
+      <c r="Q57" s="241"/>
       <c r="R57" s="109"/>
       <c r="S57" s="110"/>
-      <c r="T57" s="244"/>
-      <c r="U57" s="245"/>
-      <c r="V57" s="246"/>
-      <c r="W57" s="246"/>
-      <c r="X57" s="247"/>
+      <c r="T57" s="237"/>
+      <c r="U57" s="238"/>
+      <c r="V57" s="239"/>
+      <c r="W57" s="239"/>
+      <c r="X57" s="240"/>
     </row>
     <row r="58" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A58" s="172" t="str">
+      <c r="A58" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A37="","",_sjmain4_day_shift!A37)</f>
         <v/>
       </c>
-      <c r="B58" s="173" t="str">
+      <c r="B58" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B37="","",_sjmain4_day_shift!B37)</f>
         <v/>
       </c>
-      <c r="C58" s="174"/>
-      <c r="D58" s="171" t="str">
+      <c r="C58" s="171"/>
+      <c r="D58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D37="","",_sjmain4_day_shift!D37)</f>
         <v/>
       </c>
-      <c r="E58" s="171" t="str">
+      <c r="E58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E37="","",_sjmain4_day_shift!E37)</f>
         <v/>
       </c>
-      <c r="F58" s="171" t="str">
+      <c r="F58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F37="","",_sjmain4_day_shift!F37)</f>
         <v/>
       </c>
-      <c r="G58" s="171" t="str">
+      <c r="G58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G37="","",_sjmain4_day_shift!G37)</f>
         <v/>
       </c>
-      <c r="H58" s="171" t="str">
+      <c r="H58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H37="","",_sjmain4_day_shift!H37)</f>
         <v/>
       </c>
-      <c r="I58" s="214" t="str">
+      <c r="I58" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I37="","",_sjmain4_day_shift!I37)</f>
         <v/>
       </c>
-      <c r="J58" s="214" t="str">
+      <c r="J58" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J37="","",_sjmain4_day_shift!J37)</f>
         <v/>
       </c>
-      <c r="K58" s="171" t="str">
+      <c r="K58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K37="","",_sjmain4_day_shift!K37)</f>
         <v/>
       </c>
-      <c r="L58" s="171" t="str">
+      <c r="L58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L37="","",_sjmain4_day_shift!L37)</f>
         <v/>
       </c>
-      <c r="M58" s="171" t="str">
+      <c r="M58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M37="","",_sjmain4_day_shift!M37)</f>
         <v/>
       </c>
-      <c r="N58" s="171" t="str">
+      <c r="N58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N37="","",_sjmain4_day_shift!N37)</f>
         <v/>
       </c>
-      <c r="O58" s="171" t="str">
+      <c r="O58" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O37="","",_sjmain4_day_shift!O37)</f>
         <v/>
       </c>
-      <c r="P58" s="215"/>
-      <c r="Q58" s="248"/>
+      <c r="P58" s="207"/>
+      <c r="Q58" s="241"/>
       <c r="R58" s="109"/>
       <c r="S58" s="110"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="245"/>
-      <c r="V58" s="246"/>
-      <c r="W58" s="246"/>
-      <c r="X58" s="247"/>
+      <c r="T58" s="237"/>
+      <c r="U58" s="238"/>
+      <c r="V58" s="239"/>
+      <c r="W58" s="239"/>
+      <c r="X58" s="240"/>
     </row>
     <row r="59" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A59" s="172" t="str">
+      <c r="A59" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A38="","",_sjmain4_day_shift!A38)</f>
         <v/>
       </c>
-      <c r="B59" s="173" t="str">
+      <c r="B59" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B38="","",_sjmain4_day_shift!B38)</f>
         <v/>
       </c>
-      <c r="C59" s="174"/>
-      <c r="D59" s="171" t="str">
+      <c r="C59" s="171"/>
+      <c r="D59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D38="","",_sjmain4_day_shift!D38)</f>
         <v/>
       </c>
-      <c r="E59" s="171" t="str">
+      <c r="E59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E38="","",_sjmain4_day_shift!E38)</f>
         <v/>
       </c>
-      <c r="F59" s="171" t="str">
+      <c r="F59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F38="","",_sjmain4_day_shift!F38)</f>
         <v/>
       </c>
-      <c r="G59" s="171" t="str">
+      <c r="G59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G38="","",_sjmain4_day_shift!G38)</f>
         <v/>
       </c>
-      <c r="H59" s="171" t="str">
+      <c r="H59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H38="","",_sjmain4_day_shift!H38)</f>
         <v/>
       </c>
-      <c r="I59" s="214" t="str">
+      <c r="I59" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I38="","",_sjmain4_day_shift!I38)</f>
         <v/>
       </c>
-      <c r="J59" s="214" t="str">
+      <c r="J59" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J38="","",_sjmain4_day_shift!J38)</f>
         <v/>
       </c>
-      <c r="K59" s="171" t="str">
+      <c r="K59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K38="","",_sjmain4_day_shift!K38)</f>
         <v/>
       </c>
-      <c r="L59" s="171" t="str">
+      <c r="L59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L38="","",_sjmain4_day_shift!L38)</f>
         <v/>
       </c>
-      <c r="M59" s="171" t="str">
+      <c r="M59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M38="","",_sjmain4_day_shift!M38)</f>
         <v/>
       </c>
-      <c r="N59" s="171" t="str">
+      <c r="N59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N38="","",_sjmain4_day_shift!N38)</f>
         <v/>
       </c>
-      <c r="O59" s="171" t="str">
+      <c r="O59" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O38="","",_sjmain4_day_shift!O38)</f>
         <v/>
       </c>
-      <c r="P59" s="215"/>
-      <c r="Q59" s="248"/>
+      <c r="P59" s="207"/>
+      <c r="Q59" s="241"/>
       <c r="R59" s="109"/>
       <c r="S59" s="110"/>
-      <c r="T59" s="244"/>
-      <c r="U59" s="245"/>
-      <c r="V59" s="246"/>
-      <c r="W59" s="246"/>
-      <c r="X59" s="247"/>
+      <c r="T59" s="237"/>
+      <c r="U59" s="238"/>
+      <c r="V59" s="239"/>
+      <c r="W59" s="239"/>
+      <c r="X59" s="240"/>
     </row>
     <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A60" s="172" t="str">
+      <c r="A60" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A39="","",_sjmain4_day_shift!A39)</f>
         <v/>
       </c>
-      <c r="B60" s="173" t="str">
+      <c r="B60" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B39="","",_sjmain4_day_shift!B39)</f>
         <v/>
       </c>
-      <c r="C60" s="174"/>
-      <c r="D60" s="171" t="str">
+      <c r="C60" s="171"/>
+      <c r="D60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D39="","",_sjmain4_day_shift!D39)</f>
         <v/>
       </c>
-      <c r="E60" s="171" t="str">
+      <c r="E60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E39="","",_sjmain4_day_shift!E39)</f>
         <v/>
       </c>
-      <c r="F60" s="171" t="str">
+      <c r="F60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F39="","",_sjmain4_day_shift!F39)</f>
         <v/>
       </c>
-      <c r="G60" s="171" t="str">
+      <c r="G60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G39="","",_sjmain4_day_shift!G39)</f>
         <v/>
       </c>
-      <c r="H60" s="171" t="str">
+      <c r="H60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H39="","",_sjmain4_day_shift!H39)</f>
         <v/>
       </c>
-      <c r="I60" s="214" t="str">
+      <c r="I60" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I39="","",_sjmain4_day_shift!I39)</f>
         <v/>
       </c>
-      <c r="J60" s="214" t="str">
+      <c r="J60" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J39="","",_sjmain4_day_shift!J39)</f>
         <v/>
       </c>
-      <c r="K60" s="171" t="str">
+      <c r="K60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K39="","",_sjmain4_day_shift!K39)</f>
         <v/>
       </c>
-      <c r="L60" s="171" t="str">
+      <c r="L60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L39="","",_sjmain4_day_shift!L39)</f>
         <v/>
       </c>
-      <c r="M60" s="171" t="str">
+      <c r="M60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M39="","",_sjmain4_day_shift!M39)</f>
         <v/>
       </c>
-      <c r="N60" s="171" t="str">
+      <c r="N60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N39="","",_sjmain4_day_shift!N39)</f>
         <v/>
       </c>
-      <c r="O60" s="171" t="str">
+      <c r="O60" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O39="","",_sjmain4_day_shift!O39)</f>
         <v/>
       </c>
-      <c r="P60" s="215"/>
-      <c r="Q60" s="248"/>
+      <c r="P60" s="207"/>
+      <c r="Q60" s="241"/>
       <c r="R60" s="109"/>
       <c r="S60" s="110"/>
-      <c r="T60" s="244"/>
-      <c r="U60" s="245"/>
-      <c r="V60" s="246"/>
-      <c r="W60" s="246"/>
-      <c r="X60" s="247"/>
+      <c r="T60" s="237"/>
+      <c r="U60" s="238"/>
+      <c r="V60" s="239"/>
+      <c r="W60" s="239"/>
+      <c r="X60" s="240"/>
     </row>
     <row r="61" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A61" s="172" t="str">
+      <c r="A61" s="169" t="str">
         <f>IF(_sjmain4_day_shift!A40="","",_sjmain4_day_shift!A40)</f>
         <v/>
       </c>
-      <c r="B61" s="173" t="str">
+      <c r="B61" s="170" t="str">
         <f>IF(_sjmain4_day_shift!B40="","",_sjmain4_day_shift!B40)</f>
         <v/>
       </c>
-      <c r="C61" s="174"/>
-      <c r="D61" s="171" t="str">
+      <c r="C61" s="171"/>
+      <c r="D61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!D40="","",_sjmain4_day_shift!D40)</f>
         <v/>
       </c>
-      <c r="E61" s="171" t="str">
+      <c r="E61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!E40="","",_sjmain4_day_shift!E40)</f>
         <v/>
       </c>
-      <c r="F61" s="171" t="str">
+      <c r="F61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!F40="","",_sjmain4_day_shift!F40)</f>
         <v/>
       </c>
-      <c r="G61" s="171" t="str">
+      <c r="G61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!G40="","",_sjmain4_day_shift!G40)</f>
         <v/>
       </c>
-      <c r="H61" s="171" t="str">
+      <c r="H61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!H40="","",_sjmain4_day_shift!H40)</f>
         <v/>
       </c>
-      <c r="I61" s="214" t="str">
+      <c r="I61" s="206" t="str">
         <f>IF(_sjmain4_day_shift!I40="","",_sjmain4_day_shift!I40)</f>
         <v/>
       </c>
-      <c r="J61" s="214" t="str">
+      <c r="J61" s="206" t="str">
         <f>IF(_sjmain4_day_shift!J40="","",_sjmain4_day_shift!J40)</f>
         <v/>
       </c>
-      <c r="K61" s="171" t="str">
+      <c r="K61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!K40="","",_sjmain4_day_shift!K40)</f>
         <v/>
       </c>
-      <c r="L61" s="171" t="str">
+      <c r="L61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!L40="","",_sjmain4_day_shift!L40)</f>
         <v/>
       </c>
-      <c r="M61" s="171" t="str">
+      <c r="M61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!M40="","",_sjmain4_day_shift!M40)</f>
         <v/>
       </c>
-      <c r="N61" s="171" t="str">
+      <c r="N61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!N40="","",_sjmain4_day_shift!N40)</f>
         <v/>
       </c>
-      <c r="O61" s="171" t="str">
+      <c r="O61" s="168" t="str">
         <f>IF(_sjmain4_day_shift!O40="","",_sjmain4_day_shift!O40)</f>
         <v/>
       </c>
-      <c r="P61" s="215"/>
-      <c r="Q61" s="248"/>
+      <c r="P61" s="207"/>
+      <c r="Q61" s="241"/>
       <c r="R61" s="129"/>
-      <c r="S61" s="224"/>
-      <c r="T61" s="148"/>
-      <c r="U61" s="245"/>
-      <c r="V61" s="246"/>
-      <c r="W61" s="246"/>
-      <c r="X61" s="247"/>
+      <c r="S61" s="216"/>
+      <c r="T61" s="145"/>
+      <c r="U61" s="238"/>
+      <c r="V61" s="239"/>
+      <c r="W61" s="239"/>
+      <c r="X61" s="240"/>
     </row>
     <row r="62" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A62" s="175" t="s">
+      <c r="A62" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="176"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="216"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="178"/>
-      <c r="L62" s="178"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="171"/>
-      <c r="O62" s="171"/>
-      <c r="P62" s="217"/>
-      <c r="Q62" s="249"/>
-      <c r="R62" s="141"/>
-      <c r="S62" s="250"/>
-      <c r="T62" s="251"/>
-      <c r="U62" s="252"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
-      <c r="X62" s="254"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="208"/>
+      <c r="J62" s="208"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="175"/>
+      <c r="M62" s="168"/>
+      <c r="N62" s="168"/>
+      <c r="O62" s="168"/>
+      <c r="P62" s="209"/>
+      <c r="Q62" s="242"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="243"/>
+      <c r="T62" s="244"/>
+      <c r="U62" s="245"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
+      <c r="X62" s="247"/>
     </row>
     <row r="63" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A63" s="179" t="s">
+      <c r="A63" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="179" t="s">
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="177"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="181"/>
-      <c r="Q63" s="255" t="s">
+      <c r="J63" s="177"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="177"/>
+      <c r="O63" s="177"/>
+      <c r="P63" s="178"/>
+      <c r="Q63" s="248" t="s">
         <v>81</v>
       </c>
-      <c r="R63" s="183"/>
-      <c r="S63" s="183"/>
-      <c r="T63" s="183"/>
-      <c r="U63" s="183"/>
-      <c r="V63" s="183"/>
-      <c r="W63" s="183"/>
-      <c r="X63" s="184"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="180"/>
+      <c r="T63" s="180"/>
+      <c r="U63" s="180"/>
+      <c r="V63" s="180"/>
+      <c r="W63" s="180"/>
+      <c r="X63" s="181"/>
     </row>
     <row r="64" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A64" s="182"/>
-      <c r="B64" s="183"/>
-      <c r="C64" s="183"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="183"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="184"/>
-      <c r="I64" s="182"/>
-      <c r="J64" s="183"/>
-      <c r="K64" s="183"/>
-      <c r="L64" s="183"/>
-      <c r="M64" s="183"/>
-      <c r="N64" s="183"/>
-      <c r="O64" s="183"/>
-      <c r="P64" s="184"/>
-      <c r="Q64" s="182"/>
-      <c r="R64" s="183"/>
-      <c r="S64" s="183"/>
-      <c r="T64" s="183"/>
-      <c r="U64" s="183"/>
-      <c r="V64" s="183"/>
-      <c r="W64" s="183"/>
-      <c r="X64" s="184"/>
+      <c r="A64" s="179"/>
+      <c r="B64" s="180"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="180"/>
+      <c r="F64" s="180"/>
+      <c r="G64" s="180"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="180"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="180"/>
+      <c r="N64" s="180"/>
+      <c r="O64" s="180"/>
+      <c r="P64" s="181"/>
+      <c r="Q64" s="179"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="180"/>
+      <c r="T64" s="180"/>
+      <c r="U64" s="180"/>
+      <c r="V64" s="180"/>
+      <c r="W64" s="180"/>
+      <c r="X64" s="181"/>
     </row>
     <row r="65" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A65" s="182"/>
-      <c r="B65" s="183"/>
-      <c r="C65" s="183"/>
-      <c r="D65" s="183"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="184"/>
-      <c r="I65" s="182"/>
-      <c r="J65" s="183"/>
-      <c r="K65" s="183"/>
-      <c r="L65" s="183"/>
-      <c r="M65" s="183"/>
-      <c r="N65" s="183"/>
-      <c r="O65" s="183"/>
-      <c r="P65" s="184"/>
-      <c r="Q65" s="182"/>
-      <c r="R65" s="183"/>
-      <c r="S65" s="183"/>
-      <c r="T65" s="183"/>
-      <c r="U65" s="183"/>
-      <c r="V65" s="183"/>
-      <c r="W65" s="183"/>
-      <c r="X65" s="184"/>
+      <c r="A65" s="179"/>
+      <c r="B65" s="180"/>
+      <c r="C65" s="180"/>
+      <c r="D65" s="180"/>
+      <c r="E65" s="180"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="180"/>
+      <c r="H65" s="181"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="180"/>
+      <c r="K65" s="180"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="180"/>
+      <c r="N65" s="180"/>
+      <c r="O65" s="180"/>
+      <c r="P65" s="181"/>
+      <c r="Q65" s="179"/>
+      <c r="R65" s="180"/>
+      <c r="S65" s="180"/>
+      <c r="T65" s="180"/>
+      <c r="U65" s="180"/>
+      <c r="V65" s="180"/>
+      <c r="W65" s="180"/>
+      <c r="X65" s="181"/>
     </row>
     <row r="66" s="117" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A66" s="182"/>
-      <c r="B66" s="183"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="183"/>
-      <c r="E66" s="183"/>
-      <c r="F66" s="183"/>
-      <c r="G66" s="183"/>
-      <c r="H66" s="184"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="183"/>
-      <c r="M66" s="183"/>
-      <c r="N66" s="183"/>
-      <c r="O66" s="183"/>
-      <c r="P66" s="184"/>
-      <c r="Q66" s="182"/>
-      <c r="R66" s="183"/>
-      <c r="S66" s="183"/>
-      <c r="T66" s="183"/>
-      <c r="U66" s="183"/>
-      <c r="V66" s="183"/>
-      <c r="W66" s="183"/>
-      <c r="X66" s="184"/>
+      <c r="A66" s="179"/>
+      <c r="B66" s="180"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="180"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="180"/>
+      <c r="H66" s="181"/>
+      <c r="I66" s="179"/>
+      <c r="J66" s="180"/>
+      <c r="K66" s="180"/>
+      <c r="L66" s="180"/>
+      <c r="M66" s="180"/>
+      <c r="N66" s="180"/>
+      <c r="O66" s="180"/>
+      <c r="P66" s="181"/>
+      <c r="Q66" s="179"/>
+      <c r="R66" s="180"/>
+      <c r="S66" s="180"/>
+      <c r="T66" s="180"/>
+      <c r="U66" s="180"/>
+      <c r="V66" s="180"/>
+      <c r="W66" s="180"/>
+      <c r="X66" s="181"/>
     </row>
     <row r="67" s="117" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A67" s="182"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="184"/>
-      <c r="I67" s="182"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="183"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="183"/>
-      <c r="O67" s="183"/>
-      <c r="P67" s="184"/>
-      <c r="Q67" s="182"/>
-      <c r="X67" s="184"/>
+      <c r="A67" s="179"/>
+      <c r="B67" s="180"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="180"/>
+      <c r="G67" s="180"/>
+      <c r="H67" s="181"/>
+      <c r="I67" s="179"/>
+      <c r="J67" s="180"/>
+      <c r="K67" s="180"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="180"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="181"/>
+      <c r="Q67" s="179"/>
+      <c r="X67" s="181"/>
     </row>
     <row r="68" s="117" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A68" s="182"/>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="183"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="182"/>
-      <c r="J68" s="183"/>
-      <c r="K68" s="183"/>
-      <c r="L68" s="183"/>
-      <c r="M68" s="183"/>
-      <c r="N68" s="183"/>
-      <c r="O68" s="183"/>
-      <c r="P68" s="184"/>
-      <c r="Q68" s="182"/>
-      <c r="S68" s="218"/>
-      <c r="U68" s="220"/>
-      <c r="V68" s="220"/>
-      <c r="W68" s="220"/>
-      <c r="X68" s="184"/>
+      <c r="A68" s="179"/>
+      <c r="B68" s="180"/>
+      <c r="C68" s="180"/>
+      <c r="D68" s="180"/>
+      <c r="E68" s="180"/>
+      <c r="F68" s="180"/>
+      <c r="G68" s="180"/>
+      <c r="H68" s="181"/>
+      <c r="I68" s="179"/>
+      <c r="J68" s="180"/>
+      <c r="K68" s="180"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="181"/>
+      <c r="Q68" s="179"/>
+      <c r="S68" s="210"/>
+      <c r="U68" s="212"/>
+      <c r="V68" s="212"/>
+      <c r="W68" s="212"/>
+      <c r="X68" s="181"/>
     </row>
     <row r="69" s="117" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A69" s="257" t="s">
+      <c r="A69" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="258"/>
-      <c r="C69" s="258"/>
-      <c r="D69" s="259" t="s">
+      <c r="B69" s="251"/>
+      <c r="C69" s="251"/>
+      <c r="D69" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="260"/>
-      <c r="F69" s="260"/>
-      <c r="G69" s="260"/>
-      <c r="H69" s="261"/>
-      <c r="I69" s="259" t="s">
+      <c r="E69" s="253"/>
+      <c r="F69" s="253"/>
+      <c r="G69" s="253"/>
+      <c r="H69" s="254"/>
+      <c r="I69" s="252" t="s">
         <v>82</v>
       </c>
-      <c r="J69" s="258"/>
-      <c r="K69" s="258"/>
-      <c r="L69" s="259" t="s">
+      <c r="J69" s="251"/>
+      <c r="K69" s="251"/>
+      <c r="L69" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="M69" s="260"/>
-      <c r="N69" s="260"/>
-      <c r="O69" s="260"/>
-      <c r="P69" s="261"/>
-      <c r="Q69" s="259" t="s">
+      <c r="M69" s="253"/>
+      <c r="N69" s="253"/>
+      <c r="O69" s="253"/>
+      <c r="P69" s="254"/>
+      <c r="Q69" s="252" t="s">
         <v>84</v>
       </c>
-      <c r="R69" s="260"/>
-      <c r="S69" s="260"/>
-      <c r="T69" s="259" t="s">
+      <c r="R69" s="253"/>
+      <c r="S69" s="253"/>
+      <c r="T69" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="U69" s="260"/>
-      <c r="V69" s="260"/>
-      <c r="W69" s="260"/>
-      <c r="X69" s="261"/>
+      <c r="U69" s="253"/>
+      <c r="V69" s="253"/>
+      <c r="W69" s="253"/>
+      <c r="X69" s="254"/>
     </row>
     <row r="70" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S70" s="218"/>
-      <c r="U70" s="220"/>
-      <c r="V70" s="220"/>
-      <c r="W70" s="220"/>
-      <c r="X70" s="220"/>
+      <c r="S70" s="210"/>
+      <c r="U70" s="212"/>
+      <c r="V70" s="212"/>
+      <c r="W70" s="212"/>
+      <c r="X70" s="212"/>
     </row>
     <row r="71" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S71" s="218"/>
-      <c r="U71" s="220"/>
-      <c r="V71" s="220"/>
-      <c r="W71" s="220"/>
-      <c r="X71" s="220"/>
+      <c r="S71" s="210"/>
+      <c r="U71" s="212"/>
+      <c r="V71" s="212"/>
+      <c r="W71" s="212"/>
+      <c r="X71" s="212"/>
     </row>
     <row r="72" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S72" s="218"/>
-      <c r="U72" s="220"/>
-      <c r="V72" s="220"/>
-      <c r="W72" s="220"/>
-      <c r="X72" s="220"/>
+      <c r="S72" s="210"/>
+      <c r="U72" s="212"/>
+      <c r="V72" s="212"/>
+      <c r="W72" s="212"/>
+      <c r="X72" s="212"/>
     </row>
     <row r="73" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S73" s="218"/>
-      <c r="U73" s="220"/>
-      <c r="V73" s="220"/>
-      <c r="W73" s="220"/>
-      <c r="X73" s="220"/>
+      <c r="S73" s="210"/>
+      <c r="U73" s="212"/>
+      <c r="V73" s="212"/>
+      <c r="W73" s="212"/>
+      <c r="X73" s="212"/>
     </row>
     <row r="74" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S74" s="218"/>
-      <c r="U74" s="220"/>
-      <c r="V74" s="220"/>
-      <c r="W74" s="220"/>
-      <c r="X74" s="220"/>
+      <c r="S74" s="210"/>
+      <c r="U74" s="212"/>
+      <c r="V74" s="212"/>
+      <c r="W74" s="212"/>
+      <c r="X74" s="212"/>
     </row>
     <row r="75" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S75" s="218"/>
-      <c r="U75" s="220"/>
-      <c r="V75" s="220"/>
-      <c r="W75" s="220"/>
-      <c r="X75" s="220"/>
+      <c r="S75" s="210"/>
+      <c r="U75" s="212"/>
+      <c r="V75" s="212"/>
+      <c r="W75" s="212"/>
+      <c r="X75" s="212"/>
     </row>
     <row r="76" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S76" s="218"/>
-      <c r="U76" s="220"/>
-      <c r="V76" s="220"/>
-      <c r="W76" s="220"/>
-      <c r="X76" s="220"/>
+      <c r="S76" s="210"/>
+      <c r="U76" s="212"/>
+      <c r="V76" s="212"/>
+      <c r="W76" s="212"/>
+      <c r="X76" s="212"/>
     </row>
     <row r="77" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S77" s="218"/>
-      <c r="U77" s="220"/>
-      <c r="V77" s="220"/>
-      <c r="W77" s="220"/>
-      <c r="X77" s="220"/>
+      <c r="S77" s="210"/>
+      <c r="U77" s="212"/>
+      <c r="V77" s="212"/>
+      <c r="W77" s="212"/>
+      <c r="X77" s="212"/>
     </row>
     <row r="78" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S78" s="218"/>
-      <c r="U78" s="220"/>
-      <c r="V78" s="220"/>
-      <c r="W78" s="220"/>
-      <c r="X78" s="220"/>
+      <c r="S78" s="210"/>
+      <c r="U78" s="212"/>
+      <c r="V78" s="212"/>
+      <c r="W78" s="212"/>
+      <c r="X78" s="212"/>
     </row>
     <row r="79" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S79" s="218"/>
-      <c r="U79" s="220"/>
-      <c r="V79" s="220"/>
-      <c r="W79" s="220"/>
-      <c r="X79" s="220"/>
+      <c r="S79" s="210"/>
+      <c r="U79" s="212"/>
+      <c r="V79" s="212"/>
+      <c r="W79" s="212"/>
+      <c r="X79" s="212"/>
     </row>
     <row r="80" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S80" s="218"/>
-      <c r="U80" s="220"/>
-      <c r="V80" s="220"/>
-      <c r="W80" s="220"/>
-      <c r="X80" s="220"/>
+      <c r="S80" s="210"/>
+      <c r="U80" s="212"/>
+      <c r="V80" s="212"/>
+      <c r="W80" s="212"/>
+      <c r="X80" s="212"/>
     </row>
     <row r="81" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S81" s="218"/>
-      <c r="U81" s="220"/>
-      <c r="V81" s="220"/>
-      <c r="W81" s="220"/>
-      <c r="X81" s="220"/>
+      <c r="S81" s="210"/>
+      <c r="U81" s="212"/>
+      <c r="V81" s="212"/>
+      <c r="W81" s="212"/>
+      <c r="X81" s="212"/>
     </row>
     <row r="82" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S82" s="218"/>
-      <c r="U82" s="220"/>
-      <c r="V82" s="220"/>
-      <c r="W82" s="220"/>
-      <c r="X82" s="220"/>
+      <c r="S82" s="210"/>
+      <c r="U82" s="212"/>
+      <c r="V82" s="212"/>
+      <c r="W82" s="212"/>
+      <c r="X82" s="212"/>
     </row>
     <row r="83" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S83" s="218"/>
-      <c r="U83" s="220"/>
-      <c r="V83" s="220"/>
-      <c r="W83" s="220"/>
-      <c r="X83" s="220"/>
+      <c r="S83" s="210"/>
+      <c r="U83" s="212"/>
+      <c r="V83" s="212"/>
+      <c r="W83" s="212"/>
+      <c r="X83" s="212"/>
     </row>
     <row r="84" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S84" s="218"/>
-      <c r="U84" s="220"/>
-      <c r="V84" s="220"/>
-      <c r="W84" s="220"/>
-      <c r="X84" s="220"/>
+      <c r="S84" s="210"/>
+      <c r="U84" s="212"/>
+      <c r="V84" s="212"/>
+      <c r="W84" s="212"/>
+      <c r="X84" s="212"/>
     </row>
     <row r="85" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S85" s="218"/>
-      <c r="U85" s="220"/>
-      <c r="V85" s="220"/>
-      <c r="W85" s="220"/>
-      <c r="X85" s="220"/>
+      <c r="S85" s="210"/>
+      <c r="U85" s="212"/>
+      <c r="V85" s="212"/>
+      <c r="W85" s="212"/>
+      <c r="X85" s="212"/>
     </row>
     <row r="86" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S86" s="218"/>
-      <c r="U86" s="220"/>
-      <c r="V86" s="220"/>
-      <c r="W86" s="220"/>
-      <c r="X86" s="220"/>
+      <c r="S86" s="210"/>
+      <c r="U86" s="212"/>
+      <c r="V86" s="212"/>
+      <c r="W86" s="212"/>
+      <c r="X86" s="212"/>
     </row>
     <row r="87" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S87" s="218"/>
-      <c r="U87" s="220"/>
-      <c r="V87" s="220"/>
-      <c r="W87" s="220"/>
-      <c r="X87" s="220"/>
+      <c r="S87" s="210"/>
+      <c r="U87" s="212"/>
+      <c r="V87" s="212"/>
+      <c r="W87" s="212"/>
+      <c r="X87" s="212"/>
     </row>
     <row r="88" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S88" s="218"/>
-      <c r="U88" s="220"/>
-      <c r="V88" s="220"/>
-      <c r="W88" s="220"/>
-      <c r="X88" s="220"/>
+      <c r="S88" s="210"/>
+      <c r="U88" s="212"/>
+      <c r="V88" s="212"/>
+      <c r="W88" s="212"/>
+      <c r="X88" s="212"/>
     </row>
     <row r="89" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S89" s="218"/>
-      <c r="U89" s="220"/>
-      <c r="V89" s="220"/>
-      <c r="W89" s="220"/>
-      <c r="X89" s="220"/>
+      <c r="S89" s="210"/>
+      <c r="U89" s="212"/>
+      <c r="V89" s="212"/>
+      <c r="W89" s="212"/>
+      <c r="X89" s="212"/>
     </row>
     <row r="90" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S90" s="218"/>
-      <c r="U90" s="220"/>
-      <c r="V90" s="220"/>
-      <c r="W90" s="220"/>
-      <c r="X90" s="220"/>
+      <c r="S90" s="210"/>
+      <c r="U90" s="212"/>
+      <c r="V90" s="212"/>
+      <c r="W90" s="212"/>
+      <c r="X90" s="212"/>
     </row>
     <row r="91" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S91" s="218"/>
-      <c r="U91" s="220"/>
-      <c r="V91" s="220"/>
-      <c r="W91" s="220"/>
-      <c r="X91" s="220"/>
+      <c r="S91" s="210"/>
+      <c r="U91" s="212"/>
+      <c r="V91" s="212"/>
+      <c r="W91" s="212"/>
+      <c r="X91" s="212"/>
     </row>
     <row r="92" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S92" s="218"/>
-      <c r="U92" s="220"/>
-      <c r="V92" s="220"/>
-      <c r="W92" s="220"/>
-      <c r="X92" s="220"/>
+      <c r="S92" s="210"/>
+      <c r="U92" s="212"/>
+      <c r="V92" s="212"/>
+      <c r="W92" s="212"/>
+      <c r="X92" s="212"/>
     </row>
     <row r="93" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S93" s="218"/>
-      <c r="U93" s="220"/>
-      <c r="V93" s="220"/>
-      <c r="W93" s="220"/>
-      <c r="X93" s="220"/>
+      <c r="S93" s="210"/>
+      <c r="U93" s="212"/>
+      <c r="V93" s="212"/>
+      <c r="W93" s="212"/>
+      <c r="X93" s="212"/>
     </row>
     <row r="94" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S94" s="218"/>
-      <c r="U94" s="220"/>
-      <c r="V94" s="220"/>
-      <c r="W94" s="220"/>
-      <c r="X94" s="220"/>
+      <c r="S94" s="210"/>
+      <c r="U94" s="212"/>
+      <c r="V94" s="212"/>
+      <c r="W94" s="212"/>
+      <c r="X94" s="212"/>
     </row>
     <row r="95" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S95" s="218"/>
-      <c r="U95" s="220"/>
-      <c r="V95" s="220"/>
-      <c r="W95" s="220"/>
-      <c r="X95" s="220"/>
+      <c r="S95" s="210"/>
+      <c r="U95" s="212"/>
+      <c r="V95" s="212"/>
+      <c r="W95" s="212"/>
+      <c r="X95" s="212"/>
     </row>
     <row r="96" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S96" s="218"/>
-      <c r="U96" s="220"/>
-      <c r="V96" s="220"/>
-      <c r="W96" s="220"/>
-      <c r="X96" s="220"/>
+      <c r="S96" s="210"/>
+      <c r="U96" s="212"/>
+      <c r="V96" s="212"/>
+      <c r="W96" s="212"/>
+      <c r="X96" s="212"/>
     </row>
     <row r="97" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S97" s="218"/>
-      <c r="U97" s="220"/>
-      <c r="V97" s="220"/>
-      <c r="W97" s="220"/>
-      <c r="X97" s="220"/>
+      <c r="S97" s="210"/>
+      <c r="U97" s="212"/>
+      <c r="V97" s="212"/>
+      <c r="W97" s="212"/>
+      <c r="X97" s="212"/>
     </row>
     <row r="98" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S98" s="218"/>
-      <c r="U98" s="220"/>
-      <c r="V98" s="220"/>
-      <c r="W98" s="220"/>
-      <c r="X98" s="220"/>
+      <c r="S98" s="210"/>
+      <c r="U98" s="212"/>
+      <c r="V98" s="212"/>
+      <c r="W98" s="212"/>
+      <c r="X98" s="212"/>
     </row>
     <row r="99" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S99" s="218"/>
-      <c r="U99" s="220"/>
-      <c r="V99" s="220"/>
-      <c r="W99" s="220"/>
-      <c r="X99" s="220"/>
+      <c r="S99" s="210"/>
+      <c r="U99" s="212"/>
+      <c r="V99" s="212"/>
+      <c r="W99" s="212"/>
+      <c r="X99" s="212"/>
     </row>
     <row r="100" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S100" s="218"/>
-      <c r="U100" s="220"/>
-      <c r="V100" s="220"/>
-      <c r="W100" s="220"/>
-      <c r="X100" s="220"/>
+      <c r="S100" s="210"/>
+      <c r="U100" s="212"/>
+      <c r="V100" s="212"/>
+      <c r="W100" s="212"/>
+      <c r="X100" s="212"/>
     </row>
     <row r="101" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S101" s="218"/>
-      <c r="U101" s="220"/>
-      <c r="V101" s="220"/>
-      <c r="W101" s="220"/>
-      <c r="X101" s="220"/>
+      <c r="S101" s="210"/>
+      <c r="U101" s="212"/>
+      <c r="V101" s="212"/>
+      <c r="W101" s="212"/>
+      <c r="X101" s="212"/>
     </row>
     <row r="102" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S102" s="218"/>
-      <c r="U102" s="220"/>
-      <c r="V102" s="220"/>
-      <c r="W102" s="220"/>
-      <c r="X102" s="220"/>
+      <c r="S102" s="210"/>
+      <c r="U102" s="212"/>
+      <c r="V102" s="212"/>
+      <c r="W102" s="212"/>
+      <c r="X102" s="212"/>
     </row>
     <row r="103" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S103" s="218"/>
-      <c r="U103" s="220"/>
-      <c r="V103" s="220"/>
-      <c r="W103" s="220"/>
-      <c r="X103" s="220"/>
+      <c r="S103" s="210"/>
+      <c r="U103" s="212"/>
+      <c r="V103" s="212"/>
+      <c r="W103" s="212"/>
+      <c r="X103" s="212"/>
     </row>
     <row r="104" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S104" s="218"/>
-      <c r="U104" s="220"/>
-      <c r="V104" s="220"/>
-      <c r="W104" s="220"/>
-      <c r="X104" s="220"/>
+      <c r="S104" s="210"/>
+      <c r="U104" s="212"/>
+      <c r="V104" s="212"/>
+      <c r="W104" s="212"/>
+      <c r="X104" s="212"/>
     </row>
     <row r="105" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S105" s="218"/>
-      <c r="U105" s="220"/>
-      <c r="V105" s="220"/>
-      <c r="W105" s="220"/>
-      <c r="X105" s="220"/>
+      <c r="S105" s="210"/>
+      <c r="U105" s="212"/>
+      <c r="V105" s="212"/>
+      <c r="W105" s="212"/>
+      <c r="X105" s="212"/>
     </row>
     <row r="106" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S106" s="218"/>
-      <c r="U106" s="220"/>
-      <c r="V106" s="220"/>
-      <c r="W106" s="220"/>
-      <c r="X106" s="220"/>
+      <c r="S106" s="210"/>
+      <c r="U106" s="212"/>
+      <c r="V106" s="212"/>
+      <c r="W106" s="212"/>
+      <c r="X106" s="212"/>
     </row>
     <row r="107" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S107" s="218"/>
-      <c r="U107" s="220"/>
-      <c r="V107" s="220"/>
-      <c r="W107" s="220"/>
-      <c r="X107" s="220"/>
+      <c r="S107" s="210"/>
+      <c r="U107" s="212"/>
+      <c r="V107" s="212"/>
+      <c r="W107" s="212"/>
+      <c r="X107" s="212"/>
     </row>
     <row r="108" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S108" s="218"/>
-      <c r="U108" s="220"/>
-      <c r="V108" s="220"/>
-      <c r="W108" s="220"/>
-      <c r="X108" s="220"/>
+      <c r="S108" s="210"/>
+      <c r="U108" s="212"/>
+      <c r="V108" s="212"/>
+      <c r="W108" s="212"/>
+      <c r="X108" s="212"/>
     </row>
     <row r="109" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S109" s="218"/>
-      <c r="U109" s="220"/>
-      <c r="V109" s="220"/>
-      <c r="W109" s="220"/>
-      <c r="X109" s="220"/>
+      <c r="S109" s="210"/>
+      <c r="U109" s="212"/>
+      <c r="V109" s="212"/>
+      <c r="W109" s="212"/>
+      <c r="X109" s="212"/>
     </row>
     <row r="110" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S110" s="218"/>
-      <c r="U110" s="220"/>
-      <c r="V110" s="220"/>
-      <c r="W110" s="220"/>
-      <c r="X110" s="220"/>
+      <c r="S110" s="210"/>
+      <c r="U110" s="212"/>
+      <c r="V110" s="212"/>
+      <c r="W110" s="212"/>
+      <c r="X110" s="212"/>
     </row>
     <row r="111" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S111" s="218"/>
-      <c r="U111" s="220"/>
-      <c r="V111" s="220"/>
-      <c r="W111" s="220"/>
-      <c r="X111" s="220"/>
+      <c r="S111" s="210"/>
+      <c r="U111" s="212"/>
+      <c r="V111" s="212"/>
+      <c r="W111" s="212"/>
+      <c r="X111" s="212"/>
     </row>
     <row r="112" ht="20.25" spans="1:24">
       <c r="A112" s="117"/>
@@ -8207,12 +8240,12 @@
       <c r="P112" s="117"/>
       <c r="Q112" s="117"/>
       <c r="R112" s="117"/>
-      <c r="S112" s="218"/>
+      <c r="S112" s="210"/>
       <c r="T112" s="117"/>
-      <c r="U112" s="220"/>
-      <c r="V112" s="220"/>
-      <c r="W112" s="220"/>
-      <c r="X112" s="220"/>
+      <c r="U112" s="212"/>
+      <c r="V112" s="212"/>
+      <c r="W112" s="212"/>
+      <c r="X112" s="212"/>
     </row>
     <row r="113" ht="20.25" spans="1:17">
       <c r="A113" s="117"/>
@@ -8816,7 +8849,7 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11335,12 +11368,12 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="222.75" spans="1:21">
+    <row r="1" ht="121.5" spans="1:21">
       <c r="A1" s="43" t="s">
         <v>163</v>
       </c>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -1475,19 +1475,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1546,16 +1546,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,14 +1562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,7 +1577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,24 +1590,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,9 +1638,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1645,6 +1663,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,35 +1690,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1746,7 +1746,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,37 +1866,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,13 +1890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,85 +1908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,25 +1920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,11 +2493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2507,6 +2513,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2529,23 +2559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,162 +2590,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2753,7 +2753,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2793,34 +2793,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2832,31 +2832,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,25 +2871,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2898,16 +2898,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2920,88 +2920,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3016,7 +3016,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3025,19 +3025,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3046,10 +3046,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,7 +3184,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3222,7 +3222,140 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3230,143 +3363,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3397,7 +3397,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3413,7 +3413,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3464,7 +3464,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,11 +3476,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3884,8 +3884,8 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8616,8 +8616,8 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -1474,20 +1474,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="183" formatCode="0.0"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1549,6 +1549,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1560,9 +1576,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,53 +1628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1638,38 +1653,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,13 +1685,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,7 +1746,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1836,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,163 +1926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,17 +2439,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2493,6 +2482,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2504,15 +2539,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2541,37 +2567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2593,148 +2593,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2753,7 +2753,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2793,34 +2793,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2832,28 +2832,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,19 +2871,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2898,19 +2898,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2920,55 +2920,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2980,7 +2980,7 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2989,7 +2989,7 @@
     <xf numFmtId="183" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3025,19 +3025,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3046,10 +3046,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,7 +3184,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3222,11 +3222,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3251,7 +3251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3318,40 +3318,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3359,48 +3370,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3409,15 +3378,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3430,10 +3399,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3446,7 +3411,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3461,10 +3426,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3473,38 +3438,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3518,7 +3483,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3884,13 +3849,13 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="118" customWidth="1"/>
+    <col min="1" max="1" width="37.3166666666667" style="118" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="118" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="118" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="118" customWidth="1"/>
@@ -3968,20 +3933,20 @@
       <c r="P4" s="117"/>
       <c r="Q4" s="117"/>
       <c r="R4" s="117"/>
-      <c r="S4" s="210" t="s">
+      <c r="S4" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="211"/>
-      <c r="V4" s="212" t="s">
+      <c r="U4" s="203"/>
+      <c r="V4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="213" t="s">
+      <c r="W4" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="213"/>
+      <c r="X4" s="205"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:26">
       <c r="A5" s="124" t="s">
@@ -4016,7 +3981,7 @@
       </c>
       <c r="O5" s="126"/>
       <c r="P5" s="125"/>
-      <c r="Q5" s="214"/>
+      <c r="Q5" s="206"/>
       <c r="R5" s="143" t="s">
         <v>14</v>
       </c>
@@ -4026,8 +3991,8 @@
       <c r="V5" s="144"/>
       <c r="W5" s="144"/>
       <c r="X5" s="186"/>
-      <c r="Y5" s="249"/>
-      <c r="Z5" s="249"/>
+      <c r="Y5" s="240"/>
+      <c r="Z5" s="240"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="129"/>
@@ -4046,11 +4011,11 @@
       <c r="N6" s="130"/>
       <c r="O6" s="131"/>
       <c r="P6" s="130"/>
-      <c r="Q6" s="215"/>
+      <c r="Q6" s="207"/>
       <c r="R6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="216" t="s">
+      <c r="S6" s="208" t="s">
         <v>16</v>
       </c>
       <c r="T6" s="145" t="s">
@@ -4061,9 +4026,9 @@
       </c>
       <c r="V6" s="110"/>
       <c r="W6" s="110"/>
-      <c r="X6" s="217"/>
-      <c r="Y6" s="249"/>
-      <c r="Z6" s="249"/>
+      <c r="X6" s="209"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:26">
       <c r="A7" s="129" t="s">
@@ -4102,20 +4067,20 @@
       </c>
       <c r="O7" s="183"/>
       <c r="P7" s="184"/>
-      <c r="Q7" s="217"/>
+      <c r="Q7" s="209"/>
       <c r="R7" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="218" t="s">
+      <c r="S7" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="219"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="221"/>
-      <c r="W7" s="221"/>
-      <c r="X7" s="222"/>
-      <c r="Y7" s="249"/>
-      <c r="Z7" s="249"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="129" t="s">
@@ -4154,20 +4119,20 @@
       </c>
       <c r="O8" s="183"/>
       <c r="P8" s="184"/>
-      <c r="Q8" s="217"/>
+      <c r="Q8" s="209"/>
       <c r="R8" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="218" t="s">
+      <c r="S8" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="223"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="221"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="129" t="s">
@@ -4206,20 +4171,20 @@
       </c>
       <c r="O9" s="183"/>
       <c r="P9" s="184"/>
-      <c r="Q9" s="217"/>
+      <c r="Q9" s="209"/>
       <c r="R9" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="218" t="s">
+      <c r="S9" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="219"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="249"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="213"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="240"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
       <c r="A10" s="138" t="s">
@@ -4258,20 +4223,20 @@
       </c>
       <c r="O10" s="140"/>
       <c r="P10" s="185"/>
-      <c r="Q10" s="224"/>
+      <c r="Q10" s="216"/>
       <c r="R10" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="218" t="s">
+      <c r="S10" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="219"/>
-      <c r="U10" s="220"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="249"/>
-      <c r="Z10" s="249"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="213"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="240"/>
+      <c r="Z10" s="240"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
       <c r="A11" s="143" t="s">
@@ -4293,23 +4258,23 @@
       <c r="M11" s="188"/>
       <c r="N11" s="188"/>
       <c r="O11" s="189"/>
-      <c r="P11" s="255" t="s">
+      <c r="P11" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="225"/>
+      <c r="Q11" s="217"/>
       <c r="R11" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="218" t="s">
+      <c r="S11" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="219"/>
-      <c r="U11" s="220"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="222"/>
-      <c r="Y11" s="249"/>
-      <c r="Z11" s="249"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="213"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="240"/>
+      <c r="Z11" s="240"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="129" t="s">
@@ -4339,43 +4304,43 @@
       <c r="I12" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="256" t="s">
+      <c r="J12" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="257" t="s">
+      <c r="K12" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="257" t="s">
+      <c r="L12" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="257" t="s">
+      <c r="M12" s="248" t="s">
         <v>39</v>
       </c>
       <c r="N12" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="258" t="s">
+      <c r="O12" s="249" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="226" t="s">
+      <c r="Q12" s="218" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="218" t="s">
+      <c r="S12" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="219"/>
-      <c r="U12" s="220"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
+      <c r="T12" s="211"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="213"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="240"/>
+      <c r="Z12" s="240"/>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:26">
       <c r="A13" s="129" t="s">
@@ -4417,47 +4382,47 @@
         <f>IF(_sjmain3_day_shift!A2="","",_sjmain3_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="K13" s="196" t="str">
+      <c r="K13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!B2="","",_sjmain3_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="L13" s="196" t="str">
+      <c r="L13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!C2="","",_sjmain3_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="M13" s="196" t="str">
+      <c r="M13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!D2="","",_sjmain3_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="N13" s="196" t="str">
+      <c r="N13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!E2="","",_sjmain3_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="O13" s="197" t="str">
+      <c r="O13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!F2="","",_sjmain3_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="P13" s="135" t="str">
+      <c r="P13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!G2="","",_sjmain3_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="Q13" s="200" t="str">
+      <c r="Q13" s="195" t="str">
         <f>IF(_sjmain3_day_shift!H2="","",_sjmain3_day_shift!H2)</f>
         <v/>
       </c>
       <c r="R13" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="218" t="s">
+      <c r="S13" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="219"/>
-      <c r="U13" s="220"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="212"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="213"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="240"/>
+      <c r="Z13" s="240"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:26">
       <c r="A14" s="129" t="s">
@@ -4491,7 +4456,7 @@
         <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="I14" s="198" t="str">
+      <c r="I14" s="196" t="str">
         <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
@@ -4499,47 +4464,47 @@
         <f>IF(_sjmain3_day_shift!A3="","",_sjmain3_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="K14" s="196" t="str">
+      <c r="K14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!B3="","",_sjmain3_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="L14" s="196" t="str">
+      <c r="L14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!C3="","",_sjmain3_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="M14" s="196" t="str">
+      <c r="M14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!D3="","",_sjmain3_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="N14" s="199" t="str">
+      <c r="N14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!E3="","",_sjmain3_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="O14" s="200" t="str">
+      <c r="O14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!F3="","",_sjmain3_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="P14" s="135" t="str">
+      <c r="P14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!G3="","",_sjmain3_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="Q14" s="200" t="str">
+      <c r="Q14" s="195" t="str">
         <f>IF(_sjmain3_day_shift!H3="","",_sjmain3_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="R14" s="218" t="s">
+      <c r="R14" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="227" t="s">
+      <c r="S14" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="219"/>
-      <c r="U14" s="220"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="222"/>
-      <c r="Y14" s="249"/>
-      <c r="Z14" s="249"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="212"/>
+      <c r="V14" s="213"/>
+      <c r="W14" s="213"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="240"/>
+      <c r="Z14" s="240"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:26">
       <c r="A15" s="138" t="s">
@@ -4573,55 +4538,55 @@
         <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="I15" s="201" t="str">
+      <c r="I15" s="197" t="str">
         <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="J15" s="202" t="str">
+      <c r="J15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!A4="","",_sjmain3_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="K15" s="203" t="str">
+      <c r="K15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!B4="","",_sjmain3_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="L15" s="203" t="str">
+      <c r="L15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!C4="","",_sjmain3_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="M15" s="203" t="str">
+      <c r="M15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!D4="","",_sjmain3_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="N15" s="203" t="str">
+      <c r="N15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!E4="","",_sjmain3_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="O15" s="204" t="str">
+      <c r="O15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!F4="","",_sjmain3_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="P15" s="205" t="str">
+      <c r="P15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!G4="","",_sjmain3_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="Q15" s="228" t="str">
+      <c r="Q15" s="195" t="str">
         <f>IF(_sjmain3_day_shift!H4="","",_sjmain3_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="R15" s="229" t="s">
+      <c r="R15" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="227" t="s">
+      <c r="S15" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="219"/>
-      <c r="U15" s="230"/>
-      <c r="V15" s="231"/>
-      <c r="W15" s="231"/>
-      <c r="X15" s="232"/>
-      <c r="Y15" s="249"/>
-      <c r="Z15" s="249"/>
+      <c r="T15" s="211"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="223"/>
+      <c r="Y15" s="240"/>
+      <c r="Z15" s="240"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
       <c r="A16" s="149" t="s">
@@ -4645,19 +4610,19 @@
       <c r="O16" s="150"/>
       <c r="P16" s="150"/>
       <c r="Q16" s="151"/>
-      <c r="R16" s="229" t="s">
+      <c r="R16" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="227" t="s">
+      <c r="S16" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="219"/>
-      <c r="U16" s="230"/>
-      <c r="V16" s="231"/>
-      <c r="W16" s="231"/>
-      <c r="X16" s="232"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="223"/>
+      <c r="Y16" s="240"/>
+      <c r="Z16" s="240"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
       <c r="A17" s="152" t="s">
@@ -4708,22 +4673,22 @@
       <c r="P17" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="233" t="s">
+      <c r="Q17" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="229" t="s">
+      <c r="R17" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="227" t="s">
+      <c r="S17" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="219"/>
-      <c r="U17" s="230"/>
-      <c r="V17" s="231"/>
-      <c r="W17" s="231"/>
-      <c r="X17" s="232"/>
-      <c r="Y17" s="249"/>
-      <c r="Z17" s="249"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="240"/>
+      <c r="Z17" s="240"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:26">
       <c r="A18" s="156"/>
@@ -4775,19 +4740,19 @@
         <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="234" t="str">
+      <c r="Q18" s="225" t="str">
         <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="219"/>
-      <c r="U18" s="230"/>
-      <c r="V18" s="231"/>
-      <c r="W18" s="231"/>
-      <c r="X18" s="232"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="211"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="240"/>
+      <c r="Z18" s="240"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:26">
       <c r="A19" s="156"/>
@@ -4839,19 +4804,19 @@
         <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="234" t="str">
+      <c r="Q19" s="225" t="str">
         <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="219"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="232"/>
-      <c r="Y19" s="249"/>
-      <c r="Z19" s="249"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="211"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="223"/>
+      <c r="Y19" s="240"/>
+      <c r="Z19" s="240"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:26">
       <c r="A20" s="156"/>
@@ -4903,19 +4868,19 @@
         <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="234" t="str">
+      <c r="Q20" s="225" t="str">
         <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="219"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="232"/>
-      <c r="Y20" s="249"/>
-      <c r="Z20" s="249"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="211"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="223"/>
+      <c r="Y20" s="240"/>
+      <c r="Z20" s="240"/>
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
       <c r="A21" s="158" t="s">
@@ -4936,18 +4901,18 @@
       <c r="N21" s="159"/>
       <c r="O21" s="159"/>
       <c r="P21" s="159"/>
-      <c r="Q21" s="236"/>
+      <c r="Q21" s="227"/>
       <c r="R21" s="109" t="s">
         <v>59</v>
       </c>
       <c r="S21" s="110"/>
-      <c r="T21" s="237"/>
-      <c r="U21" s="238"/>
-      <c r="V21" s="239"/>
-      <c r="W21" s="239"/>
-      <c r="X21" s="240"/>
-      <c r="Y21" s="249"/>
-      <c r="Z21" s="249"/>
+      <c r="T21" s="228"/>
+      <c r="U21" s="229"/>
+      <c r="V21" s="230"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="231"/>
+      <c r="Y21" s="240"/>
+      <c r="Z21" s="240"/>
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="129" t="s">
@@ -4996,22 +4961,22 @@
       <c r="P22" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="226" t="s">
+      <c r="Q22" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="218" t="s">
+      <c r="R22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="218" t="s">
+      <c r="S22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="219"/>
-      <c r="U22" s="220"/>
-      <c r="V22" s="221"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="249"/>
-      <c r="Z22" s="249"/>
+      <c r="T22" s="211"/>
+      <c r="U22" s="212"/>
+      <c r="V22" s="213"/>
+      <c r="W22" s="213"/>
+      <c r="X22" s="214"/>
+      <c r="Y22" s="240"/>
+      <c r="Z22" s="240"/>
     </row>
     <row r="23" ht="30.95" customHeight="1" spans="1:26">
       <c r="A23" s="164" t="str">
@@ -5043,11 +5008,11 @@
         <f>IF(_sjmain4_day_shift!H2="","",_sjmain4_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="I23" s="206" t="str">
+      <c r="I23" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I2="","",_sjmain4_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="J23" s="206" t="str">
+      <c r="J23" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J2="","",_sjmain4_day_shift!J2)</f>
         <v/>
       </c>
@@ -5071,27 +5036,27 @@
         <f>IF(_sjmain4_day_shift!O2="","",_sjmain4_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="P23" s="207" t="str">
+      <c r="P23" s="199" t="str">
         <f>IF(_sjmain4_day_shift!P2="","",SUM(_sjmain4_day_shift!P2:P50))</f>
         <v/>
       </c>
-      <c r="Q23" s="241" t="str">
+      <c r="Q23" s="232" t="str">
         <f>IF(_sjmain4_day_shift!Q2="","",_sjmain4_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="R23" s="229" t="s">
+      <c r="R23" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="227" t="s">
+      <c r="S23" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="219"/>
-      <c r="U23" s="220"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="249"/>
+      <c r="T23" s="211"/>
+      <c r="U23" s="212"/>
+      <c r="V23" s="213"/>
+      <c r="W23" s="213"/>
+      <c r="X23" s="214"/>
+      <c r="Y23" s="240"/>
+      <c r="Z23" s="240"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="1:26">
       <c r="A24" s="169" t="str">
@@ -5123,11 +5088,11 @@
         <f>IF(_sjmain4_day_shift!H3="","",_sjmain4_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="I24" s="206" t="str">
+      <c r="I24" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I3="","",_sjmain4_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="J24" s="206" t="str">
+      <c r="J24" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J3="","",_sjmain4_day_shift!J3)</f>
         <v/>
       </c>
@@ -5151,21 +5116,21 @@
         <f>IF(_sjmain4_day_shift!O3="","",_sjmain4_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="229" t="s">
+      <c r="P24" s="199"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="227" t="s">
+      <c r="S24" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="219"/>
-      <c r="U24" s="220"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="249"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="240"/>
+      <c r="Z24" s="240"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
       <c r="A25" s="169" t="str">
@@ -5197,11 +5162,11 @@
         <f>IF(_sjmain4_day_shift!H4="","",_sjmain4_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="I25" s="206" t="str">
+      <c r="I25" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I4="","",_sjmain4_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="J25" s="206" t="str">
+      <c r="J25" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J4="","",_sjmain4_day_shift!J4)</f>
         <v/>
       </c>
@@ -5225,21 +5190,21 @@
         <f>IF(_sjmain4_day_shift!O4="","",_sjmain4_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="P25" s="207"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="229" t="s">
+      <c r="P25" s="199"/>
+      <c r="Q25" s="232"/>
+      <c r="R25" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="227" t="s">
+      <c r="S25" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="219"/>
-      <c r="U25" s="220"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="212"/>
+      <c r="V25" s="213"/>
+      <c r="W25" s="213"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="240"/>
+      <c r="Z25" s="240"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
       <c r="A26" s="169" t="str">
@@ -5271,11 +5236,11 @@
         <f>IF(_sjmain4_day_shift!H5="","",_sjmain4_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="I26" s="206" t="str">
+      <c r="I26" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I5="","",_sjmain4_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="J26" s="206" t="str">
+      <c r="J26" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J5="","",_sjmain4_day_shift!J5)</f>
         <v/>
       </c>
@@ -5299,21 +5264,21 @@
         <f>IF(_sjmain4_day_shift!O5="","",_sjmain4_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="P26" s="207"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="229" t="s">
+      <c r="P26" s="199"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="227" t="s">
+      <c r="S26" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="219"/>
-      <c r="U26" s="230"/>
-      <c r="V26" s="231"/>
-      <c r="W26" s="231"/>
-      <c r="X26" s="232"/>
-      <c r="Y26" s="249"/>
-      <c r="Z26" s="249"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="240"/>
+      <c r="Z26" s="240"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
       <c r="A27" s="169" t="str">
@@ -5345,11 +5310,11 @@
         <f>IF(_sjmain4_day_shift!H6="","",_sjmain4_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="I27" s="206" t="str">
+      <c r="I27" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I6="","",_sjmain4_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="J27" s="206" t="str">
+      <c r="J27" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J6="","",_sjmain4_day_shift!J6)</f>
         <v/>
       </c>
@@ -5373,17 +5338,17 @@
         <f>IF(_sjmain4_day_shift!O6="","",_sjmain4_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="229"/>
-      <c r="S27" s="227"/>
-      <c r="T27" s="219"/>
-      <c r="U27" s="220"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="249"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="219"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="240"/>
+      <c r="Z27" s="240"/>
     </row>
     <row r="28" ht="30.95" customHeight="1" spans="1:26">
       <c r="A28" s="169" t="str">
@@ -5415,11 +5380,11 @@
         <f>IF(_sjmain4_day_shift!H7="","",_sjmain4_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="I28" s="206" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I7="","",_sjmain4_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="J28" s="206" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J7="","",_sjmain4_day_shift!J7)</f>
         <v/>
       </c>
@@ -5443,17 +5408,17 @@
         <f>IF(_sjmain4_day_shift!O7="","",_sjmain4_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="219"/>
-      <c r="U28" s="230"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="231"/>
-      <c r="X28" s="232"/>
-      <c r="Y28" s="249"/>
-      <c r="Z28" s="249"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="219"/>
+      <c r="T28" s="211"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="223"/>
+      <c r="Y28" s="240"/>
+      <c r="Z28" s="240"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
       <c r="A29" s="169" t="str">
@@ -5485,11 +5450,11 @@
         <f>IF(_sjmain4_day_shift!H8="","",_sjmain4_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="I29" s="206" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I8="","",_sjmain4_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="J29" s="206" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J8="","",_sjmain4_day_shift!J8)</f>
         <v/>
       </c>
@@ -5513,19 +5478,19 @@
         <f>IF(_sjmain4_day_shift!O8="","",_sjmain4_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="241"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="232"/>
       <c r="R29" s="109" t="s">
         <v>76</v>
       </c>
       <c r="S29" s="110"/>
-      <c r="T29" s="237"/>
-      <c r="U29" s="238"/>
-      <c r="V29" s="239"/>
-      <c r="W29" s="239"/>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="249"/>
-      <c r="Z29" s="249"/>
+      <c r="T29" s="228"/>
+      <c r="U29" s="229"/>
+      <c r="V29" s="230"/>
+      <c r="W29" s="230"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="240"/>
+      <c r="Z29" s="240"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:24">
       <c r="A30" s="169" t="str">
@@ -5557,11 +5522,11 @@
         <f>IF(_sjmain4_day_shift!H9="","",_sjmain4_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="I30" s="206" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I9="","",_sjmain4_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="J30" s="206" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J9="","",_sjmain4_day_shift!J9)</f>
         <v/>
       </c>
@@ -5585,19 +5550,19 @@
         <f>IF(_sjmain4_day_shift!O9="","",_sjmain4_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="241"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="232"/>
       <c r="R30" s="109" t="s">
         <v>77</v>
       </c>
       <c r="S30" s="110"/>
-      <c r="T30" s="237">
+      <c r="T30" s="228">
         <v>0</v>
       </c>
-      <c r="U30" s="238"/>
-      <c r="V30" s="239"/>
-      <c r="W30" s="239"/>
-      <c r="X30" s="240"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="230"/>
+      <c r="W30" s="230"/>
+      <c r="X30" s="231"/>
     </row>
     <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A31" s="169" t="str">
@@ -5629,11 +5594,11 @@
         <f>IF(_sjmain4_day_shift!H10="","",_sjmain4_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="I31" s="206" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I10="","",_sjmain4_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="J31" s="206" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J10="","",_sjmain4_day_shift!J10)</f>
         <v/>
       </c>
@@ -5657,15 +5622,15 @@
         <f>IF(_sjmain4_day_shift!O10="","",_sjmain4_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="241"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="232"/>
       <c r="R31" s="109"/>
       <c r="S31" s="110"/>
-      <c r="T31" s="237"/>
-      <c r="U31" s="238"/>
-      <c r="V31" s="239"/>
-      <c r="W31" s="239"/>
-      <c r="X31" s="240"/>
+      <c r="T31" s="228"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="230"/>
+      <c r="W31" s="230"/>
+      <c r="X31" s="231"/>
     </row>
     <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A32" s="169" t="str">
@@ -5697,11 +5662,11 @@
         <f>IF(_sjmain4_day_shift!H11="","",_sjmain4_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="I32" s="206" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I11="","",_sjmain4_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="J32" s="206" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J11="","",_sjmain4_day_shift!J11)</f>
         <v/>
       </c>
@@ -5725,15 +5690,15 @@
         <f>IF(_sjmain4_day_shift!O11="","",_sjmain4_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="P32" s="207"/>
-      <c r="Q32" s="241"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="232"/>
       <c r="R32" s="109"/>
       <c r="S32" s="110"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="239"/>
-      <c r="W32" s="239"/>
-      <c r="X32" s="240"/>
+      <c r="T32" s="228"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="230"/>
+      <c r="W32" s="230"/>
+      <c r="X32" s="231"/>
     </row>
     <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A33" s="169" t="str">
@@ -5765,11 +5730,11 @@
         <f>IF(_sjmain4_day_shift!H12="","",_sjmain4_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="I33" s="206" t="str">
+      <c r="I33" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I12="","",_sjmain4_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="J33" s="206" t="str">
+      <c r="J33" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J12="","",_sjmain4_day_shift!J12)</f>
         <v/>
       </c>
@@ -5793,15 +5758,15 @@
         <f>IF(_sjmain4_day_shift!O12="","",_sjmain4_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="241"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="232"/>
       <c r="R33" s="109"/>
       <c r="S33" s="110"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="239"/>
-      <c r="W33" s="239"/>
-      <c r="X33" s="240"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="230"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="231"/>
     </row>
     <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A34" s="169" t="str">
@@ -5833,11 +5798,11 @@
         <f>IF(_sjmain4_day_shift!H13="","",_sjmain4_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="I34" s="206" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I13="","",_sjmain4_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="J34" s="206" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J13="","",_sjmain4_day_shift!J13)</f>
         <v/>
       </c>
@@ -5861,15 +5826,15 @@
         <f>IF(_sjmain4_day_shift!O13="","",_sjmain4_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="241"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="232"/>
       <c r="R34" s="109"/>
       <c r="S34" s="110"/>
-      <c r="T34" s="237"/>
-      <c r="U34" s="238"/>
-      <c r="V34" s="239"/>
-      <c r="W34" s="239"/>
-      <c r="X34" s="240"/>
+      <c r="T34" s="228"/>
+      <c r="U34" s="229"/>
+      <c r="V34" s="230"/>
+      <c r="W34" s="230"/>
+      <c r="X34" s="231"/>
     </row>
     <row r="35" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A35" s="169" t="str">
@@ -5901,11 +5866,11 @@
         <f>IF(_sjmain4_day_shift!H14="","",_sjmain4_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="I35" s="206" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I14="","",_sjmain4_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="J35" s="206" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J14="","",_sjmain4_day_shift!J14)</f>
         <v/>
       </c>
@@ -5929,15 +5894,15 @@
         <f>IF(_sjmain4_day_shift!O14="","",_sjmain4_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="241"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="232"/>
       <c r="R35" s="109"/>
       <c r="S35" s="110"/>
-      <c r="T35" s="237"/>
-      <c r="U35" s="238"/>
-      <c r="V35" s="239"/>
-      <c r="W35" s="239"/>
-      <c r="X35" s="240"/>
+      <c r="T35" s="228"/>
+      <c r="U35" s="229"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
     </row>
     <row r="36" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A36" s="169" t="str">
@@ -5969,11 +5934,11 @@
         <f>IF(_sjmain4_day_shift!H15="","",_sjmain4_day_shift!H15)</f>
         <v/>
       </c>
-      <c r="I36" s="206" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I15="","",_sjmain4_day_shift!I15)</f>
         <v/>
       </c>
-      <c r="J36" s="206" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J15="","",_sjmain4_day_shift!J15)</f>
         <v/>
       </c>
@@ -5997,15 +5962,15 @@
         <f>IF(_sjmain4_day_shift!O15="","",_sjmain4_day_shift!O15)</f>
         <v/>
       </c>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="241"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="232"/>
       <c r="R36" s="109"/>
       <c r="S36" s="110"/>
-      <c r="T36" s="237"/>
-      <c r="U36" s="238"/>
-      <c r="V36" s="239"/>
-      <c r="W36" s="239"/>
-      <c r="X36" s="240"/>
+      <c r="T36" s="228"/>
+      <c r="U36" s="229"/>
+      <c r="V36" s="230"/>
+      <c r="W36" s="230"/>
+      <c r="X36" s="231"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A37" s="169" t="str">
@@ -6037,11 +6002,11 @@
         <f>IF(_sjmain4_day_shift!H16="","",_sjmain4_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="I37" s="206" t="str">
+      <c r="I37" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I16="","",_sjmain4_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="J37" s="206" t="str">
+      <c r="J37" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J16="","",_sjmain4_day_shift!J16)</f>
         <v/>
       </c>
@@ -6065,15 +6030,15 @@
         <f>IF(_sjmain4_day_shift!O16="","",_sjmain4_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="P37" s="207"/>
-      <c r="Q37" s="241"/>
+      <c r="P37" s="199"/>
+      <c r="Q37" s="232"/>
       <c r="R37" s="109"/>
       <c r="S37" s="110"/>
-      <c r="T37" s="237"/>
-      <c r="U37" s="238"/>
-      <c r="V37" s="239"/>
-      <c r="W37" s="239"/>
-      <c r="X37" s="240"/>
+      <c r="T37" s="228"/>
+      <c r="U37" s="229"/>
+      <c r="V37" s="230"/>
+      <c r="W37" s="230"/>
+      <c r="X37" s="231"/>
     </row>
     <row r="38" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A38" s="169" t="str">
@@ -6105,11 +6070,11 @@
         <f>IF(_sjmain4_day_shift!H17="","",_sjmain4_day_shift!H17)</f>
         <v/>
       </c>
-      <c r="I38" s="206" t="str">
+      <c r="I38" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I17="","",_sjmain4_day_shift!I17)</f>
         <v/>
       </c>
-      <c r="J38" s="206" t="str">
+      <c r="J38" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J17="","",_sjmain4_day_shift!J17)</f>
         <v/>
       </c>
@@ -6133,15 +6098,15 @@
         <f>IF(_sjmain4_day_shift!O17="","",_sjmain4_day_shift!O17)</f>
         <v/>
       </c>
-      <c r="P38" s="207"/>
-      <c r="Q38" s="241"/>
+      <c r="P38" s="199"/>
+      <c r="Q38" s="232"/>
       <c r="R38" s="109"/>
       <c r="S38" s="110"/>
-      <c r="T38" s="237"/>
-      <c r="U38" s="238"/>
-      <c r="V38" s="239"/>
-      <c r="W38" s="239"/>
-      <c r="X38" s="240"/>
+      <c r="T38" s="228"/>
+      <c r="U38" s="229"/>
+      <c r="V38" s="230"/>
+      <c r="W38" s="230"/>
+      <c r="X38" s="231"/>
     </row>
     <row r="39" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A39" s="169" t="str">
@@ -6173,11 +6138,11 @@
         <f>IF(_sjmain4_day_shift!H18="","",_sjmain4_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="I39" s="206" t="str">
+      <c r="I39" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I18="","",_sjmain4_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="J39" s="206" t="str">
+      <c r="J39" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J18="","",_sjmain4_day_shift!J18)</f>
         <v/>
       </c>
@@ -6201,15 +6166,15 @@
         <f>IF(_sjmain4_day_shift!O18="","",_sjmain4_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="P39" s="207"/>
-      <c r="Q39" s="241"/>
+      <c r="P39" s="199"/>
+      <c r="Q39" s="232"/>
       <c r="R39" s="109"/>
       <c r="S39" s="110"/>
-      <c r="T39" s="237"/>
-      <c r="U39" s="238"/>
-      <c r="V39" s="239"/>
-      <c r="W39" s="239"/>
-      <c r="X39" s="240"/>
+      <c r="T39" s="228"/>
+      <c r="U39" s="229"/>
+      <c r="V39" s="230"/>
+      <c r="W39" s="230"/>
+      <c r="X39" s="231"/>
     </row>
     <row r="40" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A40" s="169" t="str">
@@ -6241,11 +6206,11 @@
         <f>IF(_sjmain4_day_shift!H19="","",_sjmain4_day_shift!H19)</f>
         <v/>
       </c>
-      <c r="I40" s="206" t="str">
+      <c r="I40" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I19="","",_sjmain4_day_shift!I19)</f>
         <v/>
       </c>
-      <c r="J40" s="206" t="str">
+      <c r="J40" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J19="","",_sjmain4_day_shift!J19)</f>
         <v/>
       </c>
@@ -6269,15 +6234,15 @@
         <f>IF(_sjmain4_day_shift!O19="","",_sjmain4_day_shift!O19)</f>
         <v/>
       </c>
-      <c r="P40" s="207"/>
-      <c r="Q40" s="241"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="232"/>
       <c r="R40" s="109"/>
       <c r="S40" s="110"/>
-      <c r="T40" s="237"/>
-      <c r="U40" s="238"/>
-      <c r="V40" s="239"/>
-      <c r="W40" s="239"/>
-      <c r="X40" s="240"/>
+      <c r="T40" s="228"/>
+      <c r="U40" s="229"/>
+      <c r="V40" s="230"/>
+      <c r="W40" s="230"/>
+      <c r="X40" s="231"/>
     </row>
     <row r="41" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A41" s="169" t="str">
@@ -6309,11 +6274,11 @@
         <f>IF(_sjmain4_day_shift!H20="","",_sjmain4_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="I41" s="206" t="str">
+      <c r="I41" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I20="","",_sjmain4_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="J41" s="206" t="str">
+      <c r="J41" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J20="","",_sjmain4_day_shift!J20)</f>
         <v/>
       </c>
@@ -6337,15 +6302,15 @@
         <f>IF(_sjmain4_day_shift!O20="","",_sjmain4_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="P41" s="207"/>
-      <c r="Q41" s="241"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="232"/>
       <c r="R41" s="109"/>
       <c r="S41" s="110"/>
-      <c r="T41" s="237"/>
-      <c r="U41" s="238"/>
-      <c r="V41" s="239"/>
-      <c r="W41" s="239"/>
-      <c r="X41" s="240"/>
+      <c r="T41" s="228"/>
+      <c r="U41" s="229"/>
+      <c r="V41" s="230"/>
+      <c r="W41" s="230"/>
+      <c r="X41" s="231"/>
     </row>
     <row r="42" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A42" s="169" t="str">
@@ -6377,11 +6342,11 @@
         <f>IF(_sjmain4_day_shift!H21="","",_sjmain4_day_shift!H21)</f>
         <v/>
       </c>
-      <c r="I42" s="206" t="str">
+      <c r="I42" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I21="","",_sjmain4_day_shift!I21)</f>
         <v/>
       </c>
-      <c r="J42" s="206" t="str">
+      <c r="J42" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J21="","",_sjmain4_day_shift!J21)</f>
         <v/>
       </c>
@@ -6405,15 +6370,15 @@
         <f>IF(_sjmain4_day_shift!O21="","",_sjmain4_day_shift!O21)</f>
         <v/>
       </c>
-      <c r="P42" s="207"/>
-      <c r="Q42" s="241"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="232"/>
       <c r="R42" s="109"/>
       <c r="S42" s="110"/>
-      <c r="T42" s="237"/>
-      <c r="U42" s="238"/>
-      <c r="V42" s="239"/>
-      <c r="W42" s="239"/>
-      <c r="X42" s="240"/>
+      <c r="T42" s="228"/>
+      <c r="U42" s="229"/>
+      <c r="V42" s="230"/>
+      <c r="W42" s="230"/>
+      <c r="X42" s="231"/>
     </row>
     <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A43" s="169" t="str">
@@ -6445,11 +6410,11 @@
         <f>IF(_sjmain4_day_shift!H22="","",_sjmain4_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="I43" s="206" t="str">
+      <c r="I43" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I22="","",_sjmain4_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="J43" s="206" t="str">
+      <c r="J43" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J22="","",_sjmain4_day_shift!J22)</f>
         <v/>
       </c>
@@ -6473,15 +6438,15 @@
         <f>IF(_sjmain4_day_shift!O22="","",_sjmain4_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="P43" s="207"/>
-      <c r="Q43" s="241"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="232"/>
       <c r="R43" s="109"/>
       <c r="S43" s="110"/>
-      <c r="T43" s="237"/>
-      <c r="U43" s="238"/>
-      <c r="V43" s="239"/>
-      <c r="W43" s="239"/>
-      <c r="X43" s="240"/>
+      <c r="T43" s="228"/>
+      <c r="U43" s="229"/>
+      <c r="V43" s="230"/>
+      <c r="W43" s="230"/>
+      <c r="X43" s="231"/>
     </row>
     <row r="44" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A44" s="169" t="str">
@@ -6513,11 +6478,11 @@
         <f>IF(_sjmain4_day_shift!H23="","",_sjmain4_day_shift!H23)</f>
         <v/>
       </c>
-      <c r="I44" s="206" t="str">
+      <c r="I44" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I23="","",_sjmain4_day_shift!I23)</f>
         <v/>
       </c>
-      <c r="J44" s="206" t="str">
+      <c r="J44" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J23="","",_sjmain4_day_shift!J23)</f>
         <v/>
       </c>
@@ -6541,15 +6506,15 @@
         <f>IF(_sjmain4_day_shift!O23="","",_sjmain4_day_shift!O23)</f>
         <v/>
       </c>
-      <c r="P44" s="207"/>
-      <c r="Q44" s="241"/>
+      <c r="P44" s="199"/>
+      <c r="Q44" s="232"/>
       <c r="R44" s="109"/>
       <c r="S44" s="110"/>
-      <c r="T44" s="237"/>
-      <c r="U44" s="238"/>
-      <c r="V44" s="239"/>
-      <c r="W44" s="239"/>
-      <c r="X44" s="240"/>
+      <c r="T44" s="228"/>
+      <c r="U44" s="229"/>
+      <c r="V44" s="230"/>
+      <c r="W44" s="230"/>
+      <c r="X44" s="231"/>
     </row>
     <row r="45" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A45" s="169" t="str">
@@ -6581,11 +6546,11 @@
         <f>IF(_sjmain4_day_shift!H24="","",_sjmain4_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="I45" s="206" t="str">
+      <c r="I45" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I24="","",_sjmain4_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="J45" s="206" t="str">
+      <c r="J45" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J24="","",_sjmain4_day_shift!J24)</f>
         <v/>
       </c>
@@ -6609,15 +6574,15 @@
         <f>IF(_sjmain4_day_shift!O24="","",_sjmain4_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="P45" s="207"/>
-      <c r="Q45" s="241"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="232"/>
       <c r="R45" s="109"/>
       <c r="S45" s="110"/>
-      <c r="T45" s="237"/>
-      <c r="U45" s="238"/>
-      <c r="V45" s="239"/>
-      <c r="W45" s="239"/>
-      <c r="X45" s="240"/>
+      <c r="T45" s="228"/>
+      <c r="U45" s="229"/>
+      <c r="V45" s="230"/>
+      <c r="W45" s="230"/>
+      <c r="X45" s="231"/>
     </row>
     <row r="46" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A46" s="169" t="str">
@@ -6649,11 +6614,11 @@
         <f>IF(_sjmain4_day_shift!H25="","",_sjmain4_day_shift!H25)</f>
         <v/>
       </c>
-      <c r="I46" s="206" t="str">
+      <c r="I46" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I25="","",_sjmain4_day_shift!I25)</f>
         <v/>
       </c>
-      <c r="J46" s="206" t="str">
+      <c r="J46" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J25="","",_sjmain4_day_shift!J25)</f>
         <v/>
       </c>
@@ -6677,15 +6642,15 @@
         <f>IF(_sjmain4_day_shift!O25="","",_sjmain4_day_shift!O25)</f>
         <v/>
       </c>
-      <c r="P46" s="207"/>
-      <c r="Q46" s="241"/>
+      <c r="P46" s="199"/>
+      <c r="Q46" s="232"/>
       <c r="R46" s="109"/>
       <c r="S46" s="110"/>
-      <c r="T46" s="237"/>
-      <c r="U46" s="238"/>
-      <c r="V46" s="239"/>
-      <c r="W46" s="239"/>
-      <c r="X46" s="240"/>
+      <c r="T46" s="228"/>
+      <c r="U46" s="229"/>
+      <c r="V46" s="230"/>
+      <c r="W46" s="230"/>
+      <c r="X46" s="231"/>
     </row>
     <row r="47" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A47" s="169" t="str">
@@ -6717,11 +6682,11 @@
         <f>IF(_sjmain4_day_shift!H26="","",_sjmain4_day_shift!H26)</f>
         <v/>
       </c>
-      <c r="I47" s="206" t="str">
+      <c r="I47" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I26="","",_sjmain4_day_shift!I26)</f>
         <v/>
       </c>
-      <c r="J47" s="206" t="str">
+      <c r="J47" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J26="","",_sjmain4_day_shift!J26)</f>
         <v/>
       </c>
@@ -6745,15 +6710,15 @@
         <f>IF(_sjmain4_day_shift!O26="","",_sjmain4_day_shift!O26)</f>
         <v/>
       </c>
-      <c r="P47" s="207"/>
-      <c r="Q47" s="241"/>
+      <c r="P47" s="199"/>
+      <c r="Q47" s="232"/>
       <c r="R47" s="109"/>
       <c r="S47" s="110"/>
-      <c r="T47" s="237"/>
-      <c r="U47" s="238"/>
-      <c r="V47" s="239"/>
-      <c r="W47" s="239"/>
-      <c r="X47" s="240"/>
+      <c r="T47" s="228"/>
+      <c r="U47" s="229"/>
+      <c r="V47" s="230"/>
+      <c r="W47" s="230"/>
+      <c r="X47" s="231"/>
     </row>
     <row r="48" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A48" s="169" t="str">
@@ -6785,11 +6750,11 @@
         <f>IF(_sjmain4_day_shift!H27="","",_sjmain4_day_shift!H27)</f>
         <v/>
       </c>
-      <c r="I48" s="206" t="str">
+      <c r="I48" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I27="","",_sjmain4_day_shift!I27)</f>
         <v/>
       </c>
-      <c r="J48" s="206" t="str">
+      <c r="J48" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J27="","",_sjmain4_day_shift!J27)</f>
         <v/>
       </c>
@@ -6813,15 +6778,15 @@
         <f>IF(_sjmain4_day_shift!O27="","",_sjmain4_day_shift!O27)</f>
         <v/>
       </c>
-      <c r="P48" s="207"/>
-      <c r="Q48" s="241"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="232"/>
       <c r="R48" s="109"/>
       <c r="S48" s="110"/>
-      <c r="T48" s="237"/>
-      <c r="U48" s="238"/>
-      <c r="V48" s="239"/>
-      <c r="W48" s="239"/>
-      <c r="X48" s="240"/>
+      <c r="T48" s="228"/>
+      <c r="U48" s="229"/>
+      <c r="V48" s="230"/>
+      <c r="W48" s="230"/>
+      <c r="X48" s="231"/>
     </row>
     <row r="49" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A49" s="169" t="str">
@@ -6853,11 +6818,11 @@
         <f>IF(_sjmain4_day_shift!H28="","",_sjmain4_day_shift!H28)</f>
         <v/>
       </c>
-      <c r="I49" s="206" t="str">
+      <c r="I49" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I28="","",_sjmain4_day_shift!I28)</f>
         <v/>
       </c>
-      <c r="J49" s="206" t="str">
+      <c r="J49" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J28="","",_sjmain4_day_shift!J28)</f>
         <v/>
       </c>
@@ -6881,15 +6846,15 @@
         <f>IF(_sjmain4_day_shift!O28="","",_sjmain4_day_shift!O28)</f>
         <v/>
       </c>
-      <c r="P49" s="207"/>
-      <c r="Q49" s="241"/>
+      <c r="P49" s="199"/>
+      <c r="Q49" s="232"/>
       <c r="R49" s="109"/>
       <c r="S49" s="110"/>
-      <c r="T49" s="237"/>
-      <c r="U49" s="238"/>
-      <c r="V49" s="239"/>
-      <c r="W49" s="239"/>
-      <c r="X49" s="240"/>
+      <c r="T49" s="228"/>
+      <c r="U49" s="229"/>
+      <c r="V49" s="230"/>
+      <c r="W49" s="230"/>
+      <c r="X49" s="231"/>
     </row>
     <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A50" s="169" t="str">
@@ -6921,11 +6886,11 @@
         <f>IF(_sjmain4_day_shift!H29="","",_sjmain4_day_shift!H29)</f>
         <v/>
       </c>
-      <c r="I50" s="206" t="str">
+      <c r="I50" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I29="","",_sjmain4_day_shift!I29)</f>
         <v/>
       </c>
-      <c r="J50" s="206" t="str">
+      <c r="J50" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J29="","",_sjmain4_day_shift!J29)</f>
         <v/>
       </c>
@@ -6949,15 +6914,15 @@
         <f>IF(_sjmain4_day_shift!O29="","",_sjmain4_day_shift!O29)</f>
         <v/>
       </c>
-      <c r="P50" s="207"/>
-      <c r="Q50" s="241"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="232"/>
       <c r="R50" s="109"/>
       <c r="S50" s="110"/>
-      <c r="T50" s="237"/>
-      <c r="U50" s="238"/>
-      <c r="V50" s="239"/>
-      <c r="W50" s="239"/>
-      <c r="X50" s="240"/>
+      <c r="T50" s="228"/>
+      <c r="U50" s="229"/>
+      <c r="V50" s="230"/>
+      <c r="W50" s="230"/>
+      <c r="X50" s="231"/>
     </row>
     <row r="51" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A51" s="169" t="str">
@@ -6989,11 +6954,11 @@
         <f>IF(_sjmain4_day_shift!H30="","",_sjmain4_day_shift!H30)</f>
         <v/>
       </c>
-      <c r="I51" s="206" t="str">
+      <c r="I51" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I30="","",_sjmain4_day_shift!I30)</f>
         <v/>
       </c>
-      <c r="J51" s="206" t="str">
+      <c r="J51" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J30="","",_sjmain4_day_shift!J30)</f>
         <v/>
       </c>
@@ -7017,15 +6982,15 @@
         <f>IF(_sjmain4_day_shift!O30="","",_sjmain4_day_shift!O30)</f>
         <v/>
       </c>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="241"/>
+      <c r="P51" s="199"/>
+      <c r="Q51" s="232"/>
       <c r="R51" s="109"/>
       <c r="S51" s="110"/>
-      <c r="T51" s="237"/>
-      <c r="U51" s="238"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="240"/>
+      <c r="T51" s="228"/>
+      <c r="U51" s="229"/>
+      <c r="V51" s="230"/>
+      <c r="W51" s="230"/>
+      <c r="X51" s="231"/>
     </row>
     <row r="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A52" s="169" t="str">
@@ -7057,11 +7022,11 @@
         <f>IF(_sjmain4_day_shift!H31="","",_sjmain4_day_shift!H31)</f>
         <v/>
       </c>
-      <c r="I52" s="206" t="str">
+      <c r="I52" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I31="","",_sjmain4_day_shift!I31)</f>
         <v/>
       </c>
-      <c r="J52" s="206" t="str">
+      <c r="J52" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J31="","",_sjmain4_day_shift!J31)</f>
         <v/>
       </c>
@@ -7085,15 +7050,15 @@
         <f>IF(_sjmain4_day_shift!O31="","",_sjmain4_day_shift!O31)</f>
         <v/>
       </c>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="241"/>
+      <c r="P52" s="199"/>
+      <c r="Q52" s="232"/>
       <c r="R52" s="109"/>
       <c r="S52" s="110"/>
-      <c r="T52" s="237"/>
-      <c r="U52" s="238"/>
-      <c r="V52" s="239"/>
-      <c r="W52" s="239"/>
-      <c r="X52" s="240"/>
+      <c r="T52" s="228"/>
+      <c r="U52" s="229"/>
+      <c r="V52" s="230"/>
+      <c r="W52" s="230"/>
+      <c r="X52" s="231"/>
     </row>
     <row r="53" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A53" s="169" t="str">
@@ -7125,11 +7090,11 @@
         <f>IF(_sjmain4_day_shift!H32="","",_sjmain4_day_shift!H32)</f>
         <v/>
       </c>
-      <c r="I53" s="206" t="str">
+      <c r="I53" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I32="","",_sjmain4_day_shift!I32)</f>
         <v/>
       </c>
-      <c r="J53" s="206" t="str">
+      <c r="J53" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J32="","",_sjmain4_day_shift!J32)</f>
         <v/>
       </c>
@@ -7153,15 +7118,15 @@
         <f>IF(_sjmain4_day_shift!O32="","",_sjmain4_day_shift!O32)</f>
         <v/>
       </c>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="241"/>
+      <c r="P53" s="199"/>
+      <c r="Q53" s="232"/>
       <c r="R53" s="109"/>
       <c r="S53" s="110"/>
-      <c r="T53" s="237"/>
-      <c r="U53" s="238"/>
-      <c r="V53" s="239"/>
-      <c r="W53" s="239"/>
-      <c r="X53" s="240"/>
+      <c r="T53" s="228"/>
+      <c r="U53" s="229"/>
+      <c r="V53" s="230"/>
+      <c r="W53" s="230"/>
+      <c r="X53" s="231"/>
     </row>
     <row r="54" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A54" s="169" t="str">
@@ -7193,11 +7158,11 @@
         <f>IF(_sjmain4_day_shift!H33="","",_sjmain4_day_shift!H33)</f>
         <v/>
       </c>
-      <c r="I54" s="206" t="str">
+      <c r="I54" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I33="","",_sjmain4_day_shift!I33)</f>
         <v/>
       </c>
-      <c r="J54" s="206" t="str">
+      <c r="J54" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J33="","",_sjmain4_day_shift!J33)</f>
         <v/>
       </c>
@@ -7221,15 +7186,15 @@
         <f>IF(_sjmain4_day_shift!O33="","",_sjmain4_day_shift!O33)</f>
         <v/>
       </c>
-      <c r="P54" s="207"/>
-      <c r="Q54" s="241"/>
+      <c r="P54" s="199"/>
+      <c r="Q54" s="232"/>
       <c r="R54" s="109"/>
       <c r="S54" s="110"/>
-      <c r="T54" s="237"/>
-      <c r="U54" s="238"/>
-      <c r="V54" s="239"/>
-      <c r="W54" s="239"/>
-      <c r="X54" s="240"/>
+      <c r="T54" s="228"/>
+      <c r="U54" s="229"/>
+      <c r="V54" s="230"/>
+      <c r="W54" s="230"/>
+      <c r="X54" s="231"/>
     </row>
     <row r="55" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A55" s="169" t="str">
@@ -7261,11 +7226,11 @@
         <f>IF(_sjmain4_day_shift!H34="","",_sjmain4_day_shift!H34)</f>
         <v/>
       </c>
-      <c r="I55" s="206" t="str">
+      <c r="I55" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I34="","",_sjmain4_day_shift!I34)</f>
         <v/>
       </c>
-      <c r="J55" s="206" t="str">
+      <c r="J55" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J34="","",_sjmain4_day_shift!J34)</f>
         <v/>
       </c>
@@ -7289,15 +7254,15 @@
         <f>IF(_sjmain4_day_shift!O34="","",_sjmain4_day_shift!O34)</f>
         <v/>
       </c>
-      <c r="P55" s="207"/>
-      <c r="Q55" s="241"/>
+      <c r="P55" s="199"/>
+      <c r="Q55" s="232"/>
       <c r="R55" s="109"/>
       <c r="S55" s="110"/>
-      <c r="T55" s="237"/>
-      <c r="U55" s="238"/>
-      <c r="V55" s="239"/>
-      <c r="W55" s="239"/>
-      <c r="X55" s="240"/>
+      <c r="T55" s="228"/>
+      <c r="U55" s="229"/>
+      <c r="V55" s="230"/>
+      <c r="W55" s="230"/>
+      <c r="X55" s="231"/>
     </row>
     <row r="56" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A56" s="169" t="str">
@@ -7329,11 +7294,11 @@
         <f>IF(_sjmain4_day_shift!H35="","",_sjmain4_day_shift!H35)</f>
         <v/>
       </c>
-      <c r="I56" s="206" t="str">
+      <c r="I56" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I35="","",_sjmain4_day_shift!I35)</f>
         <v/>
       </c>
-      <c r="J56" s="206" t="str">
+      <c r="J56" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J35="","",_sjmain4_day_shift!J35)</f>
         <v/>
       </c>
@@ -7357,15 +7322,15 @@
         <f>IF(_sjmain4_day_shift!O35="","",_sjmain4_day_shift!O35)</f>
         <v/>
       </c>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="241"/>
+      <c r="P56" s="199"/>
+      <c r="Q56" s="232"/>
       <c r="R56" s="109"/>
       <c r="S56" s="110"/>
-      <c r="T56" s="237"/>
-      <c r="U56" s="238"/>
-      <c r="V56" s="239"/>
-      <c r="W56" s="239"/>
-      <c r="X56" s="240"/>
+      <c r="T56" s="228"/>
+      <c r="U56" s="229"/>
+      <c r="V56" s="230"/>
+      <c r="W56" s="230"/>
+      <c r="X56" s="231"/>
     </row>
     <row r="57" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A57" s="169" t="str">
@@ -7397,11 +7362,11 @@
         <f>IF(_sjmain4_day_shift!H36="","",_sjmain4_day_shift!H36)</f>
         <v/>
       </c>
-      <c r="I57" s="206" t="str">
+      <c r="I57" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I36="","",_sjmain4_day_shift!I36)</f>
         <v/>
       </c>
-      <c r="J57" s="206" t="str">
+      <c r="J57" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J36="","",_sjmain4_day_shift!J36)</f>
         <v/>
       </c>
@@ -7425,15 +7390,15 @@
         <f>IF(_sjmain4_day_shift!O36="","",_sjmain4_day_shift!O36)</f>
         <v/>
       </c>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="241"/>
+      <c r="P57" s="199"/>
+      <c r="Q57" s="232"/>
       <c r="R57" s="109"/>
       <c r="S57" s="110"/>
-      <c r="T57" s="237"/>
-      <c r="U57" s="238"/>
-      <c r="V57" s="239"/>
-      <c r="W57" s="239"/>
-      <c r="X57" s="240"/>
+      <c r="T57" s="228"/>
+      <c r="U57" s="229"/>
+      <c r="V57" s="230"/>
+      <c r="W57" s="230"/>
+      <c r="X57" s="231"/>
     </row>
     <row r="58" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A58" s="169" t="str">
@@ -7465,11 +7430,11 @@
         <f>IF(_sjmain4_day_shift!H37="","",_sjmain4_day_shift!H37)</f>
         <v/>
       </c>
-      <c r="I58" s="206" t="str">
+      <c r="I58" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I37="","",_sjmain4_day_shift!I37)</f>
         <v/>
       </c>
-      <c r="J58" s="206" t="str">
+      <c r="J58" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J37="","",_sjmain4_day_shift!J37)</f>
         <v/>
       </c>
@@ -7493,15 +7458,15 @@
         <f>IF(_sjmain4_day_shift!O37="","",_sjmain4_day_shift!O37)</f>
         <v/>
       </c>
-      <c r="P58" s="207"/>
-      <c r="Q58" s="241"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="232"/>
       <c r="R58" s="109"/>
       <c r="S58" s="110"/>
-      <c r="T58" s="237"/>
-      <c r="U58" s="238"/>
-      <c r="V58" s="239"/>
-      <c r="W58" s="239"/>
-      <c r="X58" s="240"/>
+      <c r="T58" s="228"/>
+      <c r="U58" s="229"/>
+      <c r="V58" s="230"/>
+      <c r="W58" s="230"/>
+      <c r="X58" s="231"/>
     </row>
     <row r="59" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A59" s="169" t="str">
@@ -7533,11 +7498,11 @@
         <f>IF(_sjmain4_day_shift!H38="","",_sjmain4_day_shift!H38)</f>
         <v/>
       </c>
-      <c r="I59" s="206" t="str">
+      <c r="I59" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I38="","",_sjmain4_day_shift!I38)</f>
         <v/>
       </c>
-      <c r="J59" s="206" t="str">
+      <c r="J59" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J38="","",_sjmain4_day_shift!J38)</f>
         <v/>
       </c>
@@ -7561,15 +7526,15 @@
         <f>IF(_sjmain4_day_shift!O38="","",_sjmain4_day_shift!O38)</f>
         <v/>
       </c>
-      <c r="P59" s="207"/>
-      <c r="Q59" s="241"/>
+      <c r="P59" s="199"/>
+      <c r="Q59" s="232"/>
       <c r="R59" s="109"/>
       <c r="S59" s="110"/>
-      <c r="T59" s="237"/>
-      <c r="U59" s="238"/>
-      <c r="V59" s="239"/>
-      <c r="W59" s="239"/>
-      <c r="X59" s="240"/>
+      <c r="T59" s="228"/>
+      <c r="U59" s="229"/>
+      <c r="V59" s="230"/>
+      <c r="W59" s="230"/>
+      <c r="X59" s="231"/>
     </row>
     <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A60" s="169" t="str">
@@ -7601,11 +7566,11 @@
         <f>IF(_sjmain4_day_shift!H39="","",_sjmain4_day_shift!H39)</f>
         <v/>
       </c>
-      <c r="I60" s="206" t="str">
+      <c r="I60" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I39="","",_sjmain4_day_shift!I39)</f>
         <v/>
       </c>
-      <c r="J60" s="206" t="str">
+      <c r="J60" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J39="","",_sjmain4_day_shift!J39)</f>
         <v/>
       </c>
@@ -7629,15 +7594,15 @@
         <f>IF(_sjmain4_day_shift!O39="","",_sjmain4_day_shift!O39)</f>
         <v/>
       </c>
-      <c r="P60" s="207"/>
-      <c r="Q60" s="241"/>
+      <c r="P60" s="199"/>
+      <c r="Q60" s="232"/>
       <c r="R60" s="109"/>
       <c r="S60" s="110"/>
-      <c r="T60" s="237"/>
-      <c r="U60" s="238"/>
-      <c r="V60" s="239"/>
-      <c r="W60" s="239"/>
-      <c r="X60" s="240"/>
+      <c r="T60" s="228"/>
+      <c r="U60" s="229"/>
+      <c r="V60" s="230"/>
+      <c r="W60" s="230"/>
+      <c r="X60" s="231"/>
     </row>
     <row r="61" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A61" s="169" t="str">
@@ -7669,11 +7634,11 @@
         <f>IF(_sjmain4_day_shift!H40="","",_sjmain4_day_shift!H40)</f>
         <v/>
       </c>
-      <c r="I61" s="206" t="str">
+      <c r="I61" s="198" t="str">
         <f>IF(_sjmain4_day_shift!I40="","",_sjmain4_day_shift!I40)</f>
         <v/>
       </c>
-      <c r="J61" s="206" t="str">
+      <c r="J61" s="198" t="str">
         <f>IF(_sjmain4_day_shift!J40="","",_sjmain4_day_shift!J40)</f>
         <v/>
       </c>
@@ -7697,15 +7662,15 @@
         <f>IF(_sjmain4_day_shift!O40="","",_sjmain4_day_shift!O40)</f>
         <v/>
       </c>
-      <c r="P61" s="207"/>
-      <c r="Q61" s="241"/>
+      <c r="P61" s="199"/>
+      <c r="Q61" s="232"/>
       <c r="R61" s="129"/>
-      <c r="S61" s="216"/>
+      <c r="S61" s="208"/>
       <c r="T61" s="145"/>
-      <c r="U61" s="238"/>
-      <c r="V61" s="239"/>
-      <c r="W61" s="239"/>
-      <c r="X61" s="240"/>
+      <c r="U61" s="229"/>
+      <c r="V61" s="230"/>
+      <c r="W61" s="230"/>
+      <c r="X61" s="231"/>
     </row>
     <row r="62" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A62" s="172" t="s">
@@ -7718,22 +7683,22 @@
       <c r="F62" s="175"/>
       <c r="G62" s="175"/>
       <c r="H62" s="175"/>
-      <c r="I62" s="208"/>
-      <c r="J62" s="208"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="200"/>
       <c r="K62" s="175"/>
       <c r="L62" s="175"/>
       <c r="M62" s="168"/>
       <c r="N62" s="168"/>
       <c r="O62" s="168"/>
-      <c r="P62" s="209"/>
-      <c r="Q62" s="242"/>
+      <c r="P62" s="201"/>
+      <c r="Q62" s="233"/>
       <c r="R62" s="138"/>
-      <c r="S62" s="243"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="245"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
-      <c r="X62" s="247"/>
+      <c r="S62" s="234"/>
+      <c r="T62" s="235"/>
+      <c r="U62" s="236"/>
+      <c r="V62" s="237"/>
+      <c r="W62" s="237"/>
+      <c r="X62" s="238"/>
     </row>
     <row r="63" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A63" s="176" t="s">
@@ -7756,7 +7721,7 @@
       <c r="N63" s="177"/>
       <c r="O63" s="177"/>
       <c r="P63" s="178"/>
-      <c r="Q63" s="248" t="s">
+      <c r="Q63" s="239" t="s">
         <v>81</v>
       </c>
       <c r="R63" s="180"/>
@@ -7883,343 +7848,343 @@
       <c r="O68" s="180"/>
       <c r="P68" s="181"/>
       <c r="Q68" s="179"/>
-      <c r="S68" s="210"/>
-      <c r="U68" s="212"/>
-      <c r="V68" s="212"/>
-      <c r="W68" s="212"/>
+      <c r="S68" s="202"/>
+      <c r="U68" s="204"/>
+      <c r="V68" s="204"/>
+      <c r="W68" s="204"/>
       <c r="X68" s="181"/>
     </row>
     <row r="69" s="117" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A69" s="250" t="s">
+      <c r="A69" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="251"/>
-      <c r="C69" s="251"/>
-      <c r="D69" s="252" t="s">
+      <c r="B69" s="242"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="253"/>
-      <c r="F69" s="253"/>
-      <c r="G69" s="253"/>
-      <c r="H69" s="254"/>
-      <c r="I69" s="252" t="s">
+      <c r="E69" s="244"/>
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="245"/>
+      <c r="I69" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="J69" s="251"/>
-      <c r="K69" s="251"/>
-      <c r="L69" s="252" t="s">
+      <c r="J69" s="242"/>
+      <c r="K69" s="242"/>
+      <c r="L69" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="M69" s="253"/>
-      <c r="N69" s="253"/>
-      <c r="O69" s="253"/>
-      <c r="P69" s="254"/>
-      <c r="Q69" s="252" t="s">
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244"/>
+      <c r="P69" s="245"/>
+      <c r="Q69" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="R69" s="253"/>
-      <c r="S69" s="253"/>
-      <c r="T69" s="252" t="s">
+      <c r="R69" s="244"/>
+      <c r="S69" s="244"/>
+      <c r="T69" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="U69" s="253"/>
-      <c r="V69" s="253"/>
-      <c r="W69" s="253"/>
-      <c r="X69" s="254"/>
+      <c r="U69" s="244"/>
+      <c r="V69" s="244"/>
+      <c r="W69" s="244"/>
+      <c r="X69" s="245"/>
     </row>
     <row r="70" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S70" s="210"/>
-      <c r="U70" s="212"/>
-      <c r="V70" s="212"/>
-      <c r="W70" s="212"/>
-      <c r="X70" s="212"/>
+      <c r="S70" s="202"/>
+      <c r="U70" s="204"/>
+      <c r="V70" s="204"/>
+      <c r="W70" s="204"/>
+      <c r="X70" s="204"/>
     </row>
     <row r="71" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S71" s="210"/>
-      <c r="U71" s="212"/>
-      <c r="V71" s="212"/>
-      <c r="W71" s="212"/>
-      <c r="X71" s="212"/>
+      <c r="S71" s="202"/>
+      <c r="U71" s="204"/>
+      <c r="V71" s="204"/>
+      <c r="W71" s="204"/>
+      <c r="X71" s="204"/>
     </row>
     <row r="72" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S72" s="210"/>
-      <c r="U72" s="212"/>
-      <c r="V72" s="212"/>
-      <c r="W72" s="212"/>
-      <c r="X72" s="212"/>
+      <c r="S72" s="202"/>
+      <c r="U72" s="204"/>
+      <c r="V72" s="204"/>
+      <c r="W72" s="204"/>
+      <c r="X72" s="204"/>
     </row>
     <row r="73" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S73" s="210"/>
-      <c r="U73" s="212"/>
-      <c r="V73" s="212"/>
-      <c r="W73" s="212"/>
-      <c r="X73" s="212"/>
+      <c r="S73" s="202"/>
+      <c r="U73" s="204"/>
+      <c r="V73" s="204"/>
+      <c r="W73" s="204"/>
+      <c r="X73" s="204"/>
     </row>
     <row r="74" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S74" s="210"/>
-      <c r="U74" s="212"/>
-      <c r="V74" s="212"/>
-      <c r="W74" s="212"/>
-      <c r="X74" s="212"/>
+      <c r="S74" s="202"/>
+      <c r="U74" s="204"/>
+      <c r="V74" s="204"/>
+      <c r="W74" s="204"/>
+      <c r="X74" s="204"/>
     </row>
     <row r="75" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S75" s="210"/>
-      <c r="U75" s="212"/>
-      <c r="V75" s="212"/>
-      <c r="W75" s="212"/>
-      <c r="X75" s="212"/>
+      <c r="S75" s="202"/>
+      <c r="U75" s="204"/>
+      <c r="V75" s="204"/>
+      <c r="W75" s="204"/>
+      <c r="X75" s="204"/>
     </row>
     <row r="76" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S76" s="210"/>
-      <c r="U76" s="212"/>
-      <c r="V76" s="212"/>
-      <c r="W76" s="212"/>
-      <c r="X76" s="212"/>
+      <c r="S76" s="202"/>
+      <c r="U76" s="204"/>
+      <c r="V76" s="204"/>
+      <c r="W76" s="204"/>
+      <c r="X76" s="204"/>
     </row>
     <row r="77" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S77" s="210"/>
-      <c r="U77" s="212"/>
-      <c r="V77" s="212"/>
-      <c r="W77" s="212"/>
-      <c r="X77" s="212"/>
+      <c r="S77" s="202"/>
+      <c r="U77" s="204"/>
+      <c r="V77" s="204"/>
+      <c r="W77" s="204"/>
+      <c r="X77" s="204"/>
     </row>
     <row r="78" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S78" s="210"/>
-      <c r="U78" s="212"/>
-      <c r="V78" s="212"/>
-      <c r="W78" s="212"/>
-      <c r="X78" s="212"/>
+      <c r="S78" s="202"/>
+      <c r="U78" s="204"/>
+      <c r="V78" s="204"/>
+      <c r="W78" s="204"/>
+      <c r="X78" s="204"/>
     </row>
     <row r="79" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S79" s="210"/>
-      <c r="U79" s="212"/>
-      <c r="V79" s="212"/>
-      <c r="W79" s="212"/>
-      <c r="X79" s="212"/>
+      <c r="S79" s="202"/>
+      <c r="U79" s="204"/>
+      <c r="V79" s="204"/>
+      <c r="W79" s="204"/>
+      <c r="X79" s="204"/>
     </row>
     <row r="80" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S80" s="210"/>
-      <c r="U80" s="212"/>
-      <c r="V80" s="212"/>
-      <c r="W80" s="212"/>
-      <c r="X80" s="212"/>
+      <c r="S80" s="202"/>
+      <c r="U80" s="204"/>
+      <c r="V80" s="204"/>
+      <c r="W80" s="204"/>
+      <c r="X80" s="204"/>
     </row>
     <row r="81" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S81" s="210"/>
-      <c r="U81" s="212"/>
-      <c r="V81" s="212"/>
-      <c r="W81" s="212"/>
-      <c r="X81" s="212"/>
+      <c r="S81" s="202"/>
+      <c r="U81" s="204"/>
+      <c r="V81" s="204"/>
+      <c r="W81" s="204"/>
+      <c r="X81" s="204"/>
     </row>
     <row r="82" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S82" s="210"/>
-      <c r="U82" s="212"/>
-      <c r="V82" s="212"/>
-      <c r="W82" s="212"/>
-      <c r="X82" s="212"/>
+      <c r="S82" s="202"/>
+      <c r="U82" s="204"/>
+      <c r="V82" s="204"/>
+      <c r="W82" s="204"/>
+      <c r="X82" s="204"/>
     </row>
     <row r="83" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S83" s="210"/>
-      <c r="U83" s="212"/>
-      <c r="V83" s="212"/>
-      <c r="W83" s="212"/>
-      <c r="X83" s="212"/>
+      <c r="S83" s="202"/>
+      <c r="U83" s="204"/>
+      <c r="V83" s="204"/>
+      <c r="W83" s="204"/>
+      <c r="X83" s="204"/>
     </row>
     <row r="84" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S84" s="210"/>
-      <c r="U84" s="212"/>
-      <c r="V84" s="212"/>
-      <c r="W84" s="212"/>
-      <c r="X84" s="212"/>
+      <c r="S84" s="202"/>
+      <c r="U84" s="204"/>
+      <c r="V84" s="204"/>
+      <c r="W84" s="204"/>
+      <c r="X84" s="204"/>
     </row>
     <row r="85" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S85" s="210"/>
-      <c r="U85" s="212"/>
-      <c r="V85" s="212"/>
-      <c r="W85" s="212"/>
-      <c r="X85" s="212"/>
+      <c r="S85" s="202"/>
+      <c r="U85" s="204"/>
+      <c r="V85" s="204"/>
+      <c r="W85" s="204"/>
+      <c r="X85" s="204"/>
     </row>
     <row r="86" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S86" s="210"/>
-      <c r="U86" s="212"/>
-      <c r="V86" s="212"/>
-      <c r="W86" s="212"/>
-      <c r="X86" s="212"/>
+      <c r="S86" s="202"/>
+      <c r="U86" s="204"/>
+      <c r="V86" s="204"/>
+      <c r="W86" s="204"/>
+      <c r="X86" s="204"/>
     </row>
     <row r="87" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S87" s="210"/>
-      <c r="U87" s="212"/>
-      <c r="V87" s="212"/>
-      <c r="W87" s="212"/>
-      <c r="X87" s="212"/>
+      <c r="S87" s="202"/>
+      <c r="U87" s="204"/>
+      <c r="V87" s="204"/>
+      <c r="W87" s="204"/>
+      <c r="X87" s="204"/>
     </row>
     <row r="88" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S88" s="210"/>
-      <c r="U88" s="212"/>
-      <c r="V88" s="212"/>
-      <c r="W88" s="212"/>
-      <c r="X88" s="212"/>
+      <c r="S88" s="202"/>
+      <c r="U88" s="204"/>
+      <c r="V88" s="204"/>
+      <c r="W88" s="204"/>
+      <c r="X88" s="204"/>
     </row>
     <row r="89" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S89" s="210"/>
-      <c r="U89" s="212"/>
-      <c r="V89" s="212"/>
-      <c r="W89" s="212"/>
-      <c r="X89" s="212"/>
+      <c r="S89" s="202"/>
+      <c r="U89" s="204"/>
+      <c r="V89" s="204"/>
+      <c r="W89" s="204"/>
+      <c r="X89" s="204"/>
     </row>
     <row r="90" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S90" s="210"/>
-      <c r="U90" s="212"/>
-      <c r="V90" s="212"/>
-      <c r="W90" s="212"/>
-      <c r="X90" s="212"/>
+      <c r="S90" s="202"/>
+      <c r="U90" s="204"/>
+      <c r="V90" s="204"/>
+      <c r="W90" s="204"/>
+      <c r="X90" s="204"/>
     </row>
     <row r="91" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S91" s="210"/>
-      <c r="U91" s="212"/>
-      <c r="V91" s="212"/>
-      <c r="W91" s="212"/>
-      <c r="X91" s="212"/>
+      <c r="S91" s="202"/>
+      <c r="U91" s="204"/>
+      <c r="V91" s="204"/>
+      <c r="W91" s="204"/>
+      <c r="X91" s="204"/>
     </row>
     <row r="92" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S92" s="210"/>
-      <c r="U92" s="212"/>
-      <c r="V92" s="212"/>
-      <c r="W92" s="212"/>
-      <c r="X92" s="212"/>
+      <c r="S92" s="202"/>
+      <c r="U92" s="204"/>
+      <c r="V92" s="204"/>
+      <c r="W92" s="204"/>
+      <c r="X92" s="204"/>
     </row>
     <row r="93" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S93" s="210"/>
-      <c r="U93" s="212"/>
-      <c r="V93" s="212"/>
-      <c r="W93" s="212"/>
-      <c r="X93" s="212"/>
+      <c r="S93" s="202"/>
+      <c r="U93" s="204"/>
+      <c r="V93" s="204"/>
+      <c r="W93" s="204"/>
+      <c r="X93" s="204"/>
     </row>
     <row r="94" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S94" s="210"/>
-      <c r="U94" s="212"/>
-      <c r="V94" s="212"/>
-      <c r="W94" s="212"/>
-      <c r="X94" s="212"/>
+      <c r="S94" s="202"/>
+      <c r="U94" s="204"/>
+      <c r="V94" s="204"/>
+      <c r="W94" s="204"/>
+      <c r="X94" s="204"/>
     </row>
     <row r="95" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S95" s="210"/>
-      <c r="U95" s="212"/>
-      <c r="V95" s="212"/>
-      <c r="W95" s="212"/>
-      <c r="X95" s="212"/>
+      <c r="S95" s="202"/>
+      <c r="U95" s="204"/>
+      <c r="V95" s="204"/>
+      <c r="W95" s="204"/>
+      <c r="X95" s="204"/>
     </row>
     <row r="96" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S96" s="210"/>
-      <c r="U96" s="212"/>
-      <c r="V96" s="212"/>
-      <c r="W96" s="212"/>
-      <c r="X96" s="212"/>
+      <c r="S96" s="202"/>
+      <c r="U96" s="204"/>
+      <c r="V96" s="204"/>
+      <c r="W96" s="204"/>
+      <c r="X96" s="204"/>
     </row>
     <row r="97" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S97" s="210"/>
-      <c r="U97" s="212"/>
-      <c r="V97" s="212"/>
-      <c r="W97" s="212"/>
-      <c r="X97" s="212"/>
+      <c r="S97" s="202"/>
+      <c r="U97" s="204"/>
+      <c r="V97" s="204"/>
+      <c r="W97" s="204"/>
+      <c r="X97" s="204"/>
     </row>
     <row r="98" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S98" s="210"/>
-      <c r="U98" s="212"/>
-      <c r="V98" s="212"/>
-      <c r="W98" s="212"/>
-      <c r="X98" s="212"/>
+      <c r="S98" s="202"/>
+      <c r="U98" s="204"/>
+      <c r="V98" s="204"/>
+      <c r="W98" s="204"/>
+      <c r="X98" s="204"/>
     </row>
     <row r="99" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S99" s="210"/>
-      <c r="U99" s="212"/>
-      <c r="V99" s="212"/>
-      <c r="W99" s="212"/>
-      <c r="X99" s="212"/>
+      <c r="S99" s="202"/>
+      <c r="U99" s="204"/>
+      <c r="V99" s="204"/>
+      <c r="W99" s="204"/>
+      <c r="X99" s="204"/>
     </row>
     <row r="100" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S100" s="210"/>
-      <c r="U100" s="212"/>
-      <c r="V100" s="212"/>
-      <c r="W100" s="212"/>
-      <c r="X100" s="212"/>
+      <c r="S100" s="202"/>
+      <c r="U100" s="204"/>
+      <c r="V100" s="204"/>
+      <c r="W100" s="204"/>
+      <c r="X100" s="204"/>
     </row>
     <row r="101" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S101" s="210"/>
-      <c r="U101" s="212"/>
-      <c r="V101" s="212"/>
-      <c r="W101" s="212"/>
-      <c r="X101" s="212"/>
+      <c r="S101" s="202"/>
+      <c r="U101" s="204"/>
+      <c r="V101" s="204"/>
+      <c r="W101" s="204"/>
+      <c r="X101" s="204"/>
     </row>
     <row r="102" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S102" s="210"/>
-      <c r="U102" s="212"/>
-      <c r="V102" s="212"/>
-      <c r="W102" s="212"/>
-      <c r="X102" s="212"/>
+      <c r="S102" s="202"/>
+      <c r="U102" s="204"/>
+      <c r="V102" s="204"/>
+      <c r="W102" s="204"/>
+      <c r="X102" s="204"/>
     </row>
     <row r="103" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S103" s="210"/>
-      <c r="U103" s="212"/>
-      <c r="V103" s="212"/>
-      <c r="W103" s="212"/>
-      <c r="X103" s="212"/>
+      <c r="S103" s="202"/>
+      <c r="U103" s="204"/>
+      <c r="V103" s="204"/>
+      <c r="W103" s="204"/>
+      <c r="X103" s="204"/>
     </row>
     <row r="104" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S104" s="210"/>
-      <c r="U104" s="212"/>
-      <c r="V104" s="212"/>
-      <c r="W104" s="212"/>
-      <c r="X104" s="212"/>
+      <c r="S104" s="202"/>
+      <c r="U104" s="204"/>
+      <c r="V104" s="204"/>
+      <c r="W104" s="204"/>
+      <c r="X104" s="204"/>
     </row>
     <row r="105" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S105" s="210"/>
-      <c r="U105" s="212"/>
-      <c r="V105" s="212"/>
-      <c r="W105" s="212"/>
-      <c r="X105" s="212"/>
+      <c r="S105" s="202"/>
+      <c r="U105" s="204"/>
+      <c r="V105" s="204"/>
+      <c r="W105" s="204"/>
+      <c r="X105" s="204"/>
     </row>
     <row r="106" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S106" s="210"/>
-      <c r="U106" s="212"/>
-      <c r="V106" s="212"/>
-      <c r="W106" s="212"/>
-      <c r="X106" s="212"/>
+      <c r="S106" s="202"/>
+      <c r="U106" s="204"/>
+      <c r="V106" s="204"/>
+      <c r="W106" s="204"/>
+      <c r="X106" s="204"/>
     </row>
     <row r="107" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S107" s="210"/>
-      <c r="U107" s="212"/>
-      <c r="V107" s="212"/>
-      <c r="W107" s="212"/>
-      <c r="X107" s="212"/>
+      <c r="S107" s="202"/>
+      <c r="U107" s="204"/>
+      <c r="V107" s="204"/>
+      <c r="W107" s="204"/>
+      <c r="X107" s="204"/>
     </row>
     <row r="108" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S108" s="210"/>
-      <c r="U108" s="212"/>
-      <c r="V108" s="212"/>
-      <c r="W108" s="212"/>
-      <c r="X108" s="212"/>
+      <c r="S108" s="202"/>
+      <c r="U108" s="204"/>
+      <c r="V108" s="204"/>
+      <c r="W108" s="204"/>
+      <c r="X108" s="204"/>
     </row>
     <row r="109" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S109" s="210"/>
-      <c r="U109" s="212"/>
-      <c r="V109" s="212"/>
-      <c r="W109" s="212"/>
-      <c r="X109" s="212"/>
+      <c r="S109" s="202"/>
+      <c r="U109" s="204"/>
+      <c r="V109" s="204"/>
+      <c r="W109" s="204"/>
+      <c r="X109" s="204"/>
     </row>
     <row r="110" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S110" s="210"/>
-      <c r="U110" s="212"/>
-      <c r="V110" s="212"/>
-      <c r="W110" s="212"/>
-      <c r="X110" s="212"/>
+      <c r="S110" s="202"/>
+      <c r="U110" s="204"/>
+      <c r="V110" s="204"/>
+      <c r="W110" s="204"/>
+      <c r="X110" s="204"/>
     </row>
     <row r="111" s="117" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S111" s="210"/>
-      <c r="U111" s="212"/>
-      <c r="V111" s="212"/>
-      <c r="W111" s="212"/>
-      <c r="X111" s="212"/>
+      <c r="S111" s="202"/>
+      <c r="U111" s="204"/>
+      <c r="V111" s="204"/>
+      <c r="W111" s="204"/>
+      <c r="X111" s="204"/>
     </row>
     <row r="112" ht="20.25" spans="1:24">
       <c r="A112" s="117"/>
@@ -8240,12 +8205,12 @@
       <c r="P112" s="117"/>
       <c r="Q112" s="117"/>
       <c r="R112" s="117"/>
-      <c r="S112" s="210"/>
+      <c r="S112" s="202"/>
       <c r="T112" s="117"/>
-      <c r="U112" s="212"/>
-      <c r="V112" s="212"/>
-      <c r="W112" s="212"/>
-      <c r="X112" s="212"/>
+      <c r="U112" s="204"/>
+      <c r="V112" s="204"/>
+      <c r="W112" s="204"/>
+      <c r="X112" s="204"/>
     </row>
     <row r="113" ht="20.25" spans="1:17">
       <c r="A113" s="117"/>
@@ -8616,7 +8581,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -19,6 +19,8 @@
     <sheet name="_sjfx_day_hour" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="_metadata" sheetId="12" r:id="rId12"/>
+    <sheet name="_sjmain5_day_shift" sheetId="13" r:id="rId13"/>
+    <sheet name="_sjmain6_day_shift" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">风箱温度压力!$A$1:$AN$34</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
   <si>
     <r>
       <rPr>
@@ -1468,26 +1470,32 @@
   <si>
     <t>version</t>
   </si>
+  <si>
+    <t>valuse/GF3</t>
+  </si>
+  <si>
+    <t>values/GF3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
     <numFmt numFmtId="183" formatCode="0.0"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1549,28 +1557,96 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,47 +1660,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1637,61 +1698,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,7 +1754,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1802,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,43 +1838,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,115 +1934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,13 +2516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2528,17 +2540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2561,176 +2567,178 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2753,7 +2761,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2793,34 +2801,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2832,30 +2840,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2871,21 +2879,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2898,19 +2906,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2920,76 +2928,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3025,19 +3033,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3046,10 +3054,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,7 +3192,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3222,7 +3230,109 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3230,101 +3340,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3332,44 +3378,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3382,7 +3390,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3429,7 +3437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3441,11 +3449,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3849,7 +3857,7 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -4403,11 +4411,11 @@
         <v/>
       </c>
       <c r="P13" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!G2="","",_sjmain3_day_shift!G2)</f>
+        <f>IF(_sjmain5_day_shift!A2="","",100-_sjmain5_day_shift!A2)</f>
         <v/>
       </c>
       <c r="Q13" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!H2="","",_sjmain3_day_shift!H2)</f>
+        <f>IF(_sjmain6_day_shift!A2="","",100-_sjmain6_day_shift!A2)</f>
         <v/>
       </c>
       <c r="R13" s="169" t="s">
@@ -4485,11 +4493,11 @@
         <v/>
       </c>
       <c r="P14" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!G3="","",_sjmain3_day_shift!G3)</f>
+        <f>IF(_sjmain5_day_shift!A3="","",100-_sjmain5_day_shift!A3)</f>
         <v/>
       </c>
       <c r="Q14" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!H3="","",_sjmain3_day_shift!H3)</f>
+        <f>IF(_sjmain6_day_shift!A3="","",100-_sjmain6_day_shift!A3)</f>
         <v/>
       </c>
       <c r="R14" s="210" t="s">
@@ -4567,11 +4575,11 @@
         <v/>
       </c>
       <c r="P15" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!G4="","",_sjmain3_day_shift!G4)</f>
+        <f>IF(_sjmain5_day_shift!A4="","",100-_sjmain5_day_shift!A4)</f>
         <v/>
       </c>
       <c r="Q15" s="195" t="str">
-        <f>IF(_sjmain3_day_shift!H4="","",_sjmain3_day_shift!H4)</f>
+        <f>IF(_sjmain6_day_shift!A4="","",100-_sjmain6_day_shift!A4)</f>
         <v/>
       </c>
       <c r="R15" s="220" t="s">
@@ -8576,6 +8584,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -8814,7 +8866,7 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8898,9 +8950,9 @@
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B4" s="68" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69" t="s">

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <r>
       <rPr>
@@ -365,6 +365,9 @@
     </r>
   </si>
   <si>
+    <t>夜班合计h</t>
+  </si>
+  <si>
     <t>混匀矿</t>
   </si>
   <si>
@@ -476,11 +479,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>白班合计</t>
     </r>
     <r>
@@ -1483,19 +1481,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1554,6 +1552,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1561,9 +1590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,16 +1615,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,7 +1629,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,7 +1673,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1637,69 +1689,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1754,7 +1752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1776,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +1812,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,13 +1878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,55 +1890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,61 +1908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,6 +1927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,17 +2499,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2540,26 +2564,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2572,173 +2596,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2761,7 +2759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2801,34 +2799,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2840,31 +2838,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2879,25 +2877,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2906,19 +2904,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2928,88 +2926,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3024,7 +3022,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3033,19 +3031,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3054,10 +3052,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,7 +3190,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3230,11 +3228,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3259,7 +3257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3332,18 +3330,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3449,11 +3447,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3857,8 +3855,8 @@
   <sheetPr/>
   <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4270,12 +4268,10 @@
         <v>27</v>
       </c>
       <c r="Q11" s="217"/>
-      <c r="R11" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="210" t="s">
-        <v>20</v>
-      </c>
+      <c r="R11" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="110"/>
       <c r="T11" s="211"/>
       <c r="U11" s="212"/>
       <c r="V11" s="213"/>
@@ -4289,52 +4285,52 @@
         <v>6</v>
       </c>
       <c r="B12" s="145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="184" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="247" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="248" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="248" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="248" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="218" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="145" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="247" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="248" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="249" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="193" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="218" t="s">
-        <v>31</v>
       </c>
       <c r="R12" s="169" t="s">
         <v>20</v>
@@ -4383,7 +4379,7 @@
         <v/>
       </c>
       <c r="I13" s="194" t="str">
-        <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
+        <f>IF(T11="","",8-T11)</f>
         <v/>
       </c>
       <c r="J13" s="195" t="str">
@@ -4465,7 +4461,7 @@
         <v/>
       </c>
       <c r="I14" s="196" t="str">
-        <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
+        <f>IF(T21="","",8-T21)</f>
         <v/>
       </c>
       <c r="J14" s="195" t="str">
@@ -4547,7 +4543,7 @@
         <v/>
       </c>
       <c r="I15" s="197" t="str">
-        <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
+        <f>IF(T29="","",8-T29)</f>
         <v/>
       </c>
       <c r="J15" s="195" t="str">
@@ -4598,14 +4594,14 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
       <c r="A16" s="149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="150"/>
       <c r="C16" s="150"/>
       <c r="D16" s="150"/>
       <c r="E16" s="151"/>
       <c r="F16" s="149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
@@ -4634,55 +4630,55 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
       <c r="A17" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" s="155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P17" s="155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R17" s="220" t="s">
         <v>20</v>
@@ -4892,7 +4888,7 @@
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
       <c r="A21" s="158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="159"/>
       <c r="C21" s="159"/>
@@ -4911,7 +4907,7 @@
       <c r="P21" s="159"/>
       <c r="Q21" s="227"/>
       <c r="R21" s="109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S21" s="110"/>
       <c r="T21" s="228"/>
@@ -4924,53 +4920,53 @@
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="161"/>
       <c r="D22" s="162" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="163" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" s="163" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" s="163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" s="163" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M22" s="163" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N22" s="145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="145" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="145" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="218" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R22" s="210" t="s">
         <v>20</v>
@@ -5489,7 +5485,7 @@
       <c r="P29" s="199"/>
       <c r="Q29" s="232"/>
       <c r="R29" s="109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" s="110"/>
       <c r="T29" s="228"/>
@@ -5561,7 +5557,7 @@
       <c r="P30" s="199"/>
       <c r="Q30" s="232"/>
       <c r="R30" s="109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" s="110"/>
       <c r="T30" s="228">
@@ -7682,7 +7678,7 @@
     </row>
     <row r="62" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A62" s="172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" s="173"/>
       <c r="C62" s="174"/>
@@ -7710,7 +7706,7 @@
     </row>
     <row r="63" s="117" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A63" s="176" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="177"/>
       <c r="C63" s="177"/>
@@ -7720,7 +7716,7 @@
       <c r="G63" s="177"/>
       <c r="H63" s="178"/>
       <c r="I63" s="176" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J63" s="177"/>
       <c r="K63" s="177"/>
@@ -7730,7 +7726,7 @@
       <c r="O63" s="177"/>
       <c r="P63" s="178"/>
       <c r="Q63" s="239" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R63" s="180"/>
       <c r="S63" s="180"/>
@@ -7864,36 +7860,36 @@
     </row>
     <row r="69" s="117" customFormat="1" ht="23.25" spans="1:24">
       <c r="A69" s="241" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="242"/>
       <c r="C69" s="242"/>
       <c r="D69" s="243" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="244"/>
       <c r="F69" s="244"/>
       <c r="G69" s="244"/>
       <c r="H69" s="245"/>
       <c r="I69" s="243" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J69" s="242"/>
       <c r="K69" s="242"/>
       <c r="L69" s="243" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M69" s="244"/>
       <c r="N69" s="244"/>
       <c r="O69" s="244"/>
       <c r="P69" s="245"/>
       <c r="Q69" s="243" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R69" s="244"/>
       <c r="S69" s="244"/>
       <c r="T69" s="243" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U69" s="244"/>
       <c r="V69" s="244"/>
@@ -8259,7 +8255,7 @@
       <c r="Q114" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="129">
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="T4:U4"/>
@@ -8305,6 +8301,7 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="J11:O11"/>
     <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="U13:X13"/>
@@ -8408,133 +8405,133 @@
   <sheetData>
     <row r="1" ht="112.5" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="AQ1" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -8556,7 +8553,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -8597,7 +8594,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +8616,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -8641,29 +8638,29 @@
   <sheetData>
     <row r="1" ht="180" spans="1:10">
       <c r="A1" s="113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="114"/>
       <c r="D1" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="115" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8688,40 +8685,40 @@
   <sheetData>
     <row r="1" ht="135.75" spans="1:12">
       <c r="A1" s="111" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="111" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="111" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="111" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -8743,22 +8740,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8780,53 +8777,53 @@
   <sheetData>
     <row r="1" ht="90" spans="1:17">
       <c r="A1" s="109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="110"/>
       <c r="D1" s="109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" s="109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O1" s="109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" s="109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8851,7 +8848,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +8893,7 @@
   <sheetData>
     <row r="2" ht="35.25" spans="1:24">
       <c r="A2" s="60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -8956,7 +8953,7 @@
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
@@ -8988,136 +8985,136 @@
     </row>
     <row r="5" s="50" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A5" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5" s="76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L5" s="74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M5" s="93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N5" s="74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O5" s="74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P5" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R5" s="93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S5" s="77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T5" s="93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U5" s="77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V5" s="102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="50" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A6" s="73"/>
       <c r="B6" s="74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="79" t="s">
+      <c r="L6" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="92" t="s">
+      <c r="M6" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="M6" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="74" t="s">
-        <v>156</v>
-      </c>
       <c r="O6" s="74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P6" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R6" s="93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T6" s="93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V6" s="103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" s="51" customFormat="1" ht="30" customHeight="1" spans="1:22">
@@ -11265,7 +11262,7 @@
     </row>
     <row r="31" s="51" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A31" s="80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="83"/>
       <c r="C31" s="83"/>
@@ -11291,7 +11288,7 @@
     </row>
     <row r="32" s="51" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A32" s="80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="83"/>
       <c r="C32" s="83"/>
@@ -11317,7 +11314,7 @@
     </row>
     <row r="33" s="51" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A33" s="80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="34" s="51" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A34" s="80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
@@ -11392,67 +11389,67 @@
   <sheetData>
     <row r="1" ht="121.5" spans="1:21">
       <c r="A1" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R1" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T1" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U1" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11494,7 +11491,7 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="35.25" spans="1:39">
       <c r="A2" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -11540,7 +11537,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A4" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
@@ -11578,14 +11575,14 @@
       <c r="AF4" s="31"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL4" s="10" t="s">
         <v>5</v>
@@ -11595,10 +11592,10 @@
     </row>
     <row r="5" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11615,7 +11612,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -11632,7 +11629,7 @@
       <c r="AD5" s="15"/>
       <c r="AE5" s="28"/>
       <c r="AF5" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
@@ -11646,121 +11643,121 @@
     <row r="6" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:40">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="R6" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="U6" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="V6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="X6" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="AA6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="AB6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="AC6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="AD6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="R6" s="17" t="s">
+      <c r="AE6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="AG6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH6" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="AI6" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ6" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL6" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM6" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN6" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:42">
@@ -15637,7 +15634,7 @@
     </row>
     <row r="31" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
       <c r="A31" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -15681,7 +15678,7 @@
     </row>
     <row r="32" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
       <c r="A32" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -15725,7 +15722,7 @@
     </row>
     <row r="33" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
       <c r="A33" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -15769,7 +15766,7 @@
     </row>
     <row r="34" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:40">
       <c r="A34" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -15883,7 +15880,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" s="7"/>
     </row>

--- a/excel/finished/烧结/5#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/5#烧结机生产日报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" state="visible" r:id="rId1"/>
@@ -4223,14 +4223,14 @@
       <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="35" t="str">
-        <f>IFERROR(AVERAGE(B7:B9),"")</f>
-        <v/>
+      <c r="B10" s="35">
+        <f>IFERROR(SUM(B7:B9),"")</f>
+        <v>0</v>
       </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="35" t="str">
-        <f>IFERROR(AVERAGE(D7:D9),"")</f>
-        <v/>
+      <c r="D10" s="35">
+        <f>IFERROR(SUM(D7:D9),"")</f>
+        <v>0</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="26" t="str">
@@ -6388,7 +6388,7 @@
     <mergeCell ref="U39:X39"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.20000000000000004" right="0.27916666666666701" top="0.51875000000000016" bottom="0.63819444444444495" header="0.5" footer="0.5"/>
+  <pageMargins left="0.20000000000000004" right="0.27916666666666701" top="0.51875000000000027" bottom="0.63819444444444495" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
